--- a/Översikt ÖSTERSUND.xlsx
+++ b/Översikt ÖSTERSUND.xlsx
@@ -575,7 +575,7 @@
         <v>45109</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -757,7 +757,7 @@
         <v>45155</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -894,7 +894,7 @@
         <v>44585</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -1021,7 +1021,7 @@
         <v>45690</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1138,7 +1138,7 @@
         <v>45932</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1253,7 +1253,7 @@
         <v>45985.42282407408</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1367,7 +1367,7 @@
         <v>45924</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1480,7 +1480,7 @@
         <v>44344</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1592,7 +1592,7 @@
         <v>44642</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1704,7 +1704,7 @@
         <v>45600</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1820,7 +1820,7 @@
         <v>45988.52288194445</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1936,7 +1936,7 @@
         <v>45747</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -2044,7 +2044,7 @@
         <v>45112</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -2143,7 +2143,7 @@
         <v>45932.58673611111</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2250,7 +2250,7 @@
         <v>44819</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2357,7 +2357,7 @@
         <v>45916.80152777778</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2463,7 +2463,7 @@
         <v>44945</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2569,7 +2569,7 @@
         <v>45965</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2674,7 +2674,7 @@
         <v>45975.49049768518</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2775,7 +2775,7 @@
         <v>45978.57238425926</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2876,7 +2876,7 @@
         <v>45929</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2977,7 +2977,7 @@
         <v>45890</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -3081,7 +3081,7 @@
         <v>45940.65138888889</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -3185,7 +3185,7 @@
         <v>45621</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3284,7 +3284,7 @@
         <v>45937.55055555556</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3387,7 +3387,7 @@
         <v>45932.65210648148</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3490,7 +3490,7 @@
         <v>46051.68951388889</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3593,7 +3593,7 @@
         <v>44971</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3692,7 +3692,7 @@
         <v>45649</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3790,7 +3790,7 @@
         <v>45937.64063657408</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3892,7 +3892,7 @@
         <v>45470</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3994,7 +3994,7 @@
         <v>45754.67761574074</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -4093,7 +4093,7 @@
         <v>45475.94597222222</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -4191,7 +4191,7 @@
         <v>45575.77440972222</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -4288,7 +4288,7 @@
         <v>45952.46650462963</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4389,7 +4389,7 @@
         <v>45526</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4487,7 +4487,7 @@
         <v>45063</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4583,7 +4583,7 @@
         <v>45415</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4683,7 +4683,7 @@
         <v>45369</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4775,7 +4775,7 @@
         <v>45975.63604166666</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4871,7 +4871,7 @@
         <v>46010.45428240741</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4971,7 +4971,7 @@
         <v>45170</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -5072,7 +5072,7 @@
         <v>45349</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -5173,7 +5173,7 @@
         <v>44414</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -5268,7 +5268,7 @@
         <v>45831</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -5363,7 +5363,7 @@
         <v>45958</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -5462,7 +5462,7 @@
         <v>45981.50630787037</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5557,7 +5557,7 @@
         <v>45936.66547453704</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5656,7 +5656,7 @@
         <v>45890</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5751,7 +5751,7 @@
         <v>45945.47331018518</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5850,7 +5850,7 @@
         <v>45806</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5949,7 +5949,7 @@
         <v>45953</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -6048,7 +6048,7 @@
         <v>45028</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -6144,7 +6144,7 @@
         <v>46049.67512731482</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -6243,7 +6243,7 @@
         <v>45233</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -6339,7 +6339,7 @@
         <v>44356</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -6437,7 +6437,7 @@
         <v>45762.51075231482</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -6532,7 +6532,7 @@
         <v>44929</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6626,7 +6626,7 @@
         <v>45555</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6724,7 +6724,7 @@
         <v>44337</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6818,7 +6818,7 @@
         <v>45897</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6913,7 +6913,7 @@
         <v>46008.48708333333</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -7007,7 +7007,7 @@
         <v>46010.46366898148</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -7105,7 +7105,7 @@
         <v>46000.61640046296</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -7203,7 +7203,7 @@
         <v>45684</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -7297,7 +7297,7 @@
         <v>44851</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -7391,7 +7391,7 @@
         <v>44270.58950231481</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -7485,7 +7485,7 @@
         <v>45645</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -7583,7 +7583,7 @@
         <v>44742</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -7677,7 +7677,7 @@
         <v>45254</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7770,7 +7770,7 @@
         <v>45821.59243055555</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7863,7 +7863,7 @@
         <v>45618.43853009259</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7961,7 +7961,7 @@
         <v>45978.61351851852</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -8054,7 +8054,7 @@
         <v>45985.53155092592</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -8147,7 +8147,7 @@
         <v>45975.43427083334</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -8240,7 +8240,7 @@
         <v>45349</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -8338,7 +8338,7 @@
         <v>46006.34435185185</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -8436,7 +8436,7 @@
         <v>45369</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -8529,7 +8529,7 @@
         <v>45161</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -8622,7 +8622,7 @@
         <v>45189</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -8711,7 +8711,7 @@
         <v>45553</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -8800,7 +8800,7 @@
         <v>45237</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8897,7 +8897,7 @@
         <v>45462.95982638889</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8985,7 +8985,7 @@
         <v>45349</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -9078,7 +9078,7 @@
         <v>45901.49171296296</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -9171,7 +9171,7 @@
         <v>44945</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -9268,7 +9268,7 @@
         <v>45831</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -9360,7 +9360,7 @@
         <v>45938.40790509259</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -9453,7 +9453,7 @@
         <v>45968.6444212963</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -9545,7 +9545,7 @@
         <v>44904</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -9633,7 +9633,7 @@
         <v>45981.47217592593</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -9726,7 +9726,7 @@
         <v>45644</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -9818,7 +9818,7 @@
         <v>44750</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -9906,7 +9906,7 @@
         <v>46049.64416666667</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -9994,7 +9994,7 @@
         <v>45161</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -10086,7 +10086,7 @@
         <v>44473.43114583333</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -10182,7 +10182,7 @@
         <v>45602</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -10282,7 +10282,7 @@
         <v>45187</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -10378,7 +10378,7 @@
         <v>45538.33584490741</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -10465,7 +10465,7 @@
         <v>45321</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -10552,7 +10552,7 @@
         <v>44956</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -10639,7 +10639,7 @@
         <v>45049</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -10726,7 +10726,7 @@
         <v>45873.69988425926</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -10813,7 +10813,7 @@
         <v>44904</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -10904,7 +10904,7 @@
         <v>45198</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -10996,7 +10996,7 @@
         <v>44904</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -11087,7 +11087,7 @@
         <v>45975.63585648148</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -11178,7 +11178,7 @@
         <v>45558</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -11270,7 +11270,7 @@
         <v>45615.29761574074</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -11357,7 +11357,7 @@
         <v>45707.45219907408</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -11444,7 +11444,7 @@
         <v>45600.42737268518</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -11535,7 +11535,7 @@
         <v>45643.59420138889</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -11626,7 +11626,7 @@
         <v>45721.44840277778</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -11717,7 +11717,7 @@
         <v>45748.47314814815</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -11803,7 +11803,7 @@
         <v>45810</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -11889,7 +11889,7 @@
         <v>45894.67988425926</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -11975,7 +11975,7 @@
         <v>45919.59467592592</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -12066,7 +12066,7 @@
         <v>45533.49601851852</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -12152,7 +12152,7 @@
         <v>45966.94104166667</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -12238,7 +12238,7 @@
         <v>45975</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -12324,7 +12324,7 @@
         <v>45987.55831018519</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -12410,7 +12410,7 @@
         <v>45278</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -12496,7 +12496,7 @@
         <v>44908</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -12582,7 +12582,7 @@
         <v>44441</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -12672,7 +12672,7 @@
         <v>44853</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -12762,7 +12762,7 @@
         <v>44911</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -12848,7 +12848,7 @@
         <v>45223</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -12939,7 +12939,7 @@
         <v>44956</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -13025,7 +13025,7 @@
         <v>45441.95357638889</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -13120,7 +13120,7 @@
         <v>45553.59296296296</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -13210,7 +13210,7 @@
         <v>45233</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -13296,7 +13296,7 @@
         <v>45737</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -13386,7 +13386,7 @@
         <v>44904</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -13472,7 +13472,7 @@
         <v>44376</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -13562,7 +13562,7 @@
         <v>44623</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -13647,7 +13647,7 @@
         <v>44694</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -13737,7 +13737,7 @@
         <v>44441</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -13826,7 +13826,7 @@
         <v>44742</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -13916,7 +13916,7 @@
         <v>45637.34469907408</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -14010,7 +14010,7 @@
         <v>45280.56451388889</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -14095,7 +14095,7 @@
         <v>44476</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -14180,7 +14180,7 @@
         <v>44298</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -14265,7 +14265,7 @@
         <v>45809.86790509259</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -14350,7 +14350,7 @@
         <v>45910.41201388889</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -14439,7 +14439,7 @@
         <v>45509.9572800926</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -14529,7 +14529,7 @@
         <v>45931.40935185185</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -14614,7 +14614,7 @@
         <v>44617</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -14704,7 +14704,7 @@
         <v>45841.57331018519</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -14794,7 +14794,7 @@
         <v>45096</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -14879,7 +14879,7 @@
         <v>45572.59462962963</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -14969,7 +14969,7 @@
         <v>45867.51128472222</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -15059,7 +15059,7 @@
         <v>45617.40244212963</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -15148,7 +15148,7 @@
         <v>45959.32394675926</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -15238,7 +15238,7 @@
         <v>45797.60623842593</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -15323,7 +15323,7 @@
         <v>44900</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -15408,7 +15408,7 @@
         <v>45985.43086805556</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -15502,7 +15502,7 @@
         <v>45559.63584490741</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -15592,7 +15592,7 @@
         <v>44785</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -15681,7 +15681,7 @@
         <v>45629.35344907407</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -15775,7 +15775,7 @@
         <v>45999.67758101852</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -15865,7 +15865,7 @@
         <v>46043.67922453704</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -15950,7 +15950,7 @@
         <v>46042.58655092592</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -16035,7 +16035,7 @@
         <v>45897</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -16125,7 +16125,7 @@
         <v>45624.59462962963</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -16215,7 +16215,7 @@
         <v>45372</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -16300,7 +16300,7 @@
         <v>46044.84650462963</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -16385,7 +16385,7 @@
         <v>45559</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -16475,7 +16475,7 @@
         <v>45558</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -16565,7 +16565,7 @@
         <v>46045</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -16654,7 +16654,7 @@
         <v>46008.67969907408</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -16739,7 +16739,7 @@
         <v>46051.57149305556</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -16824,7 +16824,7 @@
         <v>45561.34641203703</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -16914,7 +16914,7 @@
         <v>44491</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -17004,7 +17004,7 @@
         <v>44928</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -17093,7 +17093,7 @@
         <v>45558</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -17183,7 +17183,7 @@
         <v>45570</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -17268,7 +17268,7 @@
         <v>45558</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -17358,7 +17358,7 @@
         <v>44316</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -17415,7 +17415,7 @@
         <v>44432</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -17477,7 +17477,7 @@
         <v>44328</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -17534,7 +17534,7 @@
         <v>44879.49488425926</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -17591,7 +17591,7 @@
         <v>44238</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -17648,7 +17648,7 @@
         <v>44510.44064814815</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -17705,7 +17705,7 @@
         <v>44418.45925925926</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -17762,7 +17762,7 @@
         <v>44524.94607638889</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -17824,7 +17824,7 @@
         <v>44375</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -17881,7 +17881,7 @@
         <v>44362</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -17938,7 +17938,7 @@
         <v>44838</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -18000,7 +18000,7 @@
         <v>44540</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -18057,7 +18057,7 @@
         <v>44790</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -18114,7 +18114,7 @@
         <v>44613</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -18171,7 +18171,7 @@
         <v>44312.41724537037</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -18228,7 +18228,7 @@
         <v>44581</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -18285,7 +18285,7 @@
         <v>44852</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -18342,7 +18342,7 @@
         <v>44259</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -18399,7 +18399,7 @@
         <v>44561</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -18456,7 +18456,7 @@
         <v>44278.42459490741</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -18513,7 +18513,7 @@
         <v>44383.85295138889</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -18570,7 +18570,7 @@
         <v>44347</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -18627,7 +18627,7 @@
         <v>44441.80453703704</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -18684,7 +18684,7 @@
         <v>44340</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -18741,7 +18741,7 @@
         <v>44453</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -18798,7 +18798,7 @@
         <v>44349</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -18855,7 +18855,7 @@
         <v>44347</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -18912,7 +18912,7 @@
         <v>44566</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -18969,7 +18969,7 @@
         <v>44298</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -19026,7 +19026,7 @@
         <v>44755</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -19088,7 +19088,7 @@
         <v>44434</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -19145,7 +19145,7 @@
         <v>44852.95248842592</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -19202,7 +19202,7 @@
         <v>44540</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -19259,7 +19259,7 @@
         <v>44299</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -19316,7 +19316,7 @@
         <v>44335</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -19373,7 +19373,7 @@
         <v>44537.935</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -19430,7 +19430,7 @@
         <v>44609.93075231482</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -19487,7 +19487,7 @@
         <v>44889.89929398148</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -19544,7 +19544,7 @@
         <v>44516</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -19601,7 +19601,7 @@
         <v>44851</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -19658,7 +19658,7 @@
         <v>44375</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -19715,7 +19715,7 @@
         <v>44875</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -19777,7 +19777,7 @@
         <v>44886.63148148148</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -19859,7 +19859,7 @@
         <v>44515</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -19921,7 +19921,7 @@
         <v>44750</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -19978,7 +19978,7 @@
         <v>44544</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -20035,7 +20035,7 @@
         <v>44742</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -20117,7 +20117,7 @@
         <v>44517.55134259259</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -20174,7 +20174,7 @@
         <v>44601.36165509259</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -20231,7 +20231,7 @@
         <v>44722</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -20293,7 +20293,7 @@
         <v>44722.94023148148</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -20355,7 +20355,7 @@
         <v>44721</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -20412,7 +20412,7 @@
         <v>44845.67710648148</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -20469,7 +20469,7 @@
         <v>44430</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -20526,7 +20526,7 @@
         <v>44385</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -20583,7 +20583,7 @@
         <v>45313.9496875</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -20645,7 +20645,7 @@
         <v>44258</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -20702,7 +20702,7 @@
         <v>44375</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -20759,7 +20759,7 @@
         <v>44340</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -20816,7 +20816,7 @@
         <v>44322</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -20873,7 +20873,7 @@
         <v>44540</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -20930,7 +20930,7 @@
         <v>44655</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -20987,7 +20987,7 @@
         <v>44594</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -21044,7 +21044,7 @@
         <v>44704.94370370371</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -21106,7 +21106,7 @@
         <v>45273</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -21163,7 +21163,7 @@
         <v>45596.55266203704</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -21225,7 +21225,7 @@
         <v>45634.72633101852</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -21282,7 +21282,7 @@
         <v>44799</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -21339,7 +21339,7 @@
         <v>44599.45850694444</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -21396,7 +21396,7 @@
         <v>44642.93471064815</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -21458,7 +21458,7 @@
         <v>44875</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -21515,7 +21515,7 @@
         <v>45189</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -21572,7 +21572,7 @@
         <v>45505.95078703704</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -21634,7 +21634,7 @@
         <v>44607</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -21691,7 +21691,7 @@
         <v>44236</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -21748,7 +21748,7 @@
         <v>44957</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -21805,7 +21805,7 @@
         <v>44911.93994212963</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -21862,7 +21862,7 @@
         <v>45721.36320601852</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -21919,7 +21919,7 @@
         <v>44706</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -21976,7 +21976,7 @@
         <v>45667.46922453704</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -22038,7 +22038,7 @@
         <v>45589.62625</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -22095,7 +22095,7 @@
         <v>45686</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -22152,7 +22152,7 @@
         <v>45569.39229166666</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -22209,7 +22209,7 @@
         <v>45588.3440625</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -22266,7 +22266,7 @@
         <v>45588.34418981482</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -22323,7 +22323,7 @@
         <v>45457.37893518519</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -22380,7 +22380,7 @@
         <v>45238.96770833333</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -22442,7 +22442,7 @@
         <v>45357.96106481482</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -22499,7 +22499,7 @@
         <v>44634.52982638889</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -22556,7 +22556,7 @@
         <v>45770.6925462963</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -22613,7 +22613,7 @@
         <v>45600.38585648148</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -22675,7 +22675,7 @@
         <v>45315</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -22732,7 +22732,7 @@
         <v>45621</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -22794,7 +22794,7 @@
         <v>45691</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -22856,7 +22856,7 @@
         <v>45693</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -22913,7 +22913,7 @@
         <v>44837.36724537037</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -22970,7 +22970,7 @@
         <v>44909.9640162037</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -23032,7 +23032,7 @@
         <v>45693</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -23089,7 +23089,7 @@
         <v>45221.92440972223</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -23146,7 +23146,7 @@
         <v>44911.54984953703</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -23203,7 +23203,7 @@
         <v>45567.39192129629</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -23260,7 +23260,7 @@
         <v>45336</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -23317,7 +23317,7 @@
         <v>45677.4649537037</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -23379,7 +23379,7 @@
         <v>44977.98629629629</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -23441,7 +23441,7 @@
         <v>45798.46913194445</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -23503,7 +23503,7 @@
         <v>45798.42108796296</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -23560,7 +23560,7 @@
         <v>45799.68418981481</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -23617,7 +23617,7 @@
         <v>45611.66655092593</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -23674,7 +23674,7 @@
         <v>44711.9403587963</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -23731,7 +23731,7 @@
         <v>44405</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -23788,7 +23788,7 @@
         <v>45799.7372337963</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -23845,7 +23845,7 @@
         <v>45799.56515046296</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -23902,7 +23902,7 @@
         <v>45799.69116898148</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -23959,7 +23959,7 @@
         <v>44909</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -24016,7 +24016,7 @@
         <v>45803</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -24078,7 +24078,7 @@
         <v>45887.57407407407</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -24135,7 +24135,7 @@
         <v>44475</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -24192,7 +24192,7 @@
         <v>45646.39434027778</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -24249,7 +24249,7 @@
         <v>45800.50355324074</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -24306,7 +24306,7 @@
         <v>44441</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -24363,7 +24363,7 @@
         <v>45887.55666666666</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -24420,7 +24420,7 @@
         <v>44529</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -24477,7 +24477,7 @@
         <v>45800.46960648148</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -24534,7 +24534,7 @@
         <v>45725.44297453704</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -24591,7 +24591,7 @@
         <v>45805.42827546296</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -24653,7 +24653,7 @@
         <v>45223</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -24710,7 +24710,7 @@
         <v>45587.42835648148</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -24767,7 +24767,7 @@
         <v>45807</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -24824,7 +24824,7 @@
         <v>45807</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -24881,7 +24881,7 @@
         <v>45691</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -24943,7 +24943,7 @@
         <v>45320.92060185185</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -25000,7 +25000,7 @@
         <v>45811.59258101852</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -25057,7 +25057,7 @@
         <v>45625</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -25114,7 +25114,7 @@
         <v>45807.75076388889</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -25171,7 +25171,7 @@
         <v>45888.40700231482</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -25228,7 +25228,7 @@
         <v>45751.36518518518</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -25285,7 +25285,7 @@
         <v>45364.3874074074</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -25342,7 +25342,7 @@
         <v>45748.46021990741</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -25399,7 +25399,7 @@
         <v>45888.52440972222</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -25456,7 +25456,7 @@
         <v>45736.71818287037</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -25513,7 +25513,7 @@
         <v>45551.67761574074</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -25575,7 +25575,7 @@
         <v>45811.5928587963</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -25632,7 +25632,7 @@
         <v>45720.38576388889</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -25694,7 +25694,7 @@
         <v>44742</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -25751,7 +25751,7 @@
         <v>45813.43966435185</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -25808,7 +25808,7 @@
         <v>45725.44039351852</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -25865,7 +25865,7 @@
         <v>45800.47802083333</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -25922,7 +25922,7 @@
         <v>45895.4484837963</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -25979,7 +25979,7 @@
         <v>45895.49026620371</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -26036,7 +26036,7 @@
         <v>45895.49024305555</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -26093,7 +26093,7 @@
         <v>45701.61899305556</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -26150,7 +26150,7 @@
         <v>45707.42825231481</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -26212,7 +26212,7 @@
         <v>45895.44856481482</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -26269,7 +26269,7 @@
         <v>45656.53215277778</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -26326,7 +26326,7 @@
         <v>45817</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -26388,7 +26388,7 @@
         <v>44655.69303240741</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -26445,7 +26445,7 @@
         <v>45740.54168981482</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -26507,7 +26507,7 @@
         <v>45819.59429398148</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -26569,7 +26569,7 @@
         <v>45321</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -26626,7 +26626,7 @@
         <v>45818.40337962963</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -26688,7 +26688,7 @@
         <v>44970.97871527778</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -26750,7 +26750,7 @@
         <v>45901</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -26807,7 +26807,7 @@
         <v>45595.34762731481</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -26864,7 +26864,7 @@
         <v>45460.7772800926</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -26921,7 +26921,7 @@
         <v>45902.36641203704</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -26978,7 +26978,7 @@
         <v>45902.42280092592</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -27035,7 +27035,7 @@
         <v>45659.44413194444</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -27092,7 +27092,7 @@
         <v>45188</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -27149,7 +27149,7 @@
         <v>45904.3452662037</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -27206,7 +27206,7 @@
         <v>45442.38511574074</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -27263,7 +27263,7 @@
         <v>45866.51630787037</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -27320,7 +27320,7 @@
         <v>45804.656875</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -27382,7 +27382,7 @@
         <v>45425.96443287037</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -27444,7 +27444,7 @@
         <v>45909.44971064815</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -27501,7 +27501,7 @@
         <v>45910.4900462963</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -27563,7 +27563,7 @@
         <v>45911.61579861111</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -27625,7 +27625,7 @@
         <v>45827.49415509259</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -27682,7 +27682,7 @@
         <v>45911.40074074074</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -27739,7 +27739,7 @@
         <v>45911.57349537037</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -27801,7 +27801,7 @@
         <v>45462.56172453704</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -27858,7 +27858,7 @@
         <v>45827.36590277778</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -27915,7 +27915,7 @@
         <v>45004</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -27972,7 +27972,7 @@
         <v>45916.59773148148</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -28029,7 +28029,7 @@
         <v>45720.3859375</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -28091,7 +28091,7 @@
         <v>44743</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -28148,7 +28148,7 @@
         <v>45916.57010416667</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -28205,7 +28205,7 @@
         <v>45567.51068287037</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -28267,7 +28267,7 @@
         <v>44916</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -28324,7 +28324,7 @@
         <v>45610.61030092592</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -28381,7 +28381,7 @@
         <v>45309</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -28438,7 +28438,7 @@
         <v>45922.4075</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -28500,7 +28500,7 @@
         <v>45922.4077662037</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -28562,7 +28562,7 @@
         <v>45920.8446412037</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -28619,7 +28619,7 @@
         <v>45922.40680555555</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -28681,7 +28681,7 @@
         <v>45107</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -28738,7 +28738,7 @@
         <v>45922.40697916667</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -28800,7 +28800,7 @@
         <v>45922.4074537037</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -28862,7 +28862,7 @@
         <v>45922</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -28924,7 +28924,7 @@
         <v>45922.53217592592</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -28981,7 +28981,7 @@
         <v>45924.59484953704</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -29043,7 +29043,7 @@
         <v>45924.61512731481</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -29105,7 +29105,7 @@
         <v>45261</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -29167,7 +29167,7 @@
         <v>45924.70346064815</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -29224,7 +29224,7 @@
         <v>45835.4491087963</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -29286,7 +29286,7 @@
         <v>45089.54944444444</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -29343,7 +29343,7 @@
         <v>45511.92825231481</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -29400,7 +29400,7 @@
         <v>45685.69267361111</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -29457,7 +29457,7 @@
         <v>45835.67109953704</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -29514,7 +29514,7 @@
         <v>45734.48991898148</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -29576,7 +29576,7 @@
         <v>45931.38956018518</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -29633,7 +29633,7 @@
         <v>45588.61512731481</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -29690,7 +29690,7 @@
         <v>45576.46905092592</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -29747,7 +29747,7 @@
         <v>45618.6917824074</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -29804,7 +29804,7 @@
         <v>45580.42736111111</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -29861,7 +29861,7 @@
         <v>45931.40100694444</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -29918,7 +29918,7 @@
         <v>45931.40671296296</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -29975,7 +29975,7 @@
         <v>45245</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -30037,7 +30037,7 @@
         <v>44434</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -30094,7 +30094,7 @@
         <v>45231</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -30156,7 +30156,7 @@
         <v>45583.46936342592</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -30213,7 +30213,7 @@
         <v>45806.40677083333</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -30270,7 +30270,7 @@
         <v>45931.67381944445</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -30327,7 +30327,7 @@
         <v>44580</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -30389,7 +30389,7 @@
         <v>45617.65800925926</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -30446,7 +30446,7 @@
         <v>44410.35376157407</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -30503,7 +30503,7 @@
         <v>45837.57481481481</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -30565,7 +30565,7 @@
         <v>45837.51741898148</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -30627,7 +30627,7 @@
         <v>45837.67381944445</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -30689,7 +30689,7 @@
         <v>44466</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -30746,7 +30746,7 @@
         <v>44701.94034722223</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -30803,7 +30803,7 @@
         <v>45837.66230324074</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -30865,7 +30865,7 @@
         <v>45722.44892361111</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -30927,7 +30927,7 @@
         <v>45707</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -30984,7 +30984,7 @@
         <v>45707.40493055555</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -31046,7 +31046,7 @@
         <v>45691.40832175926</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -31103,7 +31103,7 @@
         <v>45691.40836805556</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -31160,7 +31160,7 @@
         <v>45978.45540509259</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -31217,7 +31217,7 @@
         <v>45979.6756712963</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -31279,7 +31279,7 @@
         <v>45937.47302083333</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -31341,7 +31341,7 @@
         <v>45203</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -31398,7 +31398,7 @@
         <v>44914.35599537037</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -31455,7 +31455,7 @@
         <v>45841.38054398148</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -31512,7 +31512,7 @@
         <v>44911.6459837963</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -31569,7 +31569,7 @@
         <v>45937.63275462963</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -31626,7 +31626,7 @@
         <v>45681.36493055556</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -31688,7 +31688,7 @@
         <v>45681.40689814815</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -31750,7 +31750,7 @@
         <v>45939.49018518518</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -31807,7 +31807,7 @@
         <v>45681.4275462963</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -31869,7 +31869,7 @@
         <v>45000</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -31926,7 +31926,7 @@
         <v>45939</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -31988,7 +31988,7 @@
         <v>45190</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -32045,7 +32045,7 @@
         <v>45943.59442129629</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -32107,7 +32107,7 @@
         <v>45688.69356481481</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -32164,7 +32164,7 @@
         <v>45945.47097222223</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -32221,7 +32221,7 @@
         <v>45847.40722222222</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -32283,7 +32283,7 @@
         <v>45342</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -32345,7 +32345,7 @@
         <v>45846.44827546296</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -32402,7 +32402,7 @@
         <v>45944.67787037037</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -32464,7 +32464,7 @@
         <v>45987.67032407408</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -32521,7 +32521,7 @@
         <v>45847.61561342593</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -32583,7 +32583,7 @@
         <v>45719.38630787037</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -32645,7 +32645,7 @@
         <v>45847.61533564814</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -32707,7 +32707,7 @@
         <v>45338</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -32764,7 +32764,7 @@
         <v>45707</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -32821,7 +32821,7 @@
         <v>44949</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -32878,7 +32878,7 @@
         <v>45800.48368055555</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -32935,7 +32935,7 @@
         <v>45679.55256944444</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -32997,7 +32997,7 @@
         <v>45632.68814814815</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -33054,7 +33054,7 @@
         <v>45953.47575231481</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -33111,7 +33111,7 @@
         <v>45953.58497685185</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -33168,7 +33168,7 @@
         <v>44790</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -33225,7 +33225,7 @@
         <v>45684.56725694444</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -33282,7 +33282,7 @@
         <v>45807.74140046296</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -33339,7 +33339,7 @@
         <v>45953.56976851852</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -33396,7 +33396,7 @@
         <v>45867.46946759259</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -33458,7 +33458,7 @@
         <v>44511.94629629629</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -33515,7 +33515,7 @@
         <v>45849.55601851852</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -33572,7 +33572,7 @@
         <v>45866.50549768518</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -33634,7 +33634,7 @@
         <v>45952.5909375</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -33691,7 +33691,7 @@
         <v>45869</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -33753,7 +33753,7 @@
         <v>45957.62978009259</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -33810,7 +33810,7 @@
         <v>45300</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -33867,7 +33867,7 @@
         <v>45954.68207175926</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -33924,7 +33924,7 @@
         <v>45729.3425</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -33981,7 +33981,7 @@
         <v>45957.67876157408</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -34043,7 +34043,7 @@
         <v>45958.36498842593</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -34105,7 +34105,7 @@
         <v>45344</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -34162,7 +34162,7 @@
         <v>45875.44840277778</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -34219,7 +34219,7 @@
         <v>45265.95795138889</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -34281,7 +34281,7 @@
         <v>45958.36537037037</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -34343,7 +34343,7 @@
         <v>45586.40660879629</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -34405,7 +34405,7 @@
         <v>44927.88021990741</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -34462,7 +34462,7 @@
         <v>45922</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -34524,7 +34524,7 @@
         <v>45280</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -34581,7 +34581,7 @@
         <v>45280</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -34638,7 +34638,7 @@
         <v>45096</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -34695,7 +34695,7 @@
         <v>45751.36519675926</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -34752,7 +34752,7 @@
         <v>45964.46944444445</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -34814,7 +34814,7 @@
         <v>45412.46636574074</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -34871,7 +34871,7 @@
         <v>45965.63496527778</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -34928,7 +34928,7 @@
         <v>45967.49037037037</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -34985,7 +34985,7 @@
         <v>45646.48988425926</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -35047,7 +35047,7 @@
         <v>45646.49012731481</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -35109,7 +35109,7 @@
         <v>45646.49017361111</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -35171,7 +35171,7 @@
         <v>45708.50256944444</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -35228,7 +35228,7 @@
         <v>45966.4077662037</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -35285,7 +35285,7 @@
         <v>45967.42462962963</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -35342,7 +35342,7 @@
         <v>45553.60474537037</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -35399,7 +35399,7 @@
         <v>45264</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -35456,7 +35456,7 @@
         <v>45968.53167824074</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -35518,7 +35518,7 @@
         <v>45754.56839120371</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -35575,7 +35575,7 @@
         <v>44889.59378472222</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -35637,7 +35637,7 @@
         <v>45974.38310185185</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -35694,7 +35694,7 @@
         <v>45696.34405092592</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -35751,7 +35751,7 @@
         <v>45012</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -35808,7 +35808,7 @@
         <v>46019</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -35865,7 +35865,7 @@
         <v>45978.57414351852</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -35922,7 +35922,7 @@
         <v>45112</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -35979,7 +35979,7 @@
         <v>45976.58684027778</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -36036,7 +36036,7 @@
         <v>46021.34454861111</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -36093,7 +36093,7 @@
         <v>45667.40662037037</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -36155,7 +36155,7 @@
         <v>44840</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -36212,7 +36212,7 @@
         <v>45730.36263888889</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -36269,7 +36269,7 @@
         <v>46021.46912037037</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -36326,7 +36326,7 @@
         <v>46021.34450231482</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -36383,7 +36383,7 @@
         <v>45475.94585648148</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -36445,7 +36445,7 @@
         <v>46020.47796296296</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -36502,7 +36502,7 @@
         <v>45223</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -36559,7 +36559,7 @@
         <v>46020.49056712963</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -36616,7 +36616,7 @@
         <v>45719.59836805556</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -36673,7 +36673,7 @@
         <v>45593.51123842593</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -36735,7 +36735,7 @@
         <v>45593.57327546296</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -36797,7 +36797,7 @@
         <v>45980.61142361111</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -36854,7 +36854,7 @@
         <v>45118</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -36911,7 +36911,7 @@
         <v>45642.54847222222</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -36968,7 +36968,7 @@
         <v>45982.61043981482</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -37025,7 +37025,7 @@
         <v>45982.5862037037</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -37082,7 +37082,7 @@
         <v>46027.7344212963</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -37139,7 +37139,7 @@
         <v>45597.36623842592</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -37201,7 +37201,7 @@
         <v>45985.61524305555</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -37258,7 +37258,7 @@
         <v>45688.67965277778</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -37320,7 +37320,7 @@
         <v>45985.51131944444</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -37377,7 +37377,7 @@
         <v>45985.51128472222</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -37434,7 +37434,7 @@
         <v>46027.57334490741</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -37491,7 +37491,7 @@
         <v>45985.53162037037</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -37548,7 +37548,7 @@
         <v>46027.59451388889</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -37610,7 +37610,7 @@
         <v>45418.4843287037</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -37667,7 +37667,7 @@
         <v>45634.70898148148</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -37724,7 +37724,7 @@
         <v>45607.50137731482</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -37781,7 +37781,7 @@
         <v>45987.52949074074</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -37838,7 +37838,7 @@
         <v>45002</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -37900,7 +37900,7 @@
         <v>45987.33479166667</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -37957,7 +37957,7 @@
         <v>45987.34543981482</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -38014,7 +38014,7 @@
         <v>45986.39024305555</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -38071,7 +38071,7 @@
         <v>46029.41560185186</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -38128,7 +38128,7 @@
         <v>46024</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -38185,7 +38185,7 @@
         <v>45988.58856481482</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -38242,7 +38242,7 @@
         <v>44977</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -38304,7 +38304,7 @@
         <v>45987.83457175926</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -38361,7 +38361,7 @@
         <v>46031.6141087963</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -38418,7 +38418,7 @@
         <v>45743.37109953703</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -38475,7 +38475,7 @@
         <v>45686.6859375</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -38532,7 +38532,7 @@
         <v>45987.69552083333</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -38589,7 +38589,7 @@
         <v>44952</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -38646,7 +38646,7 @@
         <v>45992.38109953704</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -38703,7 +38703,7 @@
         <v>45992.3706712963</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -38760,7 +38760,7 @@
         <v>45992.47729166667</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -38817,7 +38817,7 @@
         <v>45177.93612268518</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -38879,7 +38879,7 @@
         <v>45992.37172453704</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -38936,7 +38936,7 @@
         <v>46034.38729166667</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -38993,7 +38993,7 @@
         <v>44907</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -39055,7 +39055,7 @@
         <v>44750</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -39112,7 +39112,7 @@
         <v>46037.6787962963</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -39169,7 +39169,7 @@
         <v>46037.68489583334</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -39226,7 +39226,7 @@
         <v>45740.46325231482</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -39283,7 +39283,7 @@
         <v>45574.38943287037</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -39345,7 +39345,7 @@
         <v>46030.61326388889</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -39402,7 +39402,7 @@
         <v>45995</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -39459,7 +39459,7 @@
         <v>46037.6703125</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -39516,7 +39516,7 @@
         <v>45705.57454861111</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -39578,7 +39578,7 @@
         <v>46032</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -39635,7 +39635,7 @@
         <v>46038.62193287037</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -39692,7 +39692,7 @@
         <v>46029</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -39749,7 +39749,7 @@
         <v>45012</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -39806,7 +39806,7 @@
         <v>46038.6322337963</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -39863,7 +39863,7 @@
         <v>46041.47474537037</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -39920,7 +39920,7 @@
         <v>45302.52006944444</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -39977,7 +39977,7 @@
         <v>45993</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -40034,7 +40034,7 @@
         <v>46038.62047453703</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -40091,7 +40091,7 @@
         <v>46038.6360300926</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -40148,7 +40148,7 @@
         <v>45748.4396412037</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -40205,7 +40205,7 @@
         <v>46000.62851851852</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -40262,7 +40262,7 @@
         <v>46000.63969907408</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -40319,7 +40319,7 @@
         <v>46000.67793981481</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -40376,7 +40376,7 @@
         <v>45678</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -40433,7 +40433,7 @@
         <v>44911.5662037037</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -40490,7 +40490,7 @@
         <v>46000</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -40547,7 +40547,7 @@
         <v>45611.46912037037</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -40609,7 +40609,7 @@
         <v>46001</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -40666,7 +40666,7 @@
         <v>44721</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -40723,7 +40723,7 @@
         <v>46045.59430555555</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -40785,7 +40785,7 @@
         <v>45616.67833333334</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -40847,7 +40847,7 @@
         <v>46003</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -40904,7 +40904,7 @@
         <v>46045.41643518519</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -40961,7 +40961,7 @@
         <v>44922</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -41018,7 +41018,7 @@
         <v>44680.92873842592</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -41075,7 +41075,7 @@
         <v>46003.62509259259</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -41132,7 +41132,7 @@
         <v>46045.61509259259</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -41189,7 +41189,7 @@
         <v>46003.56467592593</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -41246,7 +41246,7 @@
         <v>46003</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -41303,7 +41303,7 @@
         <v>46002</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -41360,7 +41360,7 @@
         <v>46003.6159375</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -41417,7 +41417,7 @@
         <v>46003.38026620371</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -41474,7 +41474,7 @@
         <v>46045.56253472222</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -41531,7 +41531,7 @@
         <v>46044.85285879629</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -41588,7 +41588,7 @@
         <v>46006.51157407407</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -41645,7 +41645,7 @@
         <v>45630.49710648148</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -41702,7 +41702,7 @@
         <v>44368</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -41759,7 +41759,7 @@
         <v>45239.33032407407</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -41821,7 +41821,7 @@
         <v>46006.51155092593</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -41878,7 +41878,7 @@
         <v>46007.46907407408</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -41935,7 +41935,7 @@
         <v>46048.89435185185</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -41992,7 +41992,7 @@
         <v>46007.49001157407</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -42049,7 +42049,7 @@
         <v>46007.5958912037</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -42106,7 +42106,7 @@
         <v>46045</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -42163,7 +42163,7 @@
         <v>46007.33719907407</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -42225,7 +42225,7 @@
         <v>46008.34438657408</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -42282,7 +42282,7 @@
         <v>46008.34443287037</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -42339,7 +42339,7 @@
         <v>44298</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -42396,7 +42396,7 @@
         <v>46050.44859953703</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -42453,7 +42453,7 @@
         <v>45628.53381944444</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -42510,7 +42510,7 @@
         <v>45428.92486111111</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -42572,7 +42572,7 @@
         <v>45701.60046296296</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -42629,7 +42629,7 @@
         <v>45092</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -42686,7 +42686,7 @@
         <v>45709.36497685185</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -42748,7 +42748,7 @@
         <v>46010.45680555556</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -42805,7 +42805,7 @@
         <v>46010.53825231481</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -42862,7 +42862,7 @@
         <v>46013.50993055556</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -42919,7 +42919,7 @@
         <v>46013.4459375</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -42976,7 +42976,7 @@
         <v>45757.64563657407</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -43033,7 +43033,7 @@
         <v>45559.59476851852</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -43095,7 +43095,7 @@
         <v>46014.5496875</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -43152,7 +43152,7 @@
         <v>46057.40715277778</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -43214,7 +43214,7 @@
         <v>46057.6153125</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -43271,7 +43271,7 @@
         <v>46051</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -43328,7 +43328,7 @@
         <v>45730.45930555555</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -43390,7 +43390,7 @@
         <v>46057.55269675926</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -43447,7 +43447,7 @@
         <v>46056.8547337963</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -43504,7 +43504,7 @@
         <v>45770.56363425926</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -43561,7 +43561,7 @@
         <v>46059.44539351852</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -43618,7 +43618,7 @@
         <v>44336</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -43675,7 +43675,7 @@
         <v>46059.44135416667</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -43732,7 +43732,7 @@
         <v>45547.90777777778</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -43789,7 +43789,7 @@
         <v>45621.41050925926</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -43846,7 +43846,7 @@
         <v>44425</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -43903,7 +43903,7 @@
         <v>45684</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -43960,7 +43960,7 @@
         <v>45344</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -44017,7 +44017,7 @@
         <v>44922</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -44074,7 +44074,7 @@
         <v>45588.61498842593</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -44136,7 +44136,7 @@
         <v>45600.53160879629</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -44198,7 +44198,7 @@
         <v>45260</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -44255,7 +44255,7 @@
         <v>45260</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -44312,7 +44312,7 @@
         <v>45376</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -44369,7 +44369,7 @@
         <v>44880</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -44426,7 +44426,7 @@
         <v>45223</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -44488,7 +44488,7 @@
         <v>44434</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -44545,7 +44545,7 @@
         <v>45707</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -44607,7 +44607,7 @@
         <v>44637</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -44664,7 +44664,7 @@
         <v>45462.96347222223</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -44726,7 +44726,7 @@
         <v>44609</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -44783,7 +44783,7 @@
         <v>44635</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -44840,7 +44840,7 @@
         <v>45743.57336805556</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -44897,7 +44897,7 @@
         <v>45677.47302083333</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -44954,7 +44954,7 @@
         <v>45149</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -45011,7 +45011,7 @@
         <v>45435.55372685185</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -45068,7 +45068,7 @@
         <v>45057</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -45125,7 +45125,7 @@
         <v>45475.3378125</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -45182,7 +45182,7 @@
         <v>45607.49265046296</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -45239,7 +45239,7 @@
         <v>45221.92429398148</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -45296,7 +45296,7 @@
         <v>45315</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -45353,7 +45353,7 @@
         <v>45477.28482638889</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -45410,7 +45410,7 @@
         <v>45645.44158564815</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -45467,7 +45467,7 @@
         <v>45166.9569675926</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -45529,7 +45529,7 @@
         <v>45236.62300925926</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -45591,7 +45591,7 @@
         <v>45677.44393518518</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -45648,7 +45648,7 @@
         <v>44922</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -45705,7 +45705,7 @@
         <v>45708.44947916667</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -45767,7 +45767,7 @@
         <v>45057.9441087963</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -45829,7 +45829,7 @@
         <v>44986.94196759259</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -45891,7 +45891,7 @@
         <v>45751.34664351852</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -45953,7 +45953,7 @@
         <v>44735</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -46010,7 +46010,7 @@
         <v>45183</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -46067,7 +46067,7 @@
         <v>44323</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -46124,7 +46124,7 @@
         <v>44757.92671296297</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -46181,7 +46181,7 @@
         <v>45237.50966435186</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -46238,7 +46238,7 @@
         <v>44883.44737268519</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -46295,7 +46295,7 @@
         <v>45370</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -46352,7 +46352,7 @@
         <v>45159.42180555555</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -46409,7 +46409,7 @@
         <v>45621.86827546296</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -46466,7 +46466,7 @@
         <v>45572.59430555555</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -46528,7 +46528,7 @@
         <v>45762.63375</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -46590,7 +46590,7 @@
         <v>45643.42986111111</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -46652,7 +46652,7 @@
         <v>44679.92574074074</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -46709,7 +46709,7 @@
         <v>45646.35685185185</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -46766,7 +46766,7 @@
         <v>44375</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -46823,7 +46823,7 @@
         <v>45223</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -46880,7 +46880,7 @@
         <v>44378</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -46937,7 +46937,7 @@
         <v>45223.5036574074</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -46994,7 +46994,7 @@
         <v>45236.92776620371</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -47051,7 +47051,7 @@
         <v>45477.26746527778</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -47108,7 +47108,7 @@
         <v>45008</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -47165,7 +47165,7 @@
         <v>45660.32672453704</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -47222,7 +47222,7 @@
         <v>45737.40131944444</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -47279,7 +47279,7 @@
         <v>45763</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -47336,7 +47336,7 @@
         <v>45763</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -47393,7 +47393,7 @@
         <v>45639.40684027778</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -47455,7 +47455,7 @@
         <v>45736.71956018519</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -47517,7 +47517,7 @@
         <v>44721.47241898148</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -47579,7 +47579,7 @@
         <v>45096</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -47636,7 +47636,7 @@
         <v>44614.91989583334</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -47693,7 +47693,7 @@
         <v>44986</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -47755,7 +47755,7 @@
         <v>45607.55260416667</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -47817,7 +47817,7 @@
         <v>45231</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -47879,7 +47879,7 @@
         <v>45707.42392361111</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -47936,7 +47936,7 @@
         <v>45324.93804398148</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -47998,7 +47998,7 @@
         <v>45314.58785879629</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -48055,7 +48055,7 @@
         <v>44533</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -48112,7 +48112,7 @@
         <v>44952</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -48169,7 +48169,7 @@
         <v>44937</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -48226,7 +48226,7 @@
         <v>45630</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -48283,7 +48283,7 @@
         <v>45429.92313657407</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -48340,7 +48340,7 @@
         <v>45715.59545138889</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -48397,7 +48397,7 @@
         <v>44643</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -48454,7 +48454,7 @@
         <v>45702.51765046296</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -48511,7 +48511,7 @@
         <v>45690.63628472222</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -48568,7 +48568,7 @@
         <v>45313</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -48625,7 +48625,7 @@
         <v>44375</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -48682,7 +48682,7 @@
         <v>45741.68631944444</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -48739,7 +48739,7 @@
         <v>45460.81277777778</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -48796,7 +48796,7 @@
         <v>45615.31297453704</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -48853,7 +48853,7 @@
         <v>45028</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -48910,7 +48910,7 @@
         <v>45306</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -48967,7 +48967,7 @@
         <v>44889</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -49024,7 +49024,7 @@
         <v>45743.44207175926</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -49081,7 +49081,7 @@
         <v>45693</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -49138,7 +49138,7 @@
         <v>45328</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -49195,7 +49195,7 @@
         <v>44564.93909722222</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -49252,7 +49252,7 @@
         <v>45636.5674537037</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -49309,7 +49309,7 @@
         <v>45198</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -49371,7 +49371,7 @@
         <v>45198</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -49433,7 +49433,7 @@
         <v>45692.55256944444</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -49490,7 +49490,7 @@
         <v>45777.58025462963</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -49547,7 +49547,7 @@
         <v>45777.62665509259</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -49604,7 +49604,7 @@
         <v>45779</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -49661,7 +49661,7 @@
         <v>45754</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -49723,7 +49723,7 @@
         <v>45743.39528935185</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -49780,7 +49780,7 @@
         <v>45754</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -49842,7 +49842,7 @@
         <v>45686.64175925926</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -49899,7 +49899,7 @@
         <v>45789.42538194444</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -49956,7 +49956,7 @@
         <v>45760.66995370371</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -50013,7 +50013,7 @@
         <v>45686.92384259259</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -50070,7 +50070,7 @@
         <v>45686.92864583333</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -50127,7 +50127,7 @@
         <v>45789.56414351852</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -50184,7 +50184,7 @@
         <v>45789</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -50241,7 +50241,7 @@
         <v>45786</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -50298,7 +50298,7 @@
         <v>45791</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -50355,7 +50355,7 @@
         <v>45707</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -50412,7 +50412,7 @@
         <v>45791.35212962963</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -50469,7 +50469,7 @@
         <v>45791.36526620371</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -50526,7 +50526,7 @@
         <v>45790.43905092592</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -50583,7 +50583,7 @@
         <v>45791.27984953704</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -50640,7 +50640,7 @@
         <v>45793.68469907407</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -50697,7 +50697,7 @@
         <v>45797.65025462963</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -50754,7 +50754,7 @@
         <v>45561.34908564815</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>

--- a/Översikt ÖSTERSUND.xlsx
+++ b/Översikt ÖSTERSUND.xlsx
@@ -575,7 +575,7 @@
         <v>45109</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -757,7 +757,7 @@
         <v>45155</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -894,7 +894,7 @@
         <v>44585</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -1021,7 +1021,7 @@
         <v>45690</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1138,7 +1138,7 @@
         <v>45932</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1253,7 +1253,7 @@
         <v>45985.42282407408</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1367,7 +1367,7 @@
         <v>45924</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1480,7 +1480,7 @@
         <v>44344</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1592,7 +1592,7 @@
         <v>44642</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1704,7 +1704,7 @@
         <v>45600</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1820,7 +1820,7 @@
         <v>45988.52288194445</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1936,7 +1936,7 @@
         <v>45747</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -2044,7 +2044,7 @@
         <v>45112</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -2143,7 +2143,7 @@
         <v>45932.58673611111</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2250,7 +2250,7 @@
         <v>44819</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2357,7 +2357,7 @@
         <v>45916.80152777778</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2463,7 +2463,7 @@
         <v>44945</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2569,7 +2569,7 @@
         <v>45965</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2674,7 +2674,7 @@
         <v>45975.49049768518</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2775,7 +2775,7 @@
         <v>45978.57238425926</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2876,7 +2876,7 @@
         <v>45929</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2977,7 +2977,7 @@
         <v>45890</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -3081,7 +3081,7 @@
         <v>45940.65138888889</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -3185,7 +3185,7 @@
         <v>45621</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3284,7 +3284,7 @@
         <v>45937.55055555556</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3387,7 +3387,7 @@
         <v>45932.65210648148</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3490,7 +3490,7 @@
         <v>46051.68951388889</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3593,7 +3593,7 @@
         <v>44971</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3692,7 +3692,7 @@
         <v>45649</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3790,7 +3790,7 @@
         <v>45937.64063657408</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3892,7 +3892,7 @@
         <v>45470</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3994,7 +3994,7 @@
         <v>45754.67761574074</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -4093,7 +4093,7 @@
         <v>45475.94597222222</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -4191,7 +4191,7 @@
         <v>45575.77440972222</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -4288,7 +4288,7 @@
         <v>45952.46650462963</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4389,7 +4389,7 @@
         <v>45526</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4487,7 +4487,7 @@
         <v>45063</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4583,7 +4583,7 @@
         <v>45415</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4683,7 +4683,7 @@
         <v>45369</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4775,7 +4775,7 @@
         <v>45975.63604166666</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4871,7 +4871,7 @@
         <v>46010.45428240741</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4971,7 +4971,7 @@
         <v>45170</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -5072,7 +5072,7 @@
         <v>45349</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -5173,7 +5173,7 @@
         <v>44414</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -5268,7 +5268,7 @@
         <v>45831</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -5363,7 +5363,7 @@
         <v>45958</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -5462,7 +5462,7 @@
         <v>45981.50630787037</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5557,7 +5557,7 @@
         <v>45936.66547453704</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5656,7 +5656,7 @@
         <v>45890</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5751,7 +5751,7 @@
         <v>45945.47331018518</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5850,7 +5850,7 @@
         <v>45806</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5949,7 +5949,7 @@
         <v>45953</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -6048,7 +6048,7 @@
         <v>45028</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -6144,7 +6144,7 @@
         <v>46049.67512731482</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -6243,7 +6243,7 @@
         <v>45233</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -6339,7 +6339,7 @@
         <v>44356</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -6437,7 +6437,7 @@
         <v>45762.51075231482</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -6532,7 +6532,7 @@
         <v>44929</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6626,7 +6626,7 @@
         <v>45555</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6724,7 +6724,7 @@
         <v>44337</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6818,7 +6818,7 @@
         <v>45897</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6913,7 +6913,7 @@
         <v>46008.48708333333</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -7007,7 +7007,7 @@
         <v>46010.46366898148</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -7105,7 +7105,7 @@
         <v>46000.61640046296</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -7203,7 +7203,7 @@
         <v>45684</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -7297,7 +7297,7 @@
         <v>44851</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -7391,7 +7391,7 @@
         <v>44270.58950231481</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -7485,7 +7485,7 @@
         <v>45645</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -7583,7 +7583,7 @@
         <v>44742</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -7677,7 +7677,7 @@
         <v>45254</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7770,7 +7770,7 @@
         <v>45821.59243055555</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7863,7 +7863,7 @@
         <v>45618.43853009259</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7961,7 +7961,7 @@
         <v>45978.61351851852</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -8054,7 +8054,7 @@
         <v>45985.53155092592</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -8147,7 +8147,7 @@
         <v>45975.43427083334</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -8240,7 +8240,7 @@
         <v>45349</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -8338,7 +8338,7 @@
         <v>46006.34435185185</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -8436,7 +8436,7 @@
         <v>45369</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -8529,7 +8529,7 @@
         <v>45161</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -8622,7 +8622,7 @@
         <v>45189</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -8711,7 +8711,7 @@
         <v>45553</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -8800,7 +8800,7 @@
         <v>45237</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8897,7 +8897,7 @@
         <v>45462.95982638889</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8985,7 +8985,7 @@
         <v>45349</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -9078,7 +9078,7 @@
         <v>45901.49171296296</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -9171,7 +9171,7 @@
         <v>44945</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -9268,7 +9268,7 @@
         <v>45831</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -9360,7 +9360,7 @@
         <v>45938.40790509259</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -9453,7 +9453,7 @@
         <v>45968.6444212963</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -9545,7 +9545,7 @@
         <v>44904</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -9633,7 +9633,7 @@
         <v>45981.47217592593</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -9726,7 +9726,7 @@
         <v>45644</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -9818,7 +9818,7 @@
         <v>44750</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -9906,7 +9906,7 @@
         <v>46049.64416666667</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -9994,7 +9994,7 @@
         <v>45161</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -10086,7 +10086,7 @@
         <v>44473.43114583333</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -10182,7 +10182,7 @@
         <v>45602</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -10282,7 +10282,7 @@
         <v>45187</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -10378,7 +10378,7 @@
         <v>45538.33584490741</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -10465,7 +10465,7 @@
         <v>45321</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -10552,7 +10552,7 @@
         <v>44956</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -10639,7 +10639,7 @@
         <v>45049</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -10726,7 +10726,7 @@
         <v>45873.69988425926</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -10813,7 +10813,7 @@
         <v>44904</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -10904,7 +10904,7 @@
         <v>45198</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -10996,7 +10996,7 @@
         <v>44904</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -11087,7 +11087,7 @@
         <v>45975.63585648148</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -11178,7 +11178,7 @@
         <v>45558</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -11270,7 +11270,7 @@
         <v>45615.29761574074</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -11357,7 +11357,7 @@
         <v>45707.45219907408</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -11444,7 +11444,7 @@
         <v>45600.42737268518</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -11535,7 +11535,7 @@
         <v>45643.59420138889</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -11626,7 +11626,7 @@
         <v>45721.44840277778</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -11717,7 +11717,7 @@
         <v>45748.47314814815</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -11803,7 +11803,7 @@
         <v>45810</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -11889,7 +11889,7 @@
         <v>45894.67988425926</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -11975,7 +11975,7 @@
         <v>45919.59467592592</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -12066,7 +12066,7 @@
         <v>45533.49601851852</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -12152,7 +12152,7 @@
         <v>45966.94104166667</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -12238,7 +12238,7 @@
         <v>45975</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -12324,7 +12324,7 @@
         <v>45987.55831018519</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -12410,7 +12410,7 @@
         <v>45278</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -12496,7 +12496,7 @@
         <v>44908</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -12582,7 +12582,7 @@
         <v>44441</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -12672,7 +12672,7 @@
         <v>44853</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -12762,7 +12762,7 @@
         <v>44911</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -12848,7 +12848,7 @@
         <v>45223</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -12939,7 +12939,7 @@
         <v>44956</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -13025,7 +13025,7 @@
         <v>45441.95357638889</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -13120,7 +13120,7 @@
         <v>45553.59296296296</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -13210,7 +13210,7 @@
         <v>45233</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -13296,7 +13296,7 @@
         <v>45737</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -13386,7 +13386,7 @@
         <v>44904</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -13472,7 +13472,7 @@
         <v>44376</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -13562,7 +13562,7 @@
         <v>44623</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -13647,7 +13647,7 @@
         <v>44694</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -13737,7 +13737,7 @@
         <v>44441</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -13826,7 +13826,7 @@
         <v>44742</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -13916,7 +13916,7 @@
         <v>45637.34469907408</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -14010,7 +14010,7 @@
         <v>45280.56451388889</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -14095,7 +14095,7 @@
         <v>44476</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -14180,7 +14180,7 @@
         <v>44298</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -14265,7 +14265,7 @@
         <v>45809.86790509259</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -14350,7 +14350,7 @@
         <v>45910.41201388889</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -14439,7 +14439,7 @@
         <v>45509.9572800926</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -14529,7 +14529,7 @@
         <v>45931.40935185185</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -14614,7 +14614,7 @@
         <v>44617</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -14704,7 +14704,7 @@
         <v>45841.57331018519</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -14794,7 +14794,7 @@
         <v>45096</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -14879,7 +14879,7 @@
         <v>45572.59462962963</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -14969,7 +14969,7 @@
         <v>45867.51128472222</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -15059,7 +15059,7 @@
         <v>45617.40244212963</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -15148,7 +15148,7 @@
         <v>45959.32394675926</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -15238,7 +15238,7 @@
         <v>45797.60623842593</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -15323,7 +15323,7 @@
         <v>44900</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -15408,7 +15408,7 @@
         <v>45985.43086805556</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -15502,7 +15502,7 @@
         <v>45559.63584490741</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -15592,7 +15592,7 @@
         <v>44785</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -15681,7 +15681,7 @@
         <v>45629.35344907407</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -15775,7 +15775,7 @@
         <v>45999.67758101852</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -15865,7 +15865,7 @@
         <v>46043.67922453704</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -15950,7 +15950,7 @@
         <v>46042.58655092592</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -16035,7 +16035,7 @@
         <v>45897</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -16125,7 +16125,7 @@
         <v>45624.59462962963</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -16215,7 +16215,7 @@
         <v>45372</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -16300,7 +16300,7 @@
         <v>46044.84650462963</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -16385,7 +16385,7 @@
         <v>45559</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -16475,7 +16475,7 @@
         <v>45558</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -16565,7 +16565,7 @@
         <v>46045</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -16654,7 +16654,7 @@
         <v>46008.67969907408</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -16739,7 +16739,7 @@
         <v>46051.57149305556</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -16824,7 +16824,7 @@
         <v>45561.34641203703</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -16914,7 +16914,7 @@
         <v>44491</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -17004,7 +17004,7 @@
         <v>44928</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -17093,7 +17093,7 @@
         <v>45558</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -17183,7 +17183,7 @@
         <v>45570</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -17268,7 +17268,7 @@
         <v>45558</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -17358,7 +17358,7 @@
         <v>44316</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -17415,7 +17415,7 @@
         <v>44432</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -17477,7 +17477,7 @@
         <v>44328</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -17534,7 +17534,7 @@
         <v>44879.49488425926</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -17591,7 +17591,7 @@
         <v>44238</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -17648,7 +17648,7 @@
         <v>44510.44064814815</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -17705,7 +17705,7 @@
         <v>44418.45925925926</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -17762,7 +17762,7 @@
         <v>44524.94607638889</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -17824,7 +17824,7 @@
         <v>44375</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -17881,7 +17881,7 @@
         <v>44362</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -17938,7 +17938,7 @@
         <v>44838</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -18000,7 +18000,7 @@
         <v>44540</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -18057,7 +18057,7 @@
         <v>44790</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -18114,7 +18114,7 @@
         <v>44613</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -18171,7 +18171,7 @@
         <v>44312.41724537037</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -18228,7 +18228,7 @@
         <v>44581</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -18285,7 +18285,7 @@
         <v>44852</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -18342,7 +18342,7 @@
         <v>44259</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -18399,7 +18399,7 @@
         <v>44561</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -18456,7 +18456,7 @@
         <v>44278.42459490741</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -18513,7 +18513,7 @@
         <v>44383.85295138889</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -18570,7 +18570,7 @@
         <v>44347</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -18627,7 +18627,7 @@
         <v>44441.80453703704</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -18684,7 +18684,7 @@
         <v>44340</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -18741,7 +18741,7 @@
         <v>44453</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -18798,7 +18798,7 @@
         <v>44349</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -18855,7 +18855,7 @@
         <v>44347</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -18912,7 +18912,7 @@
         <v>44566</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -18969,7 +18969,7 @@
         <v>44298</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -19026,7 +19026,7 @@
         <v>44755</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -19088,7 +19088,7 @@
         <v>44434</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -19145,7 +19145,7 @@
         <v>44852.95248842592</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -19202,7 +19202,7 @@
         <v>44540</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -19259,7 +19259,7 @@
         <v>44299</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -19316,7 +19316,7 @@
         <v>44335</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -19373,7 +19373,7 @@
         <v>44537.935</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -19430,7 +19430,7 @@
         <v>44609.93075231482</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -19487,7 +19487,7 @@
         <v>44889.89929398148</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -19544,7 +19544,7 @@
         <v>44516</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -19601,7 +19601,7 @@
         <v>44851</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -19658,7 +19658,7 @@
         <v>44375</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -19715,7 +19715,7 @@
         <v>44875</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -19777,7 +19777,7 @@
         <v>44886.63148148148</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -19859,7 +19859,7 @@
         <v>44515</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -19921,7 +19921,7 @@
         <v>44750</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -19978,7 +19978,7 @@
         <v>44544</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -20035,7 +20035,7 @@
         <v>44742</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -20117,7 +20117,7 @@
         <v>44517.55134259259</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -20174,7 +20174,7 @@
         <v>44601.36165509259</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -20231,7 +20231,7 @@
         <v>44722</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -20293,7 +20293,7 @@
         <v>44722.94023148148</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -20355,7 +20355,7 @@
         <v>44721</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -20412,7 +20412,7 @@
         <v>44845.67710648148</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -20469,7 +20469,7 @@
         <v>44430</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -20526,7 +20526,7 @@
         <v>44385</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -20583,7 +20583,7 @@
         <v>45313.9496875</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -20645,7 +20645,7 @@
         <v>44258</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -20702,7 +20702,7 @@
         <v>44375</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -20759,7 +20759,7 @@
         <v>44340</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -20816,7 +20816,7 @@
         <v>44322</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -20873,7 +20873,7 @@
         <v>44540</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -20930,7 +20930,7 @@
         <v>44655</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -20987,7 +20987,7 @@
         <v>44594</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -21044,7 +21044,7 @@
         <v>44704.94370370371</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -21106,7 +21106,7 @@
         <v>45273</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -21163,7 +21163,7 @@
         <v>45596.55266203704</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -21225,7 +21225,7 @@
         <v>45634.72633101852</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -21282,7 +21282,7 @@
         <v>44799</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -21339,7 +21339,7 @@
         <v>44599.45850694444</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -21396,7 +21396,7 @@
         <v>44642.93471064815</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -21458,7 +21458,7 @@
         <v>44875</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -21515,7 +21515,7 @@
         <v>45189</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -21572,7 +21572,7 @@
         <v>45505.95078703704</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -21634,7 +21634,7 @@
         <v>44607</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -21691,7 +21691,7 @@
         <v>44236</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -21748,7 +21748,7 @@
         <v>44957</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -21805,7 +21805,7 @@
         <v>44911.93994212963</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -21862,7 +21862,7 @@
         <v>45721.36320601852</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -21919,7 +21919,7 @@
         <v>44706</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -21976,7 +21976,7 @@
         <v>45667.46922453704</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -22038,7 +22038,7 @@
         <v>45589.62625</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -22095,7 +22095,7 @@
         <v>45686</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -22152,7 +22152,7 @@
         <v>45569.39229166666</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -22209,7 +22209,7 @@
         <v>45588.3440625</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -22266,7 +22266,7 @@
         <v>45588.34418981482</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -22323,7 +22323,7 @@
         <v>45457.37893518519</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -22380,7 +22380,7 @@
         <v>45238.96770833333</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -22442,7 +22442,7 @@
         <v>45357.96106481482</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -22499,7 +22499,7 @@
         <v>44634.52982638889</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -22556,7 +22556,7 @@
         <v>45770.6925462963</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -22613,7 +22613,7 @@
         <v>45600.38585648148</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -22675,7 +22675,7 @@
         <v>45315</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -22732,7 +22732,7 @@
         <v>45621</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -22794,7 +22794,7 @@
         <v>45691</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -22856,7 +22856,7 @@
         <v>45693</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -22913,7 +22913,7 @@
         <v>44837.36724537037</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -22970,7 +22970,7 @@
         <v>44909.9640162037</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -23032,7 +23032,7 @@
         <v>45693</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -23089,7 +23089,7 @@
         <v>45221.92440972223</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -23146,7 +23146,7 @@
         <v>44911.54984953703</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -23203,7 +23203,7 @@
         <v>45567.39192129629</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -23260,7 +23260,7 @@
         <v>45336</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -23317,7 +23317,7 @@
         <v>45677.4649537037</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -23379,7 +23379,7 @@
         <v>44977.98629629629</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -23441,7 +23441,7 @@
         <v>45798.46913194445</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -23503,7 +23503,7 @@
         <v>45798.42108796296</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -23560,7 +23560,7 @@
         <v>45799.68418981481</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -23617,7 +23617,7 @@
         <v>45611.66655092593</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -23674,7 +23674,7 @@
         <v>44711.9403587963</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -23731,7 +23731,7 @@
         <v>44405</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -23788,7 +23788,7 @@
         <v>45799.7372337963</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -23845,7 +23845,7 @@
         <v>45799.56515046296</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -23902,7 +23902,7 @@
         <v>45799.69116898148</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -23959,7 +23959,7 @@
         <v>44909</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -24016,7 +24016,7 @@
         <v>45803</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -24078,7 +24078,7 @@
         <v>45887.57407407407</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -24135,7 +24135,7 @@
         <v>44475</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -24192,7 +24192,7 @@
         <v>45646.39434027778</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -24249,7 +24249,7 @@
         <v>45800.50355324074</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -24306,7 +24306,7 @@
         <v>44441</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -24363,7 +24363,7 @@
         <v>45887.55666666666</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -24420,7 +24420,7 @@
         <v>44529</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -24477,7 +24477,7 @@
         <v>45800.46960648148</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -24534,7 +24534,7 @@
         <v>45725.44297453704</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -24591,7 +24591,7 @@
         <v>45805.42827546296</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -24653,7 +24653,7 @@
         <v>45223</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -24710,7 +24710,7 @@
         <v>45587.42835648148</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -24767,7 +24767,7 @@
         <v>45807</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -24824,7 +24824,7 @@
         <v>45807</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -24881,7 +24881,7 @@
         <v>45691</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -24943,7 +24943,7 @@
         <v>45320.92060185185</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -25000,7 +25000,7 @@
         <v>45811.59258101852</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -25057,7 +25057,7 @@
         <v>45625</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -25114,7 +25114,7 @@
         <v>45807.75076388889</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -25171,7 +25171,7 @@
         <v>45888.40700231482</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -25228,7 +25228,7 @@
         <v>45751.36518518518</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -25285,7 +25285,7 @@
         <v>45364.3874074074</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -25342,7 +25342,7 @@
         <v>45748.46021990741</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -25399,7 +25399,7 @@
         <v>45888.52440972222</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -25456,7 +25456,7 @@
         <v>45736.71818287037</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -25513,7 +25513,7 @@
         <v>45551.67761574074</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -25575,7 +25575,7 @@
         <v>45811.5928587963</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -25632,7 +25632,7 @@
         <v>45720.38576388889</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -25694,7 +25694,7 @@
         <v>44742</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -25751,7 +25751,7 @@
         <v>45813.43966435185</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -25808,7 +25808,7 @@
         <v>45725.44039351852</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -25865,7 +25865,7 @@
         <v>45800.47802083333</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -25922,7 +25922,7 @@
         <v>45895.4484837963</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -25979,7 +25979,7 @@
         <v>45895.49026620371</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -26036,7 +26036,7 @@
         <v>45895.49024305555</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -26093,7 +26093,7 @@
         <v>45701.61899305556</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -26150,7 +26150,7 @@
         <v>45707.42825231481</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -26212,7 +26212,7 @@
         <v>45895.44856481482</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -26269,7 +26269,7 @@
         <v>45656.53215277778</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -26326,7 +26326,7 @@
         <v>45817</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -26388,7 +26388,7 @@
         <v>44655.69303240741</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -26445,7 +26445,7 @@
         <v>45740.54168981482</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -26507,7 +26507,7 @@
         <v>45819.59429398148</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -26569,7 +26569,7 @@
         <v>45321</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -26626,7 +26626,7 @@
         <v>45818.40337962963</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -26688,7 +26688,7 @@
         <v>44970.97871527778</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -26750,7 +26750,7 @@
         <v>45901</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -26807,7 +26807,7 @@
         <v>45595.34762731481</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -26864,7 +26864,7 @@
         <v>45460.7772800926</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -26921,7 +26921,7 @@
         <v>45902.36641203704</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -26978,7 +26978,7 @@
         <v>45902.42280092592</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -27035,7 +27035,7 @@
         <v>45659.44413194444</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -27092,7 +27092,7 @@
         <v>45188</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -27149,7 +27149,7 @@
         <v>45904.3452662037</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -27206,7 +27206,7 @@
         <v>45442.38511574074</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -27263,7 +27263,7 @@
         <v>45866.51630787037</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -27320,7 +27320,7 @@
         <v>45804.656875</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -27382,7 +27382,7 @@
         <v>45425.96443287037</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -27444,7 +27444,7 @@
         <v>45909.44971064815</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -27501,7 +27501,7 @@
         <v>45910.4900462963</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -27563,7 +27563,7 @@
         <v>45911.61579861111</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -27625,7 +27625,7 @@
         <v>45827.49415509259</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -27682,7 +27682,7 @@
         <v>45911.40074074074</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -27739,7 +27739,7 @@
         <v>45911.57349537037</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -27801,7 +27801,7 @@
         <v>45462.56172453704</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -27858,7 +27858,7 @@
         <v>45827.36590277778</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -27915,7 +27915,7 @@
         <v>45004</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -27972,7 +27972,7 @@
         <v>45916.59773148148</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -28029,7 +28029,7 @@
         <v>45720.3859375</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -28091,7 +28091,7 @@
         <v>44743</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -28148,7 +28148,7 @@
         <v>45916.57010416667</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -28205,7 +28205,7 @@
         <v>45567.51068287037</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -28267,7 +28267,7 @@
         <v>44916</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -28324,7 +28324,7 @@
         <v>45610.61030092592</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -28381,7 +28381,7 @@
         <v>45309</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -28438,7 +28438,7 @@
         <v>45922.4075</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -28500,7 +28500,7 @@
         <v>45922.4077662037</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -28562,7 +28562,7 @@
         <v>45920.8446412037</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -28619,7 +28619,7 @@
         <v>45922.40680555555</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -28681,7 +28681,7 @@
         <v>45107</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -28738,7 +28738,7 @@
         <v>45922.40697916667</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -28800,7 +28800,7 @@
         <v>45922.4074537037</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -28862,7 +28862,7 @@
         <v>45922</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -28924,7 +28924,7 @@
         <v>45922.53217592592</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -28981,7 +28981,7 @@
         <v>45924.59484953704</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -29043,7 +29043,7 @@
         <v>45924.61512731481</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -29105,7 +29105,7 @@
         <v>45261</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -29167,7 +29167,7 @@
         <v>45924.70346064815</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -29224,7 +29224,7 @@
         <v>45835.4491087963</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -29286,7 +29286,7 @@
         <v>45089.54944444444</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -29343,7 +29343,7 @@
         <v>45511.92825231481</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -29400,7 +29400,7 @@
         <v>45685.69267361111</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -29457,7 +29457,7 @@
         <v>45835.67109953704</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -29514,7 +29514,7 @@
         <v>45734.48991898148</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -29576,7 +29576,7 @@
         <v>45931.38956018518</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -29633,7 +29633,7 @@
         <v>45588.61512731481</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -29690,7 +29690,7 @@
         <v>45576.46905092592</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -29747,7 +29747,7 @@
         <v>45618.6917824074</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -29804,7 +29804,7 @@
         <v>45580.42736111111</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -29861,7 +29861,7 @@
         <v>45931.40100694444</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -29918,7 +29918,7 @@
         <v>45931.40671296296</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -29975,7 +29975,7 @@
         <v>45245</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -30037,7 +30037,7 @@
         <v>44434</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -30094,7 +30094,7 @@
         <v>45231</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -30156,7 +30156,7 @@
         <v>45583.46936342592</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -30213,7 +30213,7 @@
         <v>45806.40677083333</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -30270,7 +30270,7 @@
         <v>45931.67381944445</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -30327,7 +30327,7 @@
         <v>44580</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -30389,7 +30389,7 @@
         <v>45617.65800925926</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -30446,7 +30446,7 @@
         <v>44410.35376157407</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -30503,7 +30503,7 @@
         <v>45837.57481481481</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -30565,7 +30565,7 @@
         <v>45837.51741898148</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -30627,7 +30627,7 @@
         <v>45837.67381944445</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -30689,7 +30689,7 @@
         <v>44466</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -30746,7 +30746,7 @@
         <v>44701.94034722223</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -30803,7 +30803,7 @@
         <v>45837.66230324074</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -30865,7 +30865,7 @@
         <v>45722.44892361111</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -30927,7 +30927,7 @@
         <v>45707</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -30984,7 +30984,7 @@
         <v>45707.40493055555</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -31046,7 +31046,7 @@
         <v>45691.40832175926</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -31103,7 +31103,7 @@
         <v>45691.40836805556</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -31160,7 +31160,7 @@
         <v>45978.45540509259</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -31217,7 +31217,7 @@
         <v>45979.6756712963</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -31279,7 +31279,7 @@
         <v>45937.47302083333</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -31341,7 +31341,7 @@
         <v>45203</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -31398,7 +31398,7 @@
         <v>44914.35599537037</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -31455,7 +31455,7 @@
         <v>45841.38054398148</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -31512,7 +31512,7 @@
         <v>44911.6459837963</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -31569,7 +31569,7 @@
         <v>45937.63275462963</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -31626,7 +31626,7 @@
         <v>45681.36493055556</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -31688,7 +31688,7 @@
         <v>45681.40689814815</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -31750,7 +31750,7 @@
         <v>45939.49018518518</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -31807,7 +31807,7 @@
         <v>45681.4275462963</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -31869,7 +31869,7 @@
         <v>45000</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -31926,7 +31926,7 @@
         <v>45939</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -31988,7 +31988,7 @@
         <v>45190</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -32045,7 +32045,7 @@
         <v>45943.59442129629</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -32107,7 +32107,7 @@
         <v>45688.69356481481</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -32164,7 +32164,7 @@
         <v>45945.47097222223</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -32221,7 +32221,7 @@
         <v>45847.40722222222</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -32283,7 +32283,7 @@
         <v>45342</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -32345,7 +32345,7 @@
         <v>45846.44827546296</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -32402,7 +32402,7 @@
         <v>45944.67787037037</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -32464,7 +32464,7 @@
         <v>45987.67032407408</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -32521,7 +32521,7 @@
         <v>45847.61561342593</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -32583,7 +32583,7 @@
         <v>45719.38630787037</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -32645,7 +32645,7 @@
         <v>45847.61533564814</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -32707,7 +32707,7 @@
         <v>45338</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -32764,7 +32764,7 @@
         <v>45707</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -32821,7 +32821,7 @@
         <v>44949</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -32878,7 +32878,7 @@
         <v>45800.48368055555</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -32935,7 +32935,7 @@
         <v>45679.55256944444</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -32997,7 +32997,7 @@
         <v>45632.68814814815</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -33054,7 +33054,7 @@
         <v>45953.47575231481</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -33111,7 +33111,7 @@
         <v>45953.58497685185</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -33168,7 +33168,7 @@
         <v>44790</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -33225,7 +33225,7 @@
         <v>45684.56725694444</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -33282,7 +33282,7 @@
         <v>45807.74140046296</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -33339,7 +33339,7 @@
         <v>45953.56976851852</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -33396,7 +33396,7 @@
         <v>45867.46946759259</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -33458,7 +33458,7 @@
         <v>44511.94629629629</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -33515,7 +33515,7 @@
         <v>45849.55601851852</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -33572,7 +33572,7 @@
         <v>45866.50549768518</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -33634,7 +33634,7 @@
         <v>45952.5909375</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -33691,7 +33691,7 @@
         <v>45869</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -33753,7 +33753,7 @@
         <v>45957.62978009259</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -33810,7 +33810,7 @@
         <v>45300</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -33867,7 +33867,7 @@
         <v>45954.68207175926</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -33924,7 +33924,7 @@
         <v>45729.3425</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -33981,7 +33981,7 @@
         <v>45957.67876157408</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -34043,7 +34043,7 @@
         <v>45958.36498842593</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -34105,7 +34105,7 @@
         <v>45344</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -34162,7 +34162,7 @@
         <v>45875.44840277778</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -34219,7 +34219,7 @@
         <v>45265.95795138889</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -34281,7 +34281,7 @@
         <v>45958.36537037037</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -34343,7 +34343,7 @@
         <v>45586.40660879629</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -34405,7 +34405,7 @@
         <v>44927.88021990741</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -34462,7 +34462,7 @@
         <v>45922</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -34524,7 +34524,7 @@
         <v>45280</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -34581,7 +34581,7 @@
         <v>45280</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -34638,7 +34638,7 @@
         <v>45096</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -34695,7 +34695,7 @@
         <v>45751.36519675926</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -34752,7 +34752,7 @@
         <v>45964.46944444445</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -34814,7 +34814,7 @@
         <v>45412.46636574074</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -34871,7 +34871,7 @@
         <v>45965.63496527778</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -34928,7 +34928,7 @@
         <v>45967.49037037037</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -34985,7 +34985,7 @@
         <v>45646.48988425926</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -35047,7 +35047,7 @@
         <v>45646.49012731481</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -35109,7 +35109,7 @@
         <v>45646.49017361111</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -35171,7 +35171,7 @@
         <v>45708.50256944444</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -35228,7 +35228,7 @@
         <v>45966.4077662037</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -35285,7 +35285,7 @@
         <v>45967.42462962963</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -35342,7 +35342,7 @@
         <v>45553.60474537037</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -35399,7 +35399,7 @@
         <v>45264</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -35456,7 +35456,7 @@
         <v>45968.53167824074</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -35518,7 +35518,7 @@
         <v>45754.56839120371</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -35575,7 +35575,7 @@
         <v>44889.59378472222</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -35637,7 +35637,7 @@
         <v>45974.38310185185</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -35694,7 +35694,7 @@
         <v>45696.34405092592</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -35751,7 +35751,7 @@
         <v>45012</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -35808,7 +35808,7 @@
         <v>46019</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -35865,7 +35865,7 @@
         <v>45978.57414351852</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -35922,7 +35922,7 @@
         <v>45112</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -35979,7 +35979,7 @@
         <v>45976.58684027778</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -36036,7 +36036,7 @@
         <v>46021.34454861111</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -36093,7 +36093,7 @@
         <v>45667.40662037037</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -36155,7 +36155,7 @@
         <v>44840</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -36212,7 +36212,7 @@
         <v>45730.36263888889</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -36269,7 +36269,7 @@
         <v>46021.46912037037</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -36326,7 +36326,7 @@
         <v>46021.34450231482</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -36383,7 +36383,7 @@
         <v>45475.94585648148</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -36445,7 +36445,7 @@
         <v>46020.47796296296</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -36502,7 +36502,7 @@
         <v>45223</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -36559,7 +36559,7 @@
         <v>46020.49056712963</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -36616,7 +36616,7 @@
         <v>45719.59836805556</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -36673,7 +36673,7 @@
         <v>45593.51123842593</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -36735,7 +36735,7 @@
         <v>45593.57327546296</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -36797,7 +36797,7 @@
         <v>45980.61142361111</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -36854,7 +36854,7 @@
         <v>45118</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -36911,7 +36911,7 @@
         <v>45642.54847222222</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -36968,7 +36968,7 @@
         <v>45982.61043981482</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -37025,7 +37025,7 @@
         <v>45982.5862037037</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -37082,7 +37082,7 @@
         <v>46027.7344212963</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -37139,7 +37139,7 @@
         <v>45597.36623842592</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -37201,7 +37201,7 @@
         <v>45985.61524305555</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -37258,7 +37258,7 @@
         <v>45688.67965277778</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -37320,7 +37320,7 @@
         <v>45985.51131944444</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -37377,7 +37377,7 @@
         <v>45985.51128472222</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -37434,7 +37434,7 @@
         <v>46027.57334490741</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -37491,7 +37491,7 @@
         <v>45985.53162037037</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -37548,7 +37548,7 @@
         <v>46027.59451388889</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -37610,7 +37610,7 @@
         <v>45418.4843287037</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -37667,7 +37667,7 @@
         <v>45634.70898148148</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -37724,7 +37724,7 @@
         <v>45607.50137731482</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -37781,7 +37781,7 @@
         <v>45987.52949074074</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -37838,7 +37838,7 @@
         <v>45002</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -37900,7 +37900,7 @@
         <v>45987.33479166667</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -37957,7 +37957,7 @@
         <v>45987.34543981482</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -38014,7 +38014,7 @@
         <v>45986.39024305555</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -38071,7 +38071,7 @@
         <v>46029.41560185186</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -38128,7 +38128,7 @@
         <v>46024</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -38185,7 +38185,7 @@
         <v>45988.58856481482</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -38242,7 +38242,7 @@
         <v>44977</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -38304,7 +38304,7 @@
         <v>45987.83457175926</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -38361,7 +38361,7 @@
         <v>46031.6141087963</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -38418,7 +38418,7 @@
         <v>45743.37109953703</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -38475,7 +38475,7 @@
         <v>45686.6859375</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -38532,7 +38532,7 @@
         <v>45987.69552083333</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -38589,7 +38589,7 @@
         <v>44952</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -38646,7 +38646,7 @@
         <v>45992.38109953704</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -38703,7 +38703,7 @@
         <v>45992.3706712963</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -38760,7 +38760,7 @@
         <v>45992.47729166667</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -38817,7 +38817,7 @@
         <v>45177.93612268518</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -38879,7 +38879,7 @@
         <v>45992.37172453704</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -38936,7 +38936,7 @@
         <v>46034.38729166667</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -38993,7 +38993,7 @@
         <v>44907</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -39055,7 +39055,7 @@
         <v>44750</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -39112,7 +39112,7 @@
         <v>46037.6787962963</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -39169,7 +39169,7 @@
         <v>46037.68489583334</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -39226,7 +39226,7 @@
         <v>45740.46325231482</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -39283,7 +39283,7 @@
         <v>45574.38943287037</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -39345,7 +39345,7 @@
         <v>46030.61326388889</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -39402,7 +39402,7 @@
         <v>45995</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -39459,7 +39459,7 @@
         <v>46037.6703125</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -39516,7 +39516,7 @@
         <v>45705.57454861111</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -39578,7 +39578,7 @@
         <v>46032</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -39635,7 +39635,7 @@
         <v>46038.62193287037</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -39692,7 +39692,7 @@
         <v>46029</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -39749,7 +39749,7 @@
         <v>45012</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -39806,7 +39806,7 @@
         <v>46038.6322337963</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -39863,7 +39863,7 @@
         <v>46041.47474537037</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -39920,7 +39920,7 @@
         <v>45302.52006944444</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -39977,7 +39977,7 @@
         <v>45993</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -40034,7 +40034,7 @@
         <v>46038.62047453703</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -40091,7 +40091,7 @@
         <v>46038.6360300926</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -40148,7 +40148,7 @@
         <v>45748.4396412037</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -40205,7 +40205,7 @@
         <v>46000.62851851852</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -40262,7 +40262,7 @@
         <v>46000.63969907408</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -40319,7 +40319,7 @@
         <v>46000.67793981481</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -40376,7 +40376,7 @@
         <v>45678</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -40433,7 +40433,7 @@
         <v>44911.5662037037</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -40490,7 +40490,7 @@
         <v>46000</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -40547,7 +40547,7 @@
         <v>45611.46912037037</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -40609,7 +40609,7 @@
         <v>46001</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -40666,7 +40666,7 @@
         <v>44721</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -40723,7 +40723,7 @@
         <v>46045.59430555555</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -40785,7 +40785,7 @@
         <v>45616.67833333334</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -40847,7 +40847,7 @@
         <v>46003</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -40904,7 +40904,7 @@
         <v>46045.41643518519</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -40961,7 +40961,7 @@
         <v>44922</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -41018,7 +41018,7 @@
         <v>44680.92873842592</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -41075,7 +41075,7 @@
         <v>46003.62509259259</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -41132,7 +41132,7 @@
         <v>46045.61509259259</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -41189,7 +41189,7 @@
         <v>46003.56467592593</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -41246,7 +41246,7 @@
         <v>46003</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -41303,7 +41303,7 @@
         <v>46002</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -41360,7 +41360,7 @@
         <v>46003.6159375</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -41417,7 +41417,7 @@
         <v>46003.38026620371</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -41474,7 +41474,7 @@
         <v>46045.56253472222</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -41531,7 +41531,7 @@
         <v>46044.85285879629</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -41588,7 +41588,7 @@
         <v>46006.51157407407</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -41645,7 +41645,7 @@
         <v>45630.49710648148</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -41702,7 +41702,7 @@
         <v>44368</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -41759,7 +41759,7 @@
         <v>45239.33032407407</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -41821,7 +41821,7 @@
         <v>46006.51155092593</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -41878,7 +41878,7 @@
         <v>46007.46907407408</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -41935,7 +41935,7 @@
         <v>46048.89435185185</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -41992,7 +41992,7 @@
         <v>46007.49001157407</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -42049,7 +42049,7 @@
         <v>46007.5958912037</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -42106,7 +42106,7 @@
         <v>46045</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -42163,7 +42163,7 @@
         <v>46007.33719907407</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -42225,7 +42225,7 @@
         <v>46008.34438657408</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -42282,7 +42282,7 @@
         <v>46008.34443287037</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -42339,7 +42339,7 @@
         <v>44298</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -42396,7 +42396,7 @@
         <v>46050.44859953703</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -42453,7 +42453,7 @@
         <v>45628.53381944444</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -42510,7 +42510,7 @@
         <v>45428.92486111111</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -42572,7 +42572,7 @@
         <v>45701.60046296296</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -42629,7 +42629,7 @@
         <v>45092</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -42686,7 +42686,7 @@
         <v>45709.36497685185</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -42748,7 +42748,7 @@
         <v>46010.45680555556</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -42805,7 +42805,7 @@
         <v>46010.53825231481</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -42862,7 +42862,7 @@
         <v>46013.50993055556</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -42919,7 +42919,7 @@
         <v>46013.4459375</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -42976,7 +42976,7 @@
         <v>45757.64563657407</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -43033,7 +43033,7 @@
         <v>45559.59476851852</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -43095,7 +43095,7 @@
         <v>46014.5496875</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -43152,7 +43152,7 @@
         <v>46057.40715277778</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -43214,7 +43214,7 @@
         <v>46057.6153125</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -43271,7 +43271,7 @@
         <v>46051</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -43328,7 +43328,7 @@
         <v>45730.45930555555</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -43390,7 +43390,7 @@
         <v>46057.55269675926</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -43447,7 +43447,7 @@
         <v>46056.8547337963</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -43504,7 +43504,7 @@
         <v>45770.56363425926</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -43561,7 +43561,7 @@
         <v>46059.44539351852</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -43618,7 +43618,7 @@
         <v>44336</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -43675,7 +43675,7 @@
         <v>46059.44135416667</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -43732,7 +43732,7 @@
         <v>45547.90777777778</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -43789,7 +43789,7 @@
         <v>45621.41050925926</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -43846,7 +43846,7 @@
         <v>44425</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -43903,7 +43903,7 @@
         <v>45684</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -43960,7 +43960,7 @@
         <v>45344</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -44017,7 +44017,7 @@
         <v>44922</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -44074,7 +44074,7 @@
         <v>45588.61498842593</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -44136,7 +44136,7 @@
         <v>45600.53160879629</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -44198,7 +44198,7 @@
         <v>45260</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -44255,7 +44255,7 @@
         <v>45260</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -44312,7 +44312,7 @@
         <v>45376</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -44369,7 +44369,7 @@
         <v>44880</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -44426,7 +44426,7 @@
         <v>45223</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -44488,7 +44488,7 @@
         <v>44434</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -44545,7 +44545,7 @@
         <v>45707</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -44607,7 +44607,7 @@
         <v>44637</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -44664,7 +44664,7 @@
         <v>45462.96347222223</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -44726,7 +44726,7 @@
         <v>44609</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -44783,7 +44783,7 @@
         <v>44635</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -44840,7 +44840,7 @@
         <v>45743.57336805556</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -44897,7 +44897,7 @@
         <v>45677.47302083333</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -44954,7 +44954,7 @@
         <v>45149</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -45011,7 +45011,7 @@
         <v>45435.55372685185</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -45068,7 +45068,7 @@
         <v>45057</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -45125,7 +45125,7 @@
         <v>45475.3378125</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -45182,7 +45182,7 @@
         <v>45607.49265046296</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -45239,7 +45239,7 @@
         <v>45221.92429398148</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -45296,7 +45296,7 @@
         <v>45315</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -45353,7 +45353,7 @@
         <v>45477.28482638889</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -45410,7 +45410,7 @@
         <v>45645.44158564815</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -45467,7 +45467,7 @@
         <v>45166.9569675926</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -45529,7 +45529,7 @@
         <v>45236.62300925926</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -45591,7 +45591,7 @@
         <v>45677.44393518518</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -45648,7 +45648,7 @@
         <v>44922</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -45705,7 +45705,7 @@
         <v>45708.44947916667</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -45767,7 +45767,7 @@
         <v>45057.9441087963</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -45829,7 +45829,7 @@
         <v>44986.94196759259</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -45891,7 +45891,7 @@
         <v>45751.34664351852</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -45953,7 +45953,7 @@
         <v>44735</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -46010,7 +46010,7 @@
         <v>45183</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -46067,7 +46067,7 @@
         <v>44323</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -46124,7 +46124,7 @@
         <v>44757.92671296297</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -46181,7 +46181,7 @@
         <v>45237.50966435186</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -46238,7 +46238,7 @@
         <v>44883.44737268519</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -46295,7 +46295,7 @@
         <v>45370</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -46352,7 +46352,7 @@
         <v>45159.42180555555</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -46409,7 +46409,7 @@
         <v>45621.86827546296</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -46466,7 +46466,7 @@
         <v>45572.59430555555</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -46528,7 +46528,7 @@
         <v>45762.63375</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -46590,7 +46590,7 @@
         <v>45643.42986111111</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -46652,7 +46652,7 @@
         <v>44679.92574074074</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -46709,7 +46709,7 @@
         <v>45646.35685185185</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -46766,7 +46766,7 @@
         <v>44375</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -46823,7 +46823,7 @@
         <v>45223</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -46880,7 +46880,7 @@
         <v>44378</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -46937,7 +46937,7 @@
         <v>45223.5036574074</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -46994,7 +46994,7 @@
         <v>45236.92776620371</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -47051,7 +47051,7 @@
         <v>45477.26746527778</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -47108,7 +47108,7 @@
         <v>45008</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -47165,7 +47165,7 @@
         <v>45660.32672453704</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -47222,7 +47222,7 @@
         <v>45737.40131944444</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -47279,7 +47279,7 @@
         <v>45763</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -47336,7 +47336,7 @@
         <v>45763</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -47393,7 +47393,7 @@
         <v>45639.40684027778</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -47455,7 +47455,7 @@
         <v>45736.71956018519</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -47517,7 +47517,7 @@
         <v>44721.47241898148</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -47579,7 +47579,7 @@
         <v>45096</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -47636,7 +47636,7 @@
         <v>44614.91989583334</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -47693,7 +47693,7 @@
         <v>44986</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -47755,7 +47755,7 @@
         <v>45607.55260416667</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -47817,7 +47817,7 @@
         <v>45231</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -47879,7 +47879,7 @@
         <v>45707.42392361111</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -47936,7 +47936,7 @@
         <v>45324.93804398148</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -47998,7 +47998,7 @@
         <v>45314.58785879629</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -48055,7 +48055,7 @@
         <v>44533</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -48112,7 +48112,7 @@
         <v>44952</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -48169,7 +48169,7 @@
         <v>44937</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -48226,7 +48226,7 @@
         <v>45630</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -48283,7 +48283,7 @@
         <v>45429.92313657407</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -48340,7 +48340,7 @@
         <v>45715.59545138889</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -48397,7 +48397,7 @@
         <v>44643</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -48454,7 +48454,7 @@
         <v>45702.51765046296</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -48511,7 +48511,7 @@
         <v>45690.63628472222</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -48568,7 +48568,7 @@
         <v>45313</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -48625,7 +48625,7 @@
         <v>44375</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -48682,7 +48682,7 @@
         <v>45741.68631944444</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -48739,7 +48739,7 @@
         <v>45460.81277777778</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -48796,7 +48796,7 @@
         <v>45615.31297453704</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -48853,7 +48853,7 @@
         <v>45028</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -48910,7 +48910,7 @@
         <v>45306</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -48967,7 +48967,7 @@
         <v>44889</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -49024,7 +49024,7 @@
         <v>45743.44207175926</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -49081,7 +49081,7 @@
         <v>45693</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -49138,7 +49138,7 @@
         <v>45328</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -49195,7 +49195,7 @@
         <v>44564.93909722222</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -49252,7 +49252,7 @@
         <v>45636.5674537037</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -49309,7 +49309,7 @@
         <v>45198</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -49371,7 +49371,7 @@
         <v>45198</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -49433,7 +49433,7 @@
         <v>45692.55256944444</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -49490,7 +49490,7 @@
         <v>45777.58025462963</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -49547,7 +49547,7 @@
         <v>45777.62665509259</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -49604,7 +49604,7 @@
         <v>45779</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -49661,7 +49661,7 @@
         <v>45754</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -49723,7 +49723,7 @@
         <v>45743.39528935185</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -49780,7 +49780,7 @@
         <v>45754</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -49842,7 +49842,7 @@
         <v>45686.64175925926</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -49899,7 +49899,7 @@
         <v>45789.42538194444</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -49956,7 +49956,7 @@
         <v>45760.66995370371</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -50013,7 +50013,7 @@
         <v>45686.92384259259</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -50070,7 +50070,7 @@
         <v>45686.92864583333</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -50127,7 +50127,7 @@
         <v>45789.56414351852</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -50184,7 +50184,7 @@
         <v>45789</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -50241,7 +50241,7 @@
         <v>45786</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -50298,7 +50298,7 @@
         <v>45791</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -50355,7 +50355,7 @@
         <v>45707</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -50412,7 +50412,7 @@
         <v>45791.35212962963</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -50469,7 +50469,7 @@
         <v>45791.36526620371</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -50526,7 +50526,7 @@
         <v>45790.43905092592</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -50583,7 +50583,7 @@
         <v>45791.27984953704</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -50640,7 +50640,7 @@
         <v>45793.68469907407</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -50697,7 +50697,7 @@
         <v>45797.65025462963</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -50754,7 +50754,7 @@
         <v>45561.34908564815</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>

--- a/Översikt ÖSTERSUND.xlsx
+++ b/Översikt ÖSTERSUND.xlsx
@@ -575,7 +575,7 @@
         <v>45109</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -757,7 +757,7 @@
         <v>45155</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -894,7 +894,7 @@
         <v>44585</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -1021,7 +1021,7 @@
         <v>45690</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1138,7 +1138,7 @@
         <v>45932</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1253,7 +1253,7 @@
         <v>45985.42282407408</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1367,7 +1367,7 @@
         <v>45924</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1480,7 +1480,7 @@
         <v>44344</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1592,7 +1592,7 @@
         <v>44642</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1704,7 +1704,7 @@
         <v>45600</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1820,7 +1820,7 @@
         <v>45988.52288194445</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1936,7 +1936,7 @@
         <v>45747</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -2044,7 +2044,7 @@
         <v>45112</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -2143,7 +2143,7 @@
         <v>45932.58673611111</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2250,7 +2250,7 @@
         <v>44819</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2357,7 +2357,7 @@
         <v>45916.80152777778</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2463,7 +2463,7 @@
         <v>44945</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2569,7 +2569,7 @@
         <v>45975.49049768518</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2670,7 +2670,7 @@
         <v>45978.57238425926</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2771,7 +2771,7 @@
         <v>45929</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2872,7 +2872,7 @@
         <v>45965</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2977,7 +2977,7 @@
         <v>45890</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -3081,7 +3081,7 @@
         <v>45940.65138888889</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -3185,7 +3185,7 @@
         <v>45932.65210648148</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3288,7 +3288,7 @@
         <v>46051.68951388889</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3391,7 +3391,7 @@
         <v>45937.55055555556</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3494,7 +3494,7 @@
         <v>45621</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3593,7 +3593,7 @@
         <v>44971</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3692,7 +3692,7 @@
         <v>45649</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3790,7 +3790,7 @@
         <v>45470</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3892,7 +3892,7 @@
         <v>45937.64063657408</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3994,7 +3994,7 @@
         <v>45754.67761574074</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -4093,7 +4093,7 @@
         <v>45475.94597222222</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -4191,7 +4191,7 @@
         <v>45575.77440972222</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -4288,7 +4288,7 @@
         <v>45952.46650462963</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4389,7 +4389,7 @@
         <v>45526</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4487,7 +4487,7 @@
         <v>45063</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4583,7 +4583,7 @@
         <v>45415</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4683,7 +4683,7 @@
         <v>46010.45428240741</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4783,7 +4783,7 @@
         <v>45170</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4884,7 +4884,7 @@
         <v>45349</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4985,7 +4985,7 @@
         <v>45369</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -5077,7 +5077,7 @@
         <v>46027.7344212963</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -5173,7 +5173,7 @@
         <v>45975.63604166666</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -5269,7 +5269,7 @@
         <v>44414</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -5364,7 +5364,7 @@
         <v>45831</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -5459,7 +5459,7 @@
         <v>45981.50630787037</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5554,7 +5554,7 @@
         <v>45936.66547453704</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5653,7 +5653,7 @@
         <v>45890</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5748,7 +5748,7 @@
         <v>45945.47331018518</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5847,7 +5847,7 @@
         <v>45806</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5946,7 +5946,7 @@
         <v>45953</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -6045,7 +6045,7 @@
         <v>45028</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -6141,7 +6141,7 @@
         <v>46049.67512731482</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -6240,7 +6240,7 @@
         <v>45958</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -6339,7 +6339,7 @@
         <v>45233</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -6435,7 +6435,7 @@
         <v>44356</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -6533,7 +6533,7 @@
         <v>45762.51075231482</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6628,7 +6628,7 @@
         <v>44929</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6722,7 +6722,7 @@
         <v>45555</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6820,7 +6820,7 @@
         <v>44337</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6914,7 +6914,7 @@
         <v>45897</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -7009,7 +7009,7 @@
         <v>46008.48708333333</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -7103,7 +7103,7 @@
         <v>46010.46366898148</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -7201,7 +7201,7 @@
         <v>46000.61640046296</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -7299,7 +7299,7 @@
         <v>44851</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -7393,7 +7393,7 @@
         <v>45684</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -7487,7 +7487,7 @@
         <v>46030.61326388889</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -7581,7 +7581,7 @@
         <v>44270.58950231481</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -7675,7 +7675,7 @@
         <v>45645</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7773,7 +7773,7 @@
         <v>44742</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7867,7 +7867,7 @@
         <v>45254</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7960,7 +7960,7 @@
         <v>45821.59243055555</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -8053,7 +8053,7 @@
         <v>45618.43853009259</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -8151,7 +8151,7 @@
         <v>45978.61351851852</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -8244,7 +8244,7 @@
         <v>45985.53155092592</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -8337,7 +8337,7 @@
         <v>45975.43427083334</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -8430,7 +8430,7 @@
         <v>45349</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -8528,7 +8528,7 @@
         <v>46006.34435185185</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -8626,7 +8626,7 @@
         <v>45369</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -8719,7 +8719,7 @@
         <v>45161</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -8812,7 +8812,7 @@
         <v>45189</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8901,7 +8901,7 @@
         <v>45553</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8990,7 +8990,7 @@
         <v>45237</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -9087,7 +9087,7 @@
         <v>45462.95982638889</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -9175,7 +9175,7 @@
         <v>45349</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -9268,7 +9268,7 @@
         <v>44945</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -9365,7 +9365,7 @@
         <v>45901.49171296296</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -9458,7 +9458,7 @@
         <v>45831</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -9550,7 +9550,7 @@
         <v>45938.40790509259</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -9643,7 +9643,7 @@
         <v>44904</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -9731,7 +9731,7 @@
         <v>45968.6444212963</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -9823,7 +9823,7 @@
         <v>45981.47217592593</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -9916,7 +9916,7 @@
         <v>45644</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -10008,7 +10008,7 @@
         <v>44750</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -10096,7 +10096,7 @@
         <v>46049.64416666667</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -10184,7 +10184,7 @@
         <v>45161</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -10276,7 +10276,7 @@
         <v>44473.43114583333</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -10372,7 +10372,7 @@
         <v>45602</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -10472,7 +10472,7 @@
         <v>45187</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -10568,7 +10568,7 @@
         <v>45321</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -10655,7 +10655,7 @@
         <v>45873.69988425926</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -10742,7 +10742,7 @@
         <v>44904</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -10833,7 +10833,7 @@
         <v>44956</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -10920,7 +10920,7 @@
         <v>45049</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -11007,7 +11007,7 @@
         <v>45198</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -11099,7 +11099,7 @@
         <v>44904</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -11190,7 +11190,7 @@
         <v>45975.63585648148</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -11281,7 +11281,7 @@
         <v>45558</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -11373,7 +11373,7 @@
         <v>45615.29761574074</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -11460,7 +11460,7 @@
         <v>45707.45219907408</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -11547,7 +11547,7 @@
         <v>45538.33584490741</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -11634,7 +11634,7 @@
         <v>45600.42737268518</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -11725,7 +11725,7 @@
         <v>45643.59420138889</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -11816,7 +11816,7 @@
         <v>45721.44840277778</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -11907,7 +11907,7 @@
         <v>45748.47314814815</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -11993,7 +11993,7 @@
         <v>45894.67988425926</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -12079,7 +12079,7 @@
         <v>45919.59467592592</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -12170,7 +12170,7 @@
         <v>45533.49601851852</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -12256,7 +12256,7 @@
         <v>45966.94104166667</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -12342,7 +12342,7 @@
         <v>45987.55831018519</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -12428,7 +12428,7 @@
         <v>45278</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -12514,7 +12514,7 @@
         <v>44908</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -12600,7 +12600,7 @@
         <v>44441</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -12690,7 +12690,7 @@
         <v>44853</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -12780,7 +12780,7 @@
         <v>44911</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -12866,7 +12866,7 @@
         <v>45975</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -12952,7 +12952,7 @@
         <v>45223</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -13043,7 +13043,7 @@
         <v>44956</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -13129,7 +13129,7 @@
         <v>45441.95357638889</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -13224,7 +13224,7 @@
         <v>45553.59296296296</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -13314,7 +13314,7 @@
         <v>45233</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -13400,7 +13400,7 @@
         <v>45737</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -13490,7 +13490,7 @@
         <v>44904</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -13576,7 +13576,7 @@
         <v>45810</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -13662,7 +13662,7 @@
         <v>44376</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -13752,7 +13752,7 @@
         <v>44623</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -13837,7 +13837,7 @@
         <v>44694</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -13927,7 +13927,7 @@
         <v>44441</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -14016,7 +14016,7 @@
         <v>44742</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -14106,7 +14106,7 @@
         <v>45637.34469907408</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -14200,7 +14200,7 @@
         <v>45280.56451388889</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -14285,7 +14285,7 @@
         <v>44476</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -14370,7 +14370,7 @@
         <v>44298</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -14455,7 +14455,7 @@
         <v>45841.57331018519</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -14545,7 +14545,7 @@
         <v>45910.41201388889</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -14634,7 +14634,7 @@
         <v>45867.51128472222</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -14724,7 +14724,7 @@
         <v>45096</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -14809,7 +14809,7 @@
         <v>45509.9572800926</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -14899,7 +14899,7 @@
         <v>45931.40935185185</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -14984,7 +14984,7 @@
         <v>44617</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -15074,7 +15074,7 @@
         <v>45797.60623842593</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -15159,7 +15159,7 @@
         <v>45572.59462962963</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -15249,7 +15249,7 @@
         <v>45617.40244212963</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -15338,7 +15338,7 @@
         <v>45959.32394675926</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -15428,7 +15428,7 @@
         <v>44900</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -15513,7 +15513,7 @@
         <v>45559.63584490741</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -15603,7 +15603,7 @@
         <v>45985.43086805556</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -15697,7 +15697,7 @@
         <v>44785</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -15786,7 +15786,7 @@
         <v>45629.35344907407</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -15880,7 +15880,7 @@
         <v>45999.67758101852</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -15970,7 +15970,7 @@
         <v>46043.67922453704</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -16055,7 +16055,7 @@
         <v>45624.59462962963</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -16145,7 +16145,7 @@
         <v>46042.58655092592</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -16230,7 +16230,7 @@
         <v>45372</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -16315,7 +16315,7 @@
         <v>45897</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -16405,7 +16405,7 @@
         <v>46044.84650462963</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -16490,7 +16490,7 @@
         <v>45559</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -16580,7 +16580,7 @@
         <v>45558</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -16670,7 +16670,7 @@
         <v>46008.67969907408</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -16755,7 +16755,7 @@
         <v>46051.57149305556</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -16840,7 +16840,7 @@
         <v>46045</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -16929,7 +16929,7 @@
         <v>45561.34641203703</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -17019,7 +17019,7 @@
         <v>44491</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -17109,7 +17109,7 @@
         <v>44928</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -17198,7 +17198,7 @@
         <v>45558</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -17288,7 +17288,7 @@
         <v>45570</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -17373,7 +17373,7 @@
         <v>45558</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -17463,7 +17463,7 @@
         <v>45809.86790509259</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -17548,7 +17548,7 @@
         <v>44316</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -17605,7 +17605,7 @@
         <v>44432</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -17667,7 +17667,7 @@
         <v>44328</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -17724,7 +17724,7 @@
         <v>44879.49488425926</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -17781,7 +17781,7 @@
         <v>44510.44064814815</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -17838,7 +17838,7 @@
         <v>44418.45925925926</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -17895,7 +17895,7 @@
         <v>44524.94607638889</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -17957,7 +17957,7 @@
         <v>44375</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -18014,7 +18014,7 @@
         <v>44362</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -18071,7 +18071,7 @@
         <v>44838</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -18133,7 +18133,7 @@
         <v>44540</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -18190,7 +18190,7 @@
         <v>44790</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -18247,7 +18247,7 @@
         <v>44613</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -18304,7 +18304,7 @@
         <v>44312.41724537037</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -18361,7 +18361,7 @@
         <v>44581</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -18418,7 +18418,7 @@
         <v>44259</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -18475,7 +18475,7 @@
         <v>44852</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -18532,7 +18532,7 @@
         <v>44561</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -18589,7 +18589,7 @@
         <v>44278.42459490741</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -18646,7 +18646,7 @@
         <v>44383.85295138889</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -18703,7 +18703,7 @@
         <v>44347</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -18760,7 +18760,7 @@
         <v>44441.80453703704</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -18817,7 +18817,7 @@
         <v>44340</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -18874,7 +18874,7 @@
         <v>44453</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -18931,7 +18931,7 @@
         <v>44349</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -18988,7 +18988,7 @@
         <v>44298</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -19045,7 +19045,7 @@
         <v>44347</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -19102,7 +19102,7 @@
         <v>44566</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -19159,7 +19159,7 @@
         <v>44755</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -19221,7 +19221,7 @@
         <v>44434</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -19278,7 +19278,7 @@
         <v>44852.95248842592</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -19335,7 +19335,7 @@
         <v>44540</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -19392,7 +19392,7 @@
         <v>44299</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -19449,7 +19449,7 @@
         <v>44335</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -19506,7 +19506,7 @@
         <v>44537.935</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -19563,7 +19563,7 @@
         <v>44609.93075231482</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -19620,7 +19620,7 @@
         <v>44889.89929398148</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -19677,7 +19677,7 @@
         <v>44516</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -19734,7 +19734,7 @@
         <v>44851</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -19791,7 +19791,7 @@
         <v>44375</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -19848,7 +19848,7 @@
         <v>44875</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -19910,7 +19910,7 @@
         <v>44886.63148148148</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -19992,7 +19992,7 @@
         <v>44515</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -20054,7 +20054,7 @@
         <v>44750</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -20111,7 +20111,7 @@
         <v>44544</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -20168,7 +20168,7 @@
         <v>44742</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -20250,7 +20250,7 @@
         <v>44517.55134259259</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -20307,7 +20307,7 @@
         <v>44601.36165509259</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -20364,7 +20364,7 @@
         <v>44722</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -20426,7 +20426,7 @@
         <v>44722.94023148148</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -20488,7 +20488,7 @@
         <v>44721</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -20545,7 +20545,7 @@
         <v>44845.67710648148</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -20602,7 +20602,7 @@
         <v>44430</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -20659,7 +20659,7 @@
         <v>44385</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -20716,7 +20716,7 @@
         <v>45313.9496875</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -20778,7 +20778,7 @@
         <v>44258</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -20835,7 +20835,7 @@
         <v>44375</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -20892,7 +20892,7 @@
         <v>44340</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -20949,7 +20949,7 @@
         <v>44322</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -21006,7 +21006,7 @@
         <v>44540</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -21063,7 +21063,7 @@
         <v>44655</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -21120,7 +21120,7 @@
         <v>44594</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -21177,7 +21177,7 @@
         <v>44704.94370370371</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -21239,7 +21239,7 @@
         <v>45273</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -21296,7 +21296,7 @@
         <v>45596.55266203704</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -21358,7 +21358,7 @@
         <v>45634.72633101852</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -21415,7 +21415,7 @@
         <v>44599.45850694444</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -21472,7 +21472,7 @@
         <v>45189</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -21529,7 +21529,7 @@
         <v>45505.95078703704</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -21591,7 +21591,7 @@
         <v>44607</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -21648,7 +21648,7 @@
         <v>44642.93471064815</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -21710,7 +21710,7 @@
         <v>44957</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -21767,7 +21767,7 @@
         <v>44799</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -21824,7 +21824,7 @@
         <v>44911.93994212963</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -21881,7 +21881,7 @@
         <v>45589.62625</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -21938,7 +21938,7 @@
         <v>45721.36320601852</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -21995,7 +21995,7 @@
         <v>44706</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -22052,7 +22052,7 @@
         <v>45667.46922453704</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -22114,7 +22114,7 @@
         <v>45686</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -22171,7 +22171,7 @@
         <v>44875</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -22228,7 +22228,7 @@
         <v>45569.39229166666</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -22285,7 +22285,7 @@
         <v>45588.3440625</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -22342,7 +22342,7 @@
         <v>45588.34418981482</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -22399,7 +22399,7 @@
         <v>45457.37893518519</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -22456,7 +22456,7 @@
         <v>45315</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -22513,7 +22513,7 @@
         <v>44634.52982638889</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -22570,7 +22570,7 @@
         <v>45621</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -22632,7 +22632,7 @@
         <v>45238.96770833333</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -22694,7 +22694,7 @@
         <v>45693</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -22751,7 +22751,7 @@
         <v>45693</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -22808,7 +22808,7 @@
         <v>44911.54984953703</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -22865,7 +22865,7 @@
         <v>45691</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -22927,7 +22927,7 @@
         <v>44837.36724537037</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -22984,7 +22984,7 @@
         <v>44909.9640162037</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -23046,7 +23046,7 @@
         <v>45567.39192129629</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -23103,7 +23103,7 @@
         <v>45221.92440972223</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -23160,7 +23160,7 @@
         <v>45357.96106481482</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -23217,7 +23217,7 @@
         <v>45336</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -23274,7 +23274,7 @@
         <v>45677.4649537037</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -23336,7 +23336,7 @@
         <v>44977.98629629629</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -23398,7 +23398,7 @@
         <v>44711.9403587963</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -23455,7 +23455,7 @@
         <v>44405</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -23512,7 +23512,7 @@
         <v>44909</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -23569,7 +23569,7 @@
         <v>45770.6925462963</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -23626,7 +23626,7 @@
         <v>45646.39434027778</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -23683,7 +23683,7 @@
         <v>44475</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -23740,7 +23740,7 @@
         <v>44529</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -23797,7 +23797,7 @@
         <v>45223</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -23854,7 +23854,7 @@
         <v>45725.44297453704</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -23911,7 +23911,7 @@
         <v>45600.38585648148</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -23973,7 +23973,7 @@
         <v>44742</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -24030,7 +24030,7 @@
         <v>45701.61899305556</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -24087,7 +24087,7 @@
         <v>45817</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -24149,7 +24149,7 @@
         <v>45819.59429398148</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -24211,7 +24211,7 @@
         <v>45887.57407407407</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -24268,7 +24268,7 @@
         <v>45656.53215277778</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -24325,7 +24325,7 @@
         <v>45818.40337962963</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -24387,7 +24387,7 @@
         <v>44441</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -24444,7 +24444,7 @@
         <v>44655.69303240741</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -24501,7 +24501,7 @@
         <v>45887.55666666666</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -24558,7 +24558,7 @@
         <v>45460.7772800926</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -24615,7 +24615,7 @@
         <v>45321</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -24672,7 +24672,7 @@
         <v>44970.97871527778</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -24734,7 +24734,7 @@
         <v>45595.34762731481</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -24791,7 +24791,7 @@
         <v>45625</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -24848,7 +24848,7 @@
         <v>45888.40700231482</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -24905,7 +24905,7 @@
         <v>45751.36518518518</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -24962,7 +24962,7 @@
         <v>45748.46021990741</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -25019,7 +25019,7 @@
         <v>45888.52440972222</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -25076,7 +25076,7 @@
         <v>45827.49415509259</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -25133,7 +25133,7 @@
         <v>45659.44413194444</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -25190,7 +25190,7 @@
         <v>45188</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -25247,7 +25247,7 @@
         <v>45725.44039351852</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -25304,7 +25304,7 @@
         <v>45827.36590277778</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -25361,7 +25361,7 @@
         <v>45800.47802083333</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -25418,7 +25418,7 @@
         <v>45442.38511574074</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -25475,7 +25475,7 @@
         <v>45895.4484837963</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -25532,7 +25532,7 @@
         <v>45895.49026620371</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -25589,7 +25589,7 @@
         <v>45895.49024305555</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -25646,7 +25646,7 @@
         <v>45895.44856481482</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -25703,7 +25703,7 @@
         <v>45462.56172453704</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -25760,7 +25760,7 @@
         <v>45740.54168981482</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -25822,7 +25822,7 @@
         <v>45004</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -25879,7 +25879,7 @@
         <v>45835.4491087963</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -25941,7 +25941,7 @@
         <v>45901</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -25998,7 +25998,7 @@
         <v>45720.3859375</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -26060,7 +26060,7 @@
         <v>44743</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -26117,7 +26117,7 @@
         <v>45835.67109953704</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -26174,7 +26174,7 @@
         <v>45567.51068287037</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -26236,7 +26236,7 @@
         <v>44916</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -26293,7 +26293,7 @@
         <v>45610.61030092592</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -26350,7 +26350,7 @@
         <v>45902.36641203704</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -26407,7 +26407,7 @@
         <v>45902.42280092592</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -26464,7 +26464,7 @@
         <v>45837.57481481481</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -26526,7 +26526,7 @@
         <v>45309</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -26583,7 +26583,7 @@
         <v>45837.51741898148</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -26645,7 +26645,7 @@
         <v>45837.67381944445</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -26707,7 +26707,7 @@
         <v>45107</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -26764,7 +26764,7 @@
         <v>45904.3452662037</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -26821,7 +26821,7 @@
         <v>45837.66230324074</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -26883,7 +26883,7 @@
         <v>45261</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -26945,7 +26945,7 @@
         <v>45866.51630787037</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -27002,7 +27002,7 @@
         <v>45804.656875</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -27064,7 +27064,7 @@
         <v>45425.96443287037</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -27126,7 +27126,7 @@
         <v>45909.44971064815</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -27183,7 +27183,7 @@
         <v>45841.38054398148</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -27240,7 +27240,7 @@
         <v>45910.4900462963</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -27302,7 +27302,7 @@
         <v>45911.61579861111</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -27364,7 +27364,7 @@
         <v>45911.40074074074</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -27421,7 +27421,7 @@
         <v>45089.54944444444</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -27478,7 +27478,7 @@
         <v>45911.57349537037</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -27540,7 +27540,7 @@
         <v>45511.92825231481</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -27597,7 +27597,7 @@
         <v>45685.69267361111</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -27654,7 +27654,7 @@
         <v>45847.40722222222</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -27716,7 +27716,7 @@
         <v>45846.44827546296</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -27773,7 +27773,7 @@
         <v>45847.61561342593</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -27835,7 +27835,7 @@
         <v>45734.48991898148</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -27897,7 +27897,7 @@
         <v>45847.61533564814</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -27959,7 +27959,7 @@
         <v>45618.6917824074</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -28016,7 +28016,7 @@
         <v>45916.59773148148</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -28073,7 +28073,7 @@
         <v>45245</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -28135,7 +28135,7 @@
         <v>44434</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -28192,7 +28192,7 @@
         <v>45916.57010416667</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -28249,7 +28249,7 @@
         <v>45231</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -28311,7 +28311,7 @@
         <v>45617.65800925926</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -28368,7 +28368,7 @@
         <v>44410.35376157407</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -28425,7 +28425,7 @@
         <v>44466</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -28482,7 +28482,7 @@
         <v>44701.94034722223</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -28539,7 +28539,7 @@
         <v>45722.44892361111</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -28601,7 +28601,7 @@
         <v>45922.4075</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -28663,7 +28663,7 @@
         <v>45922.4077662037</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -28725,7 +28725,7 @@
         <v>45920.8446412037</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -28782,7 +28782,7 @@
         <v>45800.48368055555</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -28839,7 +28839,7 @@
         <v>45922.40680555555</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -28901,7 +28901,7 @@
         <v>45707</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -28958,7 +28958,7 @@
         <v>45707.40493055555</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -29020,7 +29020,7 @@
         <v>45922.40697916667</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -29082,7 +29082,7 @@
         <v>45922.4074537037</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -29144,7 +29144,7 @@
         <v>45691.40832175926</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -29201,7 +29201,7 @@
         <v>45691.40836805556</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -29258,7 +29258,7 @@
         <v>45922</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -29320,7 +29320,7 @@
         <v>45922.53217592592</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -29377,7 +29377,7 @@
         <v>45924.59484953704</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -29439,7 +29439,7 @@
         <v>45924.61512731481</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -29501,7 +29501,7 @@
         <v>45203</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -29558,7 +29558,7 @@
         <v>44914.35599537037</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -29615,7 +29615,7 @@
         <v>45807.74140046296</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -29672,7 +29672,7 @@
         <v>45867.46946759259</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -29734,7 +29734,7 @@
         <v>45849.55601851852</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -29791,7 +29791,7 @@
         <v>45866.50549768518</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -29853,7 +29853,7 @@
         <v>45924.70346064815</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -29910,7 +29910,7 @@
         <v>45869</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -29972,7 +29972,7 @@
         <v>44911.6459837963</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -30029,7 +30029,7 @@
         <v>45681.36493055556</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -30091,7 +30091,7 @@
         <v>45681.40689814815</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -30153,7 +30153,7 @@
         <v>45681.4275462963</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -30215,7 +30215,7 @@
         <v>45000</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -30272,7 +30272,7 @@
         <v>45190</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -30329,7 +30329,7 @@
         <v>45931.38956018518</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -30386,7 +30386,7 @@
         <v>45688.69356481481</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -30443,7 +30443,7 @@
         <v>45588.61512731481</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -30500,7 +30500,7 @@
         <v>45576.46905092592</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -30557,7 +30557,7 @@
         <v>45580.42736111111</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -30614,7 +30614,7 @@
         <v>45931.40100694444</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -30671,7 +30671,7 @@
         <v>45931.40671296296</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -30728,7 +30728,7 @@
         <v>45583.46936342592</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -30785,7 +30785,7 @@
         <v>45806.40677083333</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -30842,7 +30842,7 @@
         <v>45931.67381944445</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -30899,7 +30899,7 @@
         <v>44580</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -30961,7 +30961,7 @@
         <v>45875.44840277778</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -31018,7 +31018,7 @@
         <v>45342</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -31080,7 +31080,7 @@
         <v>45719.38630787037</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -31142,7 +31142,7 @@
         <v>45338</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -31199,7 +31199,7 @@
         <v>45978.45540509259</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -31256,7 +31256,7 @@
         <v>45979.6756712963</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -31318,7 +31318,7 @@
         <v>45937.47302083333</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -31380,7 +31380,7 @@
         <v>44949</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -31437,7 +31437,7 @@
         <v>45679.55256944444</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -31499,7 +31499,7 @@
         <v>45632.68814814815</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -31556,7 +31556,7 @@
         <v>44790</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -31613,7 +31613,7 @@
         <v>45684.56725694444</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -31670,7 +31670,7 @@
         <v>44511.94629629629</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -31727,7 +31727,7 @@
         <v>45937.63275462963</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -31784,7 +31784,7 @@
         <v>45939.49018518518</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -31841,7 +31841,7 @@
         <v>45939</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -31903,7 +31903,7 @@
         <v>45300</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -31960,7 +31960,7 @@
         <v>45943.59442129629</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -32022,7 +32022,7 @@
         <v>45729.3425</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -32079,7 +32079,7 @@
         <v>45945.47097222223</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -32136,7 +32136,7 @@
         <v>45344</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -32193,7 +32193,7 @@
         <v>45944.67787037037</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -32255,7 +32255,7 @@
         <v>45987.67032407408</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -32312,7 +32312,7 @@
         <v>45265.95795138889</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -32374,7 +32374,7 @@
         <v>45586.40660879629</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -32436,7 +32436,7 @@
         <v>44927.88021990741</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -32493,7 +32493,7 @@
         <v>45707</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -32550,7 +32550,7 @@
         <v>45280</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -32607,7 +32607,7 @@
         <v>45280</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -32664,7 +32664,7 @@
         <v>45096</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -32721,7 +32721,7 @@
         <v>45751.36519675926</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -32778,7 +32778,7 @@
         <v>45953.47575231481</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -32835,7 +32835,7 @@
         <v>45953.58497685185</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -32892,7 +32892,7 @@
         <v>45412.46636574074</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -32949,7 +32949,7 @@
         <v>45953.56976851852</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -33006,7 +33006,7 @@
         <v>45952.5909375</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -33063,7 +33063,7 @@
         <v>45646.48988425926</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -33125,7 +33125,7 @@
         <v>45646.49012731481</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -33187,7 +33187,7 @@
         <v>45646.49017361111</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -33249,7 +33249,7 @@
         <v>45957.62978009259</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -33306,7 +33306,7 @@
         <v>45708.50256944444</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -33363,7 +33363,7 @@
         <v>45954.68207175926</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -33420,7 +33420,7 @@
         <v>45553.60474537037</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -33477,7 +33477,7 @@
         <v>45957.67876157408</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -33539,7 +33539,7 @@
         <v>45264</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -33596,7 +33596,7 @@
         <v>45958.36498842593</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -33658,7 +33658,7 @@
         <v>45958.36537037037</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -33720,7 +33720,7 @@
         <v>45754.56839120371</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -33777,7 +33777,7 @@
         <v>44889.59378472222</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -33839,7 +33839,7 @@
         <v>45696.34405092592</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -33896,7 +33896,7 @@
         <v>45012</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -33953,7 +33953,7 @@
         <v>45964.46944444445</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -34015,7 +34015,7 @@
         <v>45112</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -34072,7 +34072,7 @@
         <v>45667.40662037037</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -34134,7 +34134,7 @@
         <v>45965.63496527778</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -34191,7 +34191,7 @@
         <v>44840</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -34248,7 +34248,7 @@
         <v>45730.36263888889</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -34305,7 +34305,7 @@
         <v>45967.49037037037</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -34362,7 +34362,7 @@
         <v>45475.94585648148</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -34424,7 +34424,7 @@
         <v>45223</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -34481,7 +34481,7 @@
         <v>45719.59836805556</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -34538,7 +34538,7 @@
         <v>45593.51123842593</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -34600,7 +34600,7 @@
         <v>45593.57327546296</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -34662,7 +34662,7 @@
         <v>45966.4077662037</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -34719,7 +34719,7 @@
         <v>45967.42462962963</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -34776,7 +34776,7 @@
         <v>45118</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -34833,7 +34833,7 @@
         <v>45642.54847222222</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -34890,7 +34890,7 @@
         <v>45968.53167824074</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -34952,7 +34952,7 @@
         <v>45597.36623842592</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -35014,7 +35014,7 @@
         <v>45688.67965277778</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -35076,7 +35076,7 @@
         <v>45418.4843287037</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -35133,7 +35133,7 @@
         <v>45634.70898148148</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -35190,7 +35190,7 @@
         <v>45974.38310185185</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -35247,7 +35247,7 @@
         <v>45607.50137731482</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -35304,7 +35304,7 @@
         <v>45002</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -35366,7 +35366,7 @@
         <v>45978.57414351852</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -35423,7 +35423,7 @@
         <v>45976.58684027778</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -35480,7 +35480,7 @@
         <v>44977</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -35542,7 +35542,7 @@
         <v>45743.37109953703</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -35599,7 +35599,7 @@
         <v>45980.61142361111</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -35656,7 +35656,7 @@
         <v>45686.6859375</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -35713,7 +35713,7 @@
         <v>45982.61043981482</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -35770,7 +35770,7 @@
         <v>45982.5862037037</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -35827,7 +35827,7 @@
         <v>44952</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -35884,7 +35884,7 @@
         <v>45985.61524305555</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -35941,7 +35941,7 @@
         <v>45177.93612268518</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -36003,7 +36003,7 @@
         <v>45985.51131944444</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -36060,7 +36060,7 @@
         <v>45985.51128472222</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -36117,7 +36117,7 @@
         <v>45985.53162037037</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -36174,7 +36174,7 @@
         <v>45987.52949074074</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -36231,7 +36231,7 @@
         <v>45987.33479166667</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -36288,7 +36288,7 @@
         <v>45987.34543981482</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -36345,7 +36345,7 @@
         <v>45986.39024305555</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -36402,7 +36402,7 @@
         <v>44907</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -36464,7 +36464,7 @@
         <v>45988.58856481482</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -36521,7 +36521,7 @@
         <v>44750</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -36578,7 +36578,7 @@
         <v>45987.83457175926</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -36635,7 +36635,7 @@
         <v>45987.69552083333</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -36692,7 +36692,7 @@
         <v>45740.46325231482</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -36749,7 +36749,7 @@
         <v>45574.38943287037</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -36811,7 +36811,7 @@
         <v>45992.38109953704</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -36868,7 +36868,7 @@
         <v>45992.3706712963</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -36925,7 +36925,7 @@
         <v>45992.47729166667</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -36982,7 +36982,7 @@
         <v>45992.37172453704</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -37039,7 +37039,7 @@
         <v>46034.38729166667</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -37096,7 +37096,7 @@
         <v>45705.57454861111</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -37158,7 +37158,7 @@
         <v>46037.6787962963</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -37215,7 +37215,7 @@
         <v>46037.68489583334</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -37272,7 +37272,7 @@
         <v>45995</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -37329,7 +37329,7 @@
         <v>46037.6703125</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -37386,7 +37386,7 @@
         <v>45012</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -37443,7 +37443,7 @@
         <v>46032</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -37500,7 +37500,7 @@
         <v>45302.52006944444</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -37557,7 +37557,7 @@
         <v>45748.4396412037</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -37614,7 +37614,7 @@
         <v>46038.62193287037</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -37671,7 +37671,7 @@
         <v>46038.6322337963</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -37728,7 +37728,7 @@
         <v>46041.47474537037</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -37785,7 +37785,7 @@
         <v>45993</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -37842,7 +37842,7 @@
         <v>46038.62047453703</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -37899,7 +37899,7 @@
         <v>46038.6360300926</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -37956,7 +37956,7 @@
         <v>45678</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -38013,7 +38013,7 @@
         <v>44911.5662037037</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -38070,7 +38070,7 @@
         <v>45611.46912037037</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -38132,7 +38132,7 @@
         <v>46000.62851851852</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -38189,7 +38189,7 @@
         <v>46000.63969907408</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -38246,7 +38246,7 @@
         <v>46000.67793981481</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -38303,7 +38303,7 @@
         <v>44721</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -38360,7 +38360,7 @@
         <v>45616.67833333334</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -38422,7 +38422,7 @@
         <v>44922</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -38479,7 +38479,7 @@
         <v>44680.92873842592</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -38536,7 +38536,7 @@
         <v>46000</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -38593,7 +38593,7 @@
         <v>46001</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -38650,7 +38650,7 @@
         <v>46045.59430555555</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -38712,7 +38712,7 @@
         <v>46003</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -38769,7 +38769,7 @@
         <v>46045.41643518519</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -38826,7 +38826,7 @@
         <v>45630.49710648148</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -38883,7 +38883,7 @@
         <v>46003.62509259259</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -38940,7 +38940,7 @@
         <v>44368</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -38997,7 +38997,7 @@
         <v>46045.61509259259</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -39054,7 +39054,7 @@
         <v>45239.33032407407</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -39116,7 +39116,7 @@
         <v>46003.56467592593</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -39173,7 +39173,7 @@
         <v>46003</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -39230,7 +39230,7 @@
         <v>46002</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -39287,7 +39287,7 @@
         <v>46003.6159375</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -39344,7 +39344,7 @@
         <v>46003.38026620371</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -39401,7 +39401,7 @@
         <v>46044.85285879629</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -39458,7 +39458,7 @@
         <v>46006.51157407407</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -39515,7 +39515,7 @@
         <v>46006.51155092593</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -39572,7 +39572,7 @@
         <v>44298</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -39629,7 +39629,7 @@
         <v>46007.46907407408</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -39686,7 +39686,7 @@
         <v>46048.89435185185</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -39743,7 +39743,7 @@
         <v>46007.49001157407</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -39800,7 +39800,7 @@
         <v>46007.5958912037</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -39857,7 +39857,7 @@
         <v>45628.53381944444</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -39914,7 +39914,7 @@
         <v>46007.33719907407</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -39976,7 +39976,7 @@
         <v>45428.92486111111</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -40038,7 +40038,7 @@
         <v>46008.34438657408</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -40095,7 +40095,7 @@
         <v>46008.34443287037</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -40152,7 +40152,7 @@
         <v>45701.60046296296</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -40209,7 +40209,7 @@
         <v>45092</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -40266,7 +40266,7 @@
         <v>46050.44859953703</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -40323,7 +40323,7 @@
         <v>45709.36497685185</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -40385,7 +40385,7 @@
         <v>45757.64563657407</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -40442,7 +40442,7 @@
         <v>46010.45680555556</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -40499,7 +40499,7 @@
         <v>46010.53825231481</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -40556,7 +40556,7 @@
         <v>46013.50993055556</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -40613,7 +40613,7 @@
         <v>45559.59476851852</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -40675,7 +40675,7 @@
         <v>46013.4459375</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -40732,7 +40732,7 @@
         <v>45730.45930555555</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -40794,7 +40794,7 @@
         <v>45770.56363425926</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -40851,7 +40851,7 @@
         <v>46014.5496875</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -40908,7 +40908,7 @@
         <v>46057.40715277778</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -40970,7 +40970,7 @@
         <v>46057.6153125</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -41027,7 +41027,7 @@
         <v>46051</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -41084,7 +41084,7 @@
         <v>44336</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -41141,7 +41141,7 @@
         <v>45547.90777777778</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -41198,7 +41198,7 @@
         <v>46057.55269675926</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -41255,7 +41255,7 @@
         <v>46056.8547337963</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -41312,7 +41312,7 @@
         <v>46059.44539351852</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -41369,7 +41369,7 @@
         <v>46059.44135416667</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -41426,7 +41426,7 @@
         <v>45621.41050925926</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -41483,7 +41483,7 @@
         <v>44425</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -41540,7 +41540,7 @@
         <v>45684</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -41597,7 +41597,7 @@
         <v>46019</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -41654,7 +41654,7 @@
         <v>46021.34450231482</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -41711,7 +41711,7 @@
         <v>46062.48398148148</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -41768,7 +41768,7 @@
         <v>46021.46912037037</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -41825,7 +41825,7 @@
         <v>46045.56253472222</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -41882,7 +41882,7 @@
         <v>45344</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -41939,7 +41939,7 @@
         <v>46020.47796296296</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -41996,7 +41996,7 @@
         <v>46021.34454861111</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -42053,7 +42053,7 @@
         <v>46045</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -42110,7 +42110,7 @@
         <v>44922</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -42167,7 +42167,7 @@
         <v>46063.65710648148</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -42224,7 +42224,7 @@
         <v>46020.49056712963</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -42281,7 +42281,7 @@
         <v>45588.61498842593</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -42343,7 +42343,7 @@
         <v>45600.53160879629</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -42405,7 +42405,7 @@
         <v>45260</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -42462,7 +42462,7 @@
         <v>45260</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -42519,7 +42519,7 @@
         <v>45376</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -42576,7 +42576,7 @@
         <v>44880</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -42633,7 +42633,7 @@
         <v>45223</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -42695,7 +42695,7 @@
         <v>44434</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -42752,7 +42752,7 @@
         <v>45707</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -42814,7 +42814,7 @@
         <v>46064.39027777778</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -42871,7 +42871,7 @@
         <v>46064.45548611111</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -42928,7 +42928,7 @@
         <v>46065.61449074074</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -42990,7 +42990,7 @@
         <v>44637</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -43047,7 +43047,7 @@
         <v>46066</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -43104,7 +43104,7 @@
         <v>45462.96347222223</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -43166,7 +43166,7 @@
         <v>46066.6364699074</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -43228,7 +43228,7 @@
         <v>46066</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -43285,7 +43285,7 @@
         <v>46065</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -43342,7 +43342,7 @@
         <v>46065</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -43399,7 +43399,7 @@
         <v>46066.35408564815</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -43456,7 +43456,7 @@
         <v>44609</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -43513,7 +43513,7 @@
         <v>44635</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -43570,7 +43570,7 @@
         <v>46024</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -43627,7 +43627,7 @@
         <v>46027.57334490741</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -43684,7 +43684,7 @@
         <v>46066</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -43741,7 +43741,7 @@
         <v>46027.59451388889</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -43803,7 +43803,7 @@
         <v>46066.6365625</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -43865,7 +43865,7 @@
         <v>46065</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -43922,7 +43922,7 @@
         <v>46070.38542824074</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -43984,7 +43984,7 @@
         <v>45743.57336805556</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -44041,7 +44041,7 @@
         <v>45677.47302083333</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -44098,7 +44098,7 @@
         <v>45922</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -44160,7 +44160,7 @@
         <v>46029</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -44217,7 +44217,7 @@
         <v>45149</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -44274,7 +44274,7 @@
         <v>46029.41560185186</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -44331,7 +44331,7 @@
         <v>45435.55372685185</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -44388,7 +44388,7 @@
         <v>46073.61809027778</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -44445,7 +44445,7 @@
         <v>45057</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -44502,7 +44502,7 @@
         <v>45475.3378125</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -44559,7 +44559,7 @@
         <v>46031.6141087963</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -44616,7 +44616,7 @@
         <v>45607.49265046296</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -44673,7 +44673,7 @@
         <v>46073.60355324074</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -44730,7 +44730,7 @@
         <v>46073.48990740741</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -44787,7 +44787,7 @@
         <v>46073.47060185186</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -44844,7 +44844,7 @@
         <v>45221.92429398148</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -44901,7 +44901,7 @@
         <v>46073.62262731481</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -44958,7 +44958,7 @@
         <v>46072.6378587963</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -45015,7 +45015,7 @@
         <v>45315</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -45072,7 +45072,7 @@
         <v>45477.28482638889</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -45129,7 +45129,7 @@
         <v>45645.44158564815</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -45186,7 +45186,7 @@
         <v>45166.9569675926</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -45248,7 +45248,7 @@
         <v>45236.62300925926</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -45310,7 +45310,7 @@
         <v>45677.44393518518</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -45367,7 +45367,7 @@
         <v>44922</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -45424,7 +45424,7 @@
         <v>45708.44947916667</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -45486,7 +45486,7 @@
         <v>45057.9441087963</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -45548,7 +45548,7 @@
         <v>44986.94196759259</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -45610,7 +45610,7 @@
         <v>45751.34664351852</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -45672,7 +45672,7 @@
         <v>44735</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -45729,7 +45729,7 @@
         <v>45183</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -45786,7 +45786,7 @@
         <v>44323</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -45843,7 +45843,7 @@
         <v>44757.92671296297</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -45900,7 +45900,7 @@
         <v>45237.50966435186</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -45957,7 +45957,7 @@
         <v>44883.44737268519</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -46014,7 +46014,7 @@
         <v>45370</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -46071,7 +46071,7 @@
         <v>45159.42180555555</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -46128,7 +46128,7 @@
         <v>45621.86827546296</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -46185,7 +46185,7 @@
         <v>45572.59430555555</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -46247,7 +46247,7 @@
         <v>45762.63375</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -46309,7 +46309,7 @@
         <v>45643.42986111111</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -46371,7 +46371,7 @@
         <v>44679.92574074074</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -46428,7 +46428,7 @@
         <v>45646.35685185185</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -46485,7 +46485,7 @@
         <v>44375</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -46542,7 +46542,7 @@
         <v>45223</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -46599,7 +46599,7 @@
         <v>44378</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -46656,7 +46656,7 @@
         <v>45223.5036574074</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -46713,7 +46713,7 @@
         <v>45236.92776620371</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -46770,7 +46770,7 @@
         <v>45477.26746527778</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -46827,7 +46827,7 @@
         <v>45008</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -46884,7 +46884,7 @@
         <v>45660.32672453704</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -46941,7 +46941,7 @@
         <v>45737.40131944444</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -46998,7 +46998,7 @@
         <v>45763</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -47055,7 +47055,7 @@
         <v>45763</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -47112,7 +47112,7 @@
         <v>45639.40684027778</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -47174,7 +47174,7 @@
         <v>45736.71956018519</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -47236,7 +47236,7 @@
         <v>44721.47241898148</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -47298,7 +47298,7 @@
         <v>45096</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -47355,7 +47355,7 @@
         <v>44614.91989583334</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -47412,7 +47412,7 @@
         <v>44986</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -47474,7 +47474,7 @@
         <v>45607.55260416667</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -47536,7 +47536,7 @@
         <v>45231</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -47598,7 +47598,7 @@
         <v>45707.42392361111</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -47655,7 +47655,7 @@
         <v>45324.93804398148</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -47717,7 +47717,7 @@
         <v>45314.58785879629</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -47774,7 +47774,7 @@
         <v>44533</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -47831,7 +47831,7 @@
         <v>44952</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -47888,7 +47888,7 @@
         <v>44937</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -47945,7 +47945,7 @@
         <v>45630</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -48002,7 +48002,7 @@
         <v>45429.92313657407</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -48059,7 +48059,7 @@
         <v>45715.59545138889</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -48116,7 +48116,7 @@
         <v>44643</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -48173,7 +48173,7 @@
         <v>45702.51765046296</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -48230,7 +48230,7 @@
         <v>45690.63628472222</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -48287,7 +48287,7 @@
         <v>45313</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -48344,7 +48344,7 @@
         <v>44375</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -48401,7 +48401,7 @@
         <v>45741.68631944444</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -48458,7 +48458,7 @@
         <v>45460.81277777778</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -48515,7 +48515,7 @@
         <v>45615.31297453704</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -48572,7 +48572,7 @@
         <v>45028</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -48629,7 +48629,7 @@
         <v>45306</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -48686,7 +48686,7 @@
         <v>44889</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -48743,7 +48743,7 @@
         <v>45743.44207175926</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -48800,7 +48800,7 @@
         <v>45693</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -48857,7 +48857,7 @@
         <v>45328</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -48914,7 +48914,7 @@
         <v>44564.93909722222</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -48971,7 +48971,7 @@
         <v>45636.5674537037</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -49028,7 +49028,7 @@
         <v>45198</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -49090,7 +49090,7 @@
         <v>45198</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -49152,7 +49152,7 @@
         <v>45692.55256944444</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -49209,7 +49209,7 @@
         <v>45777.58025462963</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -49266,7 +49266,7 @@
         <v>45777.62665509259</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -49323,7 +49323,7 @@
         <v>45779</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -49380,7 +49380,7 @@
         <v>45754</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -49442,7 +49442,7 @@
         <v>45743.39528935185</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -49499,7 +49499,7 @@
         <v>45754</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -49561,7 +49561,7 @@
         <v>45686.64175925926</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -49618,7 +49618,7 @@
         <v>45789.42538194444</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -49675,7 +49675,7 @@
         <v>45760.66995370371</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -49732,7 +49732,7 @@
         <v>45686.92384259259</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -49789,7 +49789,7 @@
         <v>45686.92864583333</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -49846,7 +49846,7 @@
         <v>45789.56414351852</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -49903,7 +49903,7 @@
         <v>45789</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -49960,7 +49960,7 @@
         <v>45786</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -50017,7 +50017,7 @@
         <v>45791</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -50074,7 +50074,7 @@
         <v>45707</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -50131,7 +50131,7 @@
         <v>45791.35212962963</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -50188,7 +50188,7 @@
         <v>45791.36526620371</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -50245,7 +50245,7 @@
         <v>45790.43905092592</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -50302,7 +50302,7 @@
         <v>45791.27984953704</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -50359,7 +50359,7 @@
         <v>45793.68469907407</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -50416,7 +50416,7 @@
         <v>45797.65025462963</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -50473,7 +50473,7 @@
         <v>45561.34908564815</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -50535,7 +50535,7 @@
         <v>45798.46913194445</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -50597,7 +50597,7 @@
         <v>45798.42108796296</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -50654,7 +50654,7 @@
         <v>45799.68418981481</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -50711,7 +50711,7 @@
         <v>45611.66655092593</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -50768,7 +50768,7 @@
         <v>45799.7372337963</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -50825,7 +50825,7 @@
         <v>45799.56515046296</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -50882,7 +50882,7 @@
         <v>45799.69116898148</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -50939,7 +50939,7 @@
         <v>45803</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -51001,7 +51001,7 @@
         <v>45800.50355324074</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -51058,7 +51058,7 @@
         <v>45800.46960648148</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -51115,7 +51115,7 @@
         <v>45805.42827546296</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -51177,7 +51177,7 @@
         <v>45587.42835648148</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -51234,7 +51234,7 @@
         <v>45807</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -51291,7 +51291,7 @@
         <v>45807</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -51348,7 +51348,7 @@
         <v>45691</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -51410,7 +51410,7 @@
         <v>45320.92060185185</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -51467,7 +51467,7 @@
         <v>45811.59258101852</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -51524,7 +51524,7 @@
         <v>45807.75076388889</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -51581,7 +51581,7 @@
         <v>45364.3874074074</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -51638,7 +51638,7 @@
         <v>45736.71818287037</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -51695,7 +51695,7 @@
         <v>45551.67761574074</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -51757,7 +51757,7 @@
         <v>45811.5928587963</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -51814,7 +51814,7 @@
         <v>45720.38576388889</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -51876,7 +51876,7 @@
         <v>45813.43966435185</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -51933,7 +51933,7 @@
         <v>45707.42825231481</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>

--- a/Översikt ÖSTERSUND.xlsx
+++ b/Översikt ÖSTERSUND.xlsx
@@ -575,7 +575,7 @@
         <v>45109</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -757,7 +757,7 @@
         <v>45155</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -894,7 +894,7 @@
         <v>44585</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -1021,7 +1021,7 @@
         <v>45690</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1138,7 +1138,7 @@
         <v>45932</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1253,7 +1253,7 @@
         <v>45985.42282407408</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1367,7 +1367,7 @@
         <v>45924</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1480,7 +1480,7 @@
         <v>44344</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1592,7 +1592,7 @@
         <v>44642</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1704,7 +1704,7 @@
         <v>45600</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1820,7 +1820,7 @@
         <v>45988.52288194445</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1936,7 +1936,7 @@
         <v>45747</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -2044,7 +2044,7 @@
         <v>45112</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -2143,7 +2143,7 @@
         <v>45932.58673611111</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2250,7 +2250,7 @@
         <v>44819</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2357,7 +2357,7 @@
         <v>45916.80152777778</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2463,7 +2463,7 @@
         <v>44945</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2569,7 +2569,7 @@
         <v>45975.49049768518</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2670,7 +2670,7 @@
         <v>45978.57238425926</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2771,7 +2771,7 @@
         <v>45929</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2872,7 +2872,7 @@
         <v>45965</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2977,7 +2977,7 @@
         <v>45890</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -3081,7 +3081,7 @@
         <v>45940.65138888889</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -3185,7 +3185,7 @@
         <v>45932.65210648148</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3288,7 +3288,7 @@
         <v>46051.68951388889</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3391,7 +3391,7 @@
         <v>45937.55055555556</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3494,7 +3494,7 @@
         <v>45621</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3593,7 +3593,7 @@
         <v>44971</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3692,7 +3692,7 @@
         <v>45649</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3790,7 +3790,7 @@
         <v>45470</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3892,7 +3892,7 @@
         <v>45937.64063657408</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3994,7 +3994,7 @@
         <v>45754.67761574074</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -4093,7 +4093,7 @@
         <v>45475.94597222222</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -4191,7 +4191,7 @@
         <v>45575.77440972222</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -4288,7 +4288,7 @@
         <v>45952.46650462963</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4389,7 +4389,7 @@
         <v>45526</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4487,7 +4487,7 @@
         <v>45063</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4583,7 +4583,7 @@
         <v>45415</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4683,7 +4683,7 @@
         <v>46010.45428240741</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4783,7 +4783,7 @@
         <v>45170</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4884,7 +4884,7 @@
         <v>45349</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4985,7 +4985,7 @@
         <v>45369</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -5077,7 +5077,7 @@
         <v>46027.7344212963</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -5173,7 +5173,7 @@
         <v>45975.63604166666</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -5269,7 +5269,7 @@
         <v>44414</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -5364,7 +5364,7 @@
         <v>45831</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -5459,7 +5459,7 @@
         <v>45981.50630787037</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5554,7 +5554,7 @@
         <v>45936.66547453704</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5653,7 +5653,7 @@
         <v>45890</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5748,7 +5748,7 @@
         <v>45945.47331018518</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5847,7 +5847,7 @@
         <v>45806</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5946,7 +5946,7 @@
         <v>45953</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -6045,7 +6045,7 @@
         <v>45028</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -6141,7 +6141,7 @@
         <v>46049.67512731482</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -6240,7 +6240,7 @@
         <v>45958</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -6339,7 +6339,7 @@
         <v>45233</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -6435,7 +6435,7 @@
         <v>44356</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -6533,7 +6533,7 @@
         <v>45762.51075231482</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6628,7 +6628,7 @@
         <v>44929</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6722,7 +6722,7 @@
         <v>45555</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6820,7 +6820,7 @@
         <v>44337</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6914,7 +6914,7 @@
         <v>45897</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -7009,7 +7009,7 @@
         <v>46008.48708333333</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -7103,7 +7103,7 @@
         <v>46010.46366898148</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -7201,7 +7201,7 @@
         <v>46000.61640046296</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -7299,7 +7299,7 @@
         <v>44851</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -7393,7 +7393,7 @@
         <v>45684</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -7487,7 +7487,7 @@
         <v>46030.61326388889</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -7581,7 +7581,7 @@
         <v>44270.58950231481</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -7675,7 +7675,7 @@
         <v>45645</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7773,7 +7773,7 @@
         <v>44742</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7867,7 +7867,7 @@
         <v>45254</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7960,7 +7960,7 @@
         <v>45821.59243055555</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -8053,7 +8053,7 @@
         <v>45618.43853009259</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -8151,7 +8151,7 @@
         <v>45978.61351851852</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -8244,7 +8244,7 @@
         <v>45985.53155092592</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -8337,7 +8337,7 @@
         <v>45975.43427083334</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -8430,7 +8430,7 @@
         <v>45349</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -8528,7 +8528,7 @@
         <v>46006.34435185185</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -8626,7 +8626,7 @@
         <v>45369</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -8719,7 +8719,7 @@
         <v>45161</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -8812,7 +8812,7 @@
         <v>45189</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8901,7 +8901,7 @@
         <v>45553</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8990,7 +8990,7 @@
         <v>45237</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -9087,7 +9087,7 @@
         <v>45462.95982638889</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -9175,7 +9175,7 @@
         <v>45349</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -9268,7 +9268,7 @@
         <v>44945</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -9365,7 +9365,7 @@
         <v>45901.49171296296</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -9458,7 +9458,7 @@
         <v>45831</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -9550,7 +9550,7 @@
         <v>45938.40790509259</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -9643,7 +9643,7 @@
         <v>44904</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -9731,7 +9731,7 @@
         <v>45968.6444212963</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -9823,7 +9823,7 @@
         <v>45981.47217592593</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -9916,7 +9916,7 @@
         <v>45644</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -10008,7 +10008,7 @@
         <v>44750</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -10096,7 +10096,7 @@
         <v>46049.64416666667</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -10184,7 +10184,7 @@
         <v>45161</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -10276,7 +10276,7 @@
         <v>44473.43114583333</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -10372,7 +10372,7 @@
         <v>45602</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -10472,7 +10472,7 @@
         <v>45187</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -10568,7 +10568,7 @@
         <v>45321</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -10655,7 +10655,7 @@
         <v>45873.69988425926</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -10742,7 +10742,7 @@
         <v>44904</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -10833,7 +10833,7 @@
         <v>44956</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -10920,7 +10920,7 @@
         <v>45049</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -11007,7 +11007,7 @@
         <v>45198</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -11099,7 +11099,7 @@
         <v>44904</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -11190,7 +11190,7 @@
         <v>45975.63585648148</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -11281,7 +11281,7 @@
         <v>45558</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -11373,7 +11373,7 @@
         <v>45615.29761574074</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -11460,7 +11460,7 @@
         <v>45707.45219907408</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -11547,7 +11547,7 @@
         <v>45538.33584490741</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -11634,7 +11634,7 @@
         <v>45600.42737268518</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -11725,7 +11725,7 @@
         <v>45643.59420138889</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -11816,7 +11816,7 @@
         <v>45721.44840277778</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -11907,7 +11907,7 @@
         <v>45748.47314814815</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -11993,7 +11993,7 @@
         <v>45894.67988425926</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -12079,7 +12079,7 @@
         <v>45919.59467592592</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -12170,7 +12170,7 @@
         <v>45533.49601851852</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -12256,7 +12256,7 @@
         <v>45966.94104166667</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -12342,7 +12342,7 @@
         <v>45987.55831018519</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -12428,7 +12428,7 @@
         <v>45278</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -12514,7 +12514,7 @@
         <v>44908</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -12600,7 +12600,7 @@
         <v>44441</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -12690,7 +12690,7 @@
         <v>44853</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -12780,7 +12780,7 @@
         <v>44911</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -12866,7 +12866,7 @@
         <v>45975</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -12952,7 +12952,7 @@
         <v>45223</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -13043,7 +13043,7 @@
         <v>44956</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -13129,7 +13129,7 @@
         <v>45441.95357638889</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -13224,7 +13224,7 @@
         <v>45553.59296296296</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -13314,7 +13314,7 @@
         <v>45233</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -13400,7 +13400,7 @@
         <v>45737</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -13490,7 +13490,7 @@
         <v>44904</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -13576,7 +13576,7 @@
         <v>45810</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -13662,7 +13662,7 @@
         <v>44376</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -13752,7 +13752,7 @@
         <v>44623</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -13837,7 +13837,7 @@
         <v>44694</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -13927,7 +13927,7 @@
         <v>44441</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -14016,7 +14016,7 @@
         <v>44742</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -14106,7 +14106,7 @@
         <v>45637.34469907408</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -14200,7 +14200,7 @@
         <v>45280.56451388889</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -14285,7 +14285,7 @@
         <v>44476</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -14370,7 +14370,7 @@
         <v>44298</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -14455,7 +14455,7 @@
         <v>45841.57331018519</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -14545,7 +14545,7 @@
         <v>45910.41201388889</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -14634,7 +14634,7 @@
         <v>45867.51128472222</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -14724,7 +14724,7 @@
         <v>45096</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -14809,7 +14809,7 @@
         <v>45509.9572800926</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -14899,7 +14899,7 @@
         <v>45931.40935185185</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -14984,7 +14984,7 @@
         <v>44617</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -15074,7 +15074,7 @@
         <v>45797.60623842593</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -15159,7 +15159,7 @@
         <v>45572.59462962963</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -15249,7 +15249,7 @@
         <v>45617.40244212963</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -15338,7 +15338,7 @@
         <v>45959.32394675926</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -15428,7 +15428,7 @@
         <v>44900</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -15513,7 +15513,7 @@
         <v>45559.63584490741</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -15603,7 +15603,7 @@
         <v>45985.43086805556</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -15697,7 +15697,7 @@
         <v>44785</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -15786,7 +15786,7 @@
         <v>45629.35344907407</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -15880,7 +15880,7 @@
         <v>45999.67758101852</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -15970,7 +15970,7 @@
         <v>46043.67922453704</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -16055,7 +16055,7 @@
         <v>45624.59462962963</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -16145,7 +16145,7 @@
         <v>46042.58655092592</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -16230,7 +16230,7 @@
         <v>45372</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -16315,7 +16315,7 @@
         <v>45897</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -16405,7 +16405,7 @@
         <v>46044.84650462963</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -16490,7 +16490,7 @@
         <v>45559</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -16580,7 +16580,7 @@
         <v>45558</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -16670,7 +16670,7 @@
         <v>46008.67969907408</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -16755,7 +16755,7 @@
         <v>46051.57149305556</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -16840,7 +16840,7 @@
         <v>46045</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -16929,7 +16929,7 @@
         <v>45561.34641203703</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -17019,7 +17019,7 @@
         <v>44491</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -17109,7 +17109,7 @@
         <v>44928</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -17198,7 +17198,7 @@
         <v>45558</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -17288,7 +17288,7 @@
         <v>45570</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -17373,7 +17373,7 @@
         <v>45558</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -17463,7 +17463,7 @@
         <v>45809.86790509259</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -17548,7 +17548,7 @@
         <v>44316</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -17605,7 +17605,7 @@
         <v>44432</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -17667,7 +17667,7 @@
         <v>44328</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -17724,7 +17724,7 @@
         <v>44879.49488425926</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -17781,7 +17781,7 @@
         <v>44510.44064814815</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -17838,7 +17838,7 @@
         <v>44418.45925925926</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -17895,7 +17895,7 @@
         <v>44524.94607638889</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -17957,7 +17957,7 @@
         <v>44375</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -18014,7 +18014,7 @@
         <v>44362</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -18071,7 +18071,7 @@
         <v>44838</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -18133,7 +18133,7 @@
         <v>44540</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -18190,7 +18190,7 @@
         <v>44790</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -18247,7 +18247,7 @@
         <v>44613</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -18304,7 +18304,7 @@
         <v>44312.41724537037</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -18361,7 +18361,7 @@
         <v>44581</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -18418,7 +18418,7 @@
         <v>44259</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -18475,7 +18475,7 @@
         <v>44852</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -18532,7 +18532,7 @@
         <v>44561</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -18589,7 +18589,7 @@
         <v>44278.42459490741</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -18646,7 +18646,7 @@
         <v>44383.85295138889</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -18703,7 +18703,7 @@
         <v>44347</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -18760,7 +18760,7 @@
         <v>44441.80453703704</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -18817,7 +18817,7 @@
         <v>44340</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -18874,7 +18874,7 @@
         <v>44453</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -18931,7 +18931,7 @@
         <v>44349</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -18988,7 +18988,7 @@
         <v>44298</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -19045,7 +19045,7 @@
         <v>44347</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -19102,7 +19102,7 @@
         <v>44566</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -19159,7 +19159,7 @@
         <v>44755</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -19221,7 +19221,7 @@
         <v>44434</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -19278,7 +19278,7 @@
         <v>44852.95248842592</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -19335,7 +19335,7 @@
         <v>44540</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -19392,7 +19392,7 @@
         <v>44299</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -19449,7 +19449,7 @@
         <v>44335</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -19506,7 +19506,7 @@
         <v>44537.935</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -19563,7 +19563,7 @@
         <v>44609.93075231482</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -19620,7 +19620,7 @@
         <v>44889.89929398148</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -19677,7 +19677,7 @@
         <v>44516</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -19734,7 +19734,7 @@
         <v>44851</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -19791,7 +19791,7 @@
         <v>44375</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -19848,7 +19848,7 @@
         <v>44875</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -19910,7 +19910,7 @@
         <v>44886.63148148148</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -19992,7 +19992,7 @@
         <v>44515</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -20054,7 +20054,7 @@
         <v>44750</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -20111,7 +20111,7 @@
         <v>44544</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -20168,7 +20168,7 @@
         <v>44742</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -20250,7 +20250,7 @@
         <v>44517.55134259259</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -20307,7 +20307,7 @@
         <v>44601.36165509259</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -20364,7 +20364,7 @@
         <v>44722</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -20426,7 +20426,7 @@
         <v>44722.94023148148</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -20488,7 +20488,7 @@
         <v>44721</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -20545,7 +20545,7 @@
         <v>44845.67710648148</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -20602,7 +20602,7 @@
         <v>44430</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -20659,7 +20659,7 @@
         <v>44385</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -20716,7 +20716,7 @@
         <v>45313.9496875</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -20778,7 +20778,7 @@
         <v>44258</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -20835,7 +20835,7 @@
         <v>44375</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -20892,7 +20892,7 @@
         <v>44340</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -20949,7 +20949,7 @@
         <v>44322</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -21006,7 +21006,7 @@
         <v>44540</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -21063,7 +21063,7 @@
         <v>44655</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -21120,7 +21120,7 @@
         <v>44594</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -21177,7 +21177,7 @@
         <v>44704.94370370371</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -21239,7 +21239,7 @@
         <v>45273</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -21296,7 +21296,7 @@
         <v>45596.55266203704</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -21358,7 +21358,7 @@
         <v>45634.72633101852</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -21415,7 +21415,7 @@
         <v>44599.45850694444</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -21472,7 +21472,7 @@
         <v>45189</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -21529,7 +21529,7 @@
         <v>45505.95078703704</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -21591,7 +21591,7 @@
         <v>44607</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -21648,7 +21648,7 @@
         <v>44642.93471064815</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -21710,7 +21710,7 @@
         <v>44957</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -21767,7 +21767,7 @@
         <v>44799</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -21824,7 +21824,7 @@
         <v>44911.93994212963</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -21881,7 +21881,7 @@
         <v>45589.62625</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -21938,7 +21938,7 @@
         <v>45721.36320601852</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -21995,7 +21995,7 @@
         <v>44706</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -22052,7 +22052,7 @@
         <v>45667.46922453704</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -22114,7 +22114,7 @@
         <v>45686</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -22171,7 +22171,7 @@
         <v>44875</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -22228,7 +22228,7 @@
         <v>45569.39229166666</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -22285,7 +22285,7 @@
         <v>45588.3440625</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -22342,7 +22342,7 @@
         <v>45588.34418981482</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -22399,7 +22399,7 @@
         <v>45457.37893518519</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -22456,7 +22456,7 @@
         <v>45315</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -22513,7 +22513,7 @@
         <v>44634.52982638889</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -22570,7 +22570,7 @@
         <v>45621</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -22632,7 +22632,7 @@
         <v>45238.96770833333</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -22694,7 +22694,7 @@
         <v>45693</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -22751,7 +22751,7 @@
         <v>45693</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -22808,7 +22808,7 @@
         <v>44911.54984953703</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -22865,7 +22865,7 @@
         <v>45691</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -22927,7 +22927,7 @@
         <v>44837.36724537037</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -22984,7 +22984,7 @@
         <v>44909.9640162037</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -23046,7 +23046,7 @@
         <v>45567.39192129629</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -23103,7 +23103,7 @@
         <v>45221.92440972223</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -23160,7 +23160,7 @@
         <v>45357.96106481482</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -23217,7 +23217,7 @@
         <v>45336</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -23274,7 +23274,7 @@
         <v>45677.4649537037</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -23336,7 +23336,7 @@
         <v>44977.98629629629</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -23398,7 +23398,7 @@
         <v>44711.9403587963</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -23455,7 +23455,7 @@
         <v>44405</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -23512,7 +23512,7 @@
         <v>44909</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -23569,7 +23569,7 @@
         <v>45770.6925462963</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -23626,7 +23626,7 @@
         <v>45646.39434027778</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -23683,7 +23683,7 @@
         <v>44475</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -23740,7 +23740,7 @@
         <v>44529</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -23797,7 +23797,7 @@
         <v>45223</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -23854,7 +23854,7 @@
         <v>45725.44297453704</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -23911,7 +23911,7 @@
         <v>45600.38585648148</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -23973,7 +23973,7 @@
         <v>44742</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -24030,7 +24030,7 @@
         <v>45701.61899305556</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -24087,7 +24087,7 @@
         <v>45817</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -24149,7 +24149,7 @@
         <v>45819.59429398148</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -24211,7 +24211,7 @@
         <v>45887.57407407407</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -24268,7 +24268,7 @@
         <v>45656.53215277778</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -24325,7 +24325,7 @@
         <v>45818.40337962963</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -24387,7 +24387,7 @@
         <v>44441</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -24444,7 +24444,7 @@
         <v>44655.69303240741</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -24501,7 +24501,7 @@
         <v>45887.55666666666</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -24558,7 +24558,7 @@
         <v>45460.7772800926</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -24615,7 +24615,7 @@
         <v>45321</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -24672,7 +24672,7 @@
         <v>44970.97871527778</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -24734,7 +24734,7 @@
         <v>45595.34762731481</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -24791,7 +24791,7 @@
         <v>45625</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -24848,7 +24848,7 @@
         <v>45888.40700231482</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -24905,7 +24905,7 @@
         <v>45751.36518518518</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -24962,7 +24962,7 @@
         <v>45748.46021990741</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -25019,7 +25019,7 @@
         <v>45888.52440972222</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -25076,7 +25076,7 @@
         <v>45827.49415509259</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -25133,7 +25133,7 @@
         <v>45659.44413194444</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -25190,7 +25190,7 @@
         <v>45188</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -25247,7 +25247,7 @@
         <v>45725.44039351852</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -25304,7 +25304,7 @@
         <v>45827.36590277778</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -25361,7 +25361,7 @@
         <v>45800.47802083333</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -25418,7 +25418,7 @@
         <v>45442.38511574074</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -25475,7 +25475,7 @@
         <v>45895.4484837963</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -25532,7 +25532,7 @@
         <v>45895.49026620371</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -25589,7 +25589,7 @@
         <v>45895.49024305555</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -25646,7 +25646,7 @@
         <v>45895.44856481482</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -25703,7 +25703,7 @@
         <v>45462.56172453704</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -25760,7 +25760,7 @@
         <v>45740.54168981482</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -25822,7 +25822,7 @@
         <v>45004</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -25879,7 +25879,7 @@
         <v>45835.4491087963</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -25941,7 +25941,7 @@
         <v>45901</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -25998,7 +25998,7 @@
         <v>45720.3859375</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -26060,7 +26060,7 @@
         <v>44743</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -26117,7 +26117,7 @@
         <v>45835.67109953704</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -26174,7 +26174,7 @@
         <v>45567.51068287037</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -26236,7 +26236,7 @@
         <v>44916</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -26293,7 +26293,7 @@
         <v>45610.61030092592</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -26350,7 +26350,7 @@
         <v>45902.36641203704</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -26407,7 +26407,7 @@
         <v>45902.42280092592</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -26464,7 +26464,7 @@
         <v>45837.57481481481</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -26526,7 +26526,7 @@
         <v>45309</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -26583,7 +26583,7 @@
         <v>45837.51741898148</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -26645,7 +26645,7 @@
         <v>45837.67381944445</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -26707,7 +26707,7 @@
         <v>45107</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -26764,7 +26764,7 @@
         <v>45904.3452662037</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -26821,7 +26821,7 @@
         <v>45837.66230324074</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -26883,7 +26883,7 @@
         <v>45261</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -26945,7 +26945,7 @@
         <v>45866.51630787037</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -27002,7 +27002,7 @@
         <v>45804.656875</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -27064,7 +27064,7 @@
         <v>45425.96443287037</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -27126,7 +27126,7 @@
         <v>45909.44971064815</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -27183,7 +27183,7 @@
         <v>45841.38054398148</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -27240,7 +27240,7 @@
         <v>45910.4900462963</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -27302,7 +27302,7 @@
         <v>45911.61579861111</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -27364,7 +27364,7 @@
         <v>45911.40074074074</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -27421,7 +27421,7 @@
         <v>45089.54944444444</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -27478,7 +27478,7 @@
         <v>45911.57349537037</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -27540,7 +27540,7 @@
         <v>45511.92825231481</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -27597,7 +27597,7 @@
         <v>45685.69267361111</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -27654,7 +27654,7 @@
         <v>45847.40722222222</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -27716,7 +27716,7 @@
         <v>45846.44827546296</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -27773,7 +27773,7 @@
         <v>45847.61561342593</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -27835,7 +27835,7 @@
         <v>45734.48991898148</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -27897,7 +27897,7 @@
         <v>45847.61533564814</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -27959,7 +27959,7 @@
         <v>45618.6917824074</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -28016,7 +28016,7 @@
         <v>45916.59773148148</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -28073,7 +28073,7 @@
         <v>45245</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -28135,7 +28135,7 @@
         <v>44434</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -28192,7 +28192,7 @@
         <v>45916.57010416667</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -28249,7 +28249,7 @@
         <v>45231</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -28311,7 +28311,7 @@
         <v>45617.65800925926</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -28368,7 +28368,7 @@
         <v>44410.35376157407</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -28425,7 +28425,7 @@
         <v>44466</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -28482,7 +28482,7 @@
         <v>44701.94034722223</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -28539,7 +28539,7 @@
         <v>45722.44892361111</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -28601,7 +28601,7 @@
         <v>45922.4075</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -28663,7 +28663,7 @@
         <v>45922.4077662037</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -28725,7 +28725,7 @@
         <v>45920.8446412037</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -28782,7 +28782,7 @@
         <v>45800.48368055555</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -28839,7 +28839,7 @@
         <v>45922.40680555555</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -28901,7 +28901,7 @@
         <v>45707</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -28958,7 +28958,7 @@
         <v>45707.40493055555</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -29020,7 +29020,7 @@
         <v>45922.40697916667</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -29082,7 +29082,7 @@
         <v>45922.4074537037</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -29144,7 +29144,7 @@
         <v>45691.40832175926</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -29201,7 +29201,7 @@
         <v>45691.40836805556</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -29258,7 +29258,7 @@
         <v>45922</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -29320,7 +29320,7 @@
         <v>45922.53217592592</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -29377,7 +29377,7 @@
         <v>45924.59484953704</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -29439,7 +29439,7 @@
         <v>45924.61512731481</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -29501,7 +29501,7 @@
         <v>45203</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -29558,7 +29558,7 @@
         <v>44914.35599537037</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -29615,7 +29615,7 @@
         <v>45807.74140046296</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -29672,7 +29672,7 @@
         <v>45867.46946759259</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -29734,7 +29734,7 @@
         <v>45849.55601851852</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -29791,7 +29791,7 @@
         <v>45866.50549768518</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -29853,7 +29853,7 @@
         <v>45924.70346064815</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -29910,7 +29910,7 @@
         <v>45869</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -29972,7 +29972,7 @@
         <v>44911.6459837963</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -30029,7 +30029,7 @@
         <v>45681.36493055556</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -30091,7 +30091,7 @@
         <v>45681.40689814815</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -30153,7 +30153,7 @@
         <v>45681.4275462963</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -30215,7 +30215,7 @@
         <v>45000</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -30272,7 +30272,7 @@
         <v>45190</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -30329,7 +30329,7 @@
         <v>45931.38956018518</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -30386,7 +30386,7 @@
         <v>45688.69356481481</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -30443,7 +30443,7 @@
         <v>45588.61512731481</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -30500,7 +30500,7 @@
         <v>45576.46905092592</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -30557,7 +30557,7 @@
         <v>45580.42736111111</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -30614,7 +30614,7 @@
         <v>45931.40100694444</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -30671,7 +30671,7 @@
         <v>45931.40671296296</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -30728,7 +30728,7 @@
         <v>45583.46936342592</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -30785,7 +30785,7 @@
         <v>45806.40677083333</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -30842,7 +30842,7 @@
         <v>45931.67381944445</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -30899,7 +30899,7 @@
         <v>44580</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -30961,7 +30961,7 @@
         <v>45875.44840277778</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -31018,7 +31018,7 @@
         <v>45342</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -31080,7 +31080,7 @@
         <v>45719.38630787037</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -31142,7 +31142,7 @@
         <v>45338</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -31199,7 +31199,7 @@
         <v>45978.45540509259</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -31256,7 +31256,7 @@
         <v>45979.6756712963</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -31318,7 +31318,7 @@
         <v>45937.47302083333</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -31380,7 +31380,7 @@
         <v>44949</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -31437,7 +31437,7 @@
         <v>45679.55256944444</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -31499,7 +31499,7 @@
         <v>45632.68814814815</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -31556,7 +31556,7 @@
         <v>44790</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -31613,7 +31613,7 @@
         <v>45684.56725694444</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -31670,7 +31670,7 @@
         <v>44511.94629629629</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -31727,7 +31727,7 @@
         <v>45937.63275462963</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -31784,7 +31784,7 @@
         <v>45939.49018518518</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -31841,7 +31841,7 @@
         <v>45939</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -31903,7 +31903,7 @@
         <v>45300</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -31960,7 +31960,7 @@
         <v>45943.59442129629</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -32022,7 +32022,7 @@
         <v>45729.3425</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -32079,7 +32079,7 @@
         <v>45945.47097222223</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -32136,7 +32136,7 @@
         <v>45344</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -32193,7 +32193,7 @@
         <v>45944.67787037037</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -32255,7 +32255,7 @@
         <v>45987.67032407408</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -32312,7 +32312,7 @@
         <v>45265.95795138889</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -32374,7 +32374,7 @@
         <v>45586.40660879629</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -32436,7 +32436,7 @@
         <v>44927.88021990741</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -32493,7 +32493,7 @@
         <v>45707</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -32550,7 +32550,7 @@
         <v>45280</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -32607,7 +32607,7 @@
         <v>45280</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -32664,7 +32664,7 @@
         <v>45096</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -32721,7 +32721,7 @@
         <v>45751.36519675926</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -32778,7 +32778,7 @@
         <v>45953.47575231481</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -32835,7 +32835,7 @@
         <v>45953.58497685185</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -32892,7 +32892,7 @@
         <v>45412.46636574074</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -32949,7 +32949,7 @@
         <v>45953.56976851852</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -33006,7 +33006,7 @@
         <v>45952.5909375</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -33063,7 +33063,7 @@
         <v>45646.48988425926</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -33125,7 +33125,7 @@
         <v>45646.49012731481</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -33187,7 +33187,7 @@
         <v>45646.49017361111</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -33249,7 +33249,7 @@
         <v>45957.62978009259</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -33306,7 +33306,7 @@
         <v>45708.50256944444</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -33363,7 +33363,7 @@
         <v>45954.68207175926</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -33420,7 +33420,7 @@
         <v>45553.60474537037</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -33477,7 +33477,7 @@
         <v>45957.67876157408</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -33539,7 +33539,7 @@
         <v>45264</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -33596,7 +33596,7 @@
         <v>45958.36498842593</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -33658,7 +33658,7 @@
         <v>45958.36537037037</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -33720,7 +33720,7 @@
         <v>45754.56839120371</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -33777,7 +33777,7 @@
         <v>44889.59378472222</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -33839,7 +33839,7 @@
         <v>45696.34405092592</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -33896,7 +33896,7 @@
         <v>45012</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -33953,7 +33953,7 @@
         <v>45964.46944444445</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -34015,7 +34015,7 @@
         <v>45112</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -34072,7 +34072,7 @@
         <v>45667.40662037037</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -34134,7 +34134,7 @@
         <v>45965.63496527778</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -34191,7 +34191,7 @@
         <v>44840</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -34248,7 +34248,7 @@
         <v>45730.36263888889</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -34305,7 +34305,7 @@
         <v>45967.49037037037</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -34362,7 +34362,7 @@
         <v>45475.94585648148</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -34424,7 +34424,7 @@
         <v>45223</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -34481,7 +34481,7 @@
         <v>45719.59836805556</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -34538,7 +34538,7 @@
         <v>45593.51123842593</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -34600,7 +34600,7 @@
         <v>45593.57327546296</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -34662,7 +34662,7 @@
         <v>45966.4077662037</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -34719,7 +34719,7 @@
         <v>45967.42462962963</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -34776,7 +34776,7 @@
         <v>45118</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -34833,7 +34833,7 @@
         <v>45642.54847222222</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -34890,7 +34890,7 @@
         <v>45968.53167824074</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -34952,7 +34952,7 @@
         <v>45597.36623842592</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -35014,7 +35014,7 @@
         <v>45688.67965277778</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -35076,7 +35076,7 @@
         <v>45418.4843287037</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -35133,7 +35133,7 @@
         <v>45634.70898148148</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -35190,7 +35190,7 @@
         <v>45974.38310185185</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -35247,7 +35247,7 @@
         <v>45607.50137731482</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -35304,7 +35304,7 @@
         <v>45002</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -35366,7 +35366,7 @@
         <v>45978.57414351852</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -35423,7 +35423,7 @@
         <v>45976.58684027778</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -35480,7 +35480,7 @@
         <v>44977</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -35542,7 +35542,7 @@
         <v>45743.37109953703</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -35599,7 +35599,7 @@
         <v>45980.61142361111</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -35656,7 +35656,7 @@
         <v>45686.6859375</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -35713,7 +35713,7 @@
         <v>45982.61043981482</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -35770,7 +35770,7 @@
         <v>45982.5862037037</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -35827,7 +35827,7 @@
         <v>44952</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -35884,7 +35884,7 @@
         <v>45985.61524305555</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -35941,7 +35941,7 @@
         <v>45177.93612268518</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -36003,7 +36003,7 @@
         <v>45985.51131944444</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -36060,7 +36060,7 @@
         <v>45985.51128472222</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -36117,7 +36117,7 @@
         <v>45985.53162037037</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -36174,7 +36174,7 @@
         <v>45987.52949074074</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -36231,7 +36231,7 @@
         <v>45987.33479166667</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -36288,7 +36288,7 @@
         <v>45987.34543981482</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -36345,7 +36345,7 @@
         <v>45986.39024305555</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -36402,7 +36402,7 @@
         <v>44907</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -36464,7 +36464,7 @@
         <v>45988.58856481482</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -36521,7 +36521,7 @@
         <v>44750</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -36578,7 +36578,7 @@
         <v>45987.83457175926</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -36635,7 +36635,7 @@
         <v>45987.69552083333</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -36692,7 +36692,7 @@
         <v>45740.46325231482</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -36749,7 +36749,7 @@
         <v>45574.38943287037</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -36811,7 +36811,7 @@
         <v>45992.38109953704</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -36868,7 +36868,7 @@
         <v>45992.3706712963</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -36925,7 +36925,7 @@
         <v>45992.47729166667</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -36982,7 +36982,7 @@
         <v>45992.37172453704</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -37039,7 +37039,7 @@
         <v>46034.38729166667</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -37096,7 +37096,7 @@
         <v>45705.57454861111</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -37158,7 +37158,7 @@
         <v>46037.6787962963</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -37215,7 +37215,7 @@
         <v>46037.68489583334</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -37272,7 +37272,7 @@
         <v>45995</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -37329,7 +37329,7 @@
         <v>46037.6703125</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -37386,7 +37386,7 @@
         <v>45012</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -37443,7 +37443,7 @@
         <v>46032</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -37500,7 +37500,7 @@
         <v>45302.52006944444</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -37557,7 +37557,7 @@
         <v>45748.4396412037</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -37614,7 +37614,7 @@
         <v>46038.62193287037</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -37671,7 +37671,7 @@
         <v>46038.6322337963</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -37728,7 +37728,7 @@
         <v>46041.47474537037</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -37785,7 +37785,7 @@
         <v>45993</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -37842,7 +37842,7 @@
         <v>46038.62047453703</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -37899,7 +37899,7 @@
         <v>46038.6360300926</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -37956,7 +37956,7 @@
         <v>45678</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -38013,7 +38013,7 @@
         <v>44911.5662037037</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -38070,7 +38070,7 @@
         <v>45611.46912037037</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -38132,7 +38132,7 @@
         <v>46000.62851851852</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -38189,7 +38189,7 @@
         <v>46000.63969907408</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -38246,7 +38246,7 @@
         <v>46000.67793981481</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -38303,7 +38303,7 @@
         <v>44721</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -38360,7 +38360,7 @@
         <v>45616.67833333334</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -38422,7 +38422,7 @@
         <v>44922</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -38479,7 +38479,7 @@
         <v>44680.92873842592</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -38536,7 +38536,7 @@
         <v>46000</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -38593,7 +38593,7 @@
         <v>46001</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -38650,7 +38650,7 @@
         <v>46045.59430555555</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -38712,7 +38712,7 @@
         <v>46003</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -38769,7 +38769,7 @@
         <v>46045.41643518519</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -38826,7 +38826,7 @@
         <v>45630.49710648148</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -38883,7 +38883,7 @@
         <v>46003.62509259259</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -38940,7 +38940,7 @@
         <v>44368</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -38997,7 +38997,7 @@
         <v>46045.61509259259</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -39054,7 +39054,7 @@
         <v>45239.33032407407</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -39116,7 +39116,7 @@
         <v>46003.56467592593</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -39173,7 +39173,7 @@
         <v>46003</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -39230,7 +39230,7 @@
         <v>46002</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -39287,7 +39287,7 @@
         <v>46003.6159375</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -39344,7 +39344,7 @@
         <v>46003.38026620371</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -39401,7 +39401,7 @@
         <v>46044.85285879629</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -39458,7 +39458,7 @@
         <v>46006.51157407407</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -39515,7 +39515,7 @@
         <v>46006.51155092593</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -39572,7 +39572,7 @@
         <v>44298</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -39629,7 +39629,7 @@
         <v>46007.46907407408</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -39686,7 +39686,7 @@
         <v>46048.89435185185</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -39743,7 +39743,7 @@
         <v>46007.49001157407</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -39800,7 +39800,7 @@
         <v>46007.5958912037</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -39857,7 +39857,7 @@
         <v>45628.53381944444</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -39914,7 +39914,7 @@
         <v>46007.33719907407</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -39976,7 +39976,7 @@
         <v>45428.92486111111</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -40038,7 +40038,7 @@
         <v>46008.34438657408</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -40095,7 +40095,7 @@
         <v>46008.34443287037</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -40152,7 +40152,7 @@
         <v>45701.60046296296</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -40209,7 +40209,7 @@
         <v>45092</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -40266,7 +40266,7 @@
         <v>46050.44859953703</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -40323,7 +40323,7 @@
         <v>45709.36497685185</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -40385,7 +40385,7 @@
         <v>45757.64563657407</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -40442,7 +40442,7 @@
         <v>46010.45680555556</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -40499,7 +40499,7 @@
         <v>46010.53825231481</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -40556,7 +40556,7 @@
         <v>46013.50993055556</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -40613,7 +40613,7 @@
         <v>45559.59476851852</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -40675,7 +40675,7 @@
         <v>46013.4459375</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -40732,7 +40732,7 @@
         <v>45730.45930555555</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -40794,7 +40794,7 @@
         <v>45770.56363425926</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -40851,7 +40851,7 @@
         <v>46014.5496875</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -40908,7 +40908,7 @@
         <v>46057.40715277778</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -40970,7 +40970,7 @@
         <v>46057.6153125</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -41027,7 +41027,7 @@
         <v>46051</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -41084,7 +41084,7 @@
         <v>44336</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -41141,7 +41141,7 @@
         <v>45547.90777777778</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -41198,7 +41198,7 @@
         <v>46057.55269675926</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -41255,7 +41255,7 @@
         <v>46056.8547337963</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -41312,7 +41312,7 @@
         <v>46059.44539351852</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -41369,7 +41369,7 @@
         <v>46059.44135416667</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -41426,7 +41426,7 @@
         <v>45621.41050925926</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -41483,7 +41483,7 @@
         <v>44425</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -41540,7 +41540,7 @@
         <v>45684</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -41597,7 +41597,7 @@
         <v>46019</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -41654,7 +41654,7 @@
         <v>46021.34450231482</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -41711,7 +41711,7 @@
         <v>46062.48398148148</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -41768,7 +41768,7 @@
         <v>46021.46912037037</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -41825,7 +41825,7 @@
         <v>46045.56253472222</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -41882,7 +41882,7 @@
         <v>45344</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -41939,7 +41939,7 @@
         <v>46020.47796296296</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -41996,7 +41996,7 @@
         <v>46021.34454861111</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -42053,7 +42053,7 @@
         <v>46045</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -42110,7 +42110,7 @@
         <v>44922</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -42167,7 +42167,7 @@
         <v>46063.65710648148</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -42224,7 +42224,7 @@
         <v>46020.49056712963</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -42281,7 +42281,7 @@
         <v>45588.61498842593</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -42343,7 +42343,7 @@
         <v>45600.53160879629</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -42405,7 +42405,7 @@
         <v>45260</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -42462,7 +42462,7 @@
         <v>45260</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -42519,7 +42519,7 @@
         <v>45376</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -42576,7 +42576,7 @@
         <v>44880</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -42633,7 +42633,7 @@
         <v>45223</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -42695,7 +42695,7 @@
         <v>44434</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -42752,7 +42752,7 @@
         <v>45707</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -42814,7 +42814,7 @@
         <v>46064.39027777778</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -42871,7 +42871,7 @@
         <v>46064.45548611111</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -42928,7 +42928,7 @@
         <v>46065.61449074074</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -42990,7 +42990,7 @@
         <v>44637</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -43047,7 +43047,7 @@
         <v>46066</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -43104,7 +43104,7 @@
         <v>45462.96347222223</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -43166,7 +43166,7 @@
         <v>46066.6364699074</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -43228,7 +43228,7 @@
         <v>46066</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -43285,7 +43285,7 @@
         <v>46065</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -43342,7 +43342,7 @@
         <v>46065</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -43399,7 +43399,7 @@
         <v>46066.35408564815</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -43456,7 +43456,7 @@
         <v>44609</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -43513,7 +43513,7 @@
         <v>44635</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -43570,7 +43570,7 @@
         <v>46024</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -43627,7 +43627,7 @@
         <v>46027.57334490741</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -43684,7 +43684,7 @@
         <v>46066</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -43741,7 +43741,7 @@
         <v>46027.59451388889</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -43803,7 +43803,7 @@
         <v>46066.6365625</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -43865,7 +43865,7 @@
         <v>46065</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -43922,7 +43922,7 @@
         <v>46070.38542824074</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -43984,7 +43984,7 @@
         <v>45743.57336805556</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -44041,7 +44041,7 @@
         <v>45677.47302083333</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -44098,7 +44098,7 @@
         <v>45922</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -44160,7 +44160,7 @@
         <v>46029</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -44217,7 +44217,7 @@
         <v>45149</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -44274,7 +44274,7 @@
         <v>46029.41560185186</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -44331,7 +44331,7 @@
         <v>45435.55372685185</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -44388,7 +44388,7 @@
         <v>46073.61809027778</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -44445,7 +44445,7 @@
         <v>45057</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -44502,7 +44502,7 @@
         <v>45475.3378125</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -44559,7 +44559,7 @@
         <v>46031.6141087963</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -44616,7 +44616,7 @@
         <v>45607.49265046296</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -44673,7 +44673,7 @@
         <v>46073.60355324074</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -44730,7 +44730,7 @@
         <v>46073.48990740741</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -44787,7 +44787,7 @@
         <v>46073.47060185186</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -44844,7 +44844,7 @@
         <v>45221.92429398148</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -44901,7 +44901,7 @@
         <v>46073.62262731481</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -44958,7 +44958,7 @@
         <v>46072.6378587963</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -45015,7 +45015,7 @@
         <v>45315</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -45072,7 +45072,7 @@
         <v>45477.28482638889</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -45129,7 +45129,7 @@
         <v>45645.44158564815</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -45186,7 +45186,7 @@
         <v>45166.9569675926</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -45248,7 +45248,7 @@
         <v>45236.62300925926</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -45310,7 +45310,7 @@
         <v>45677.44393518518</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -45367,7 +45367,7 @@
         <v>44922</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -45424,7 +45424,7 @@
         <v>45708.44947916667</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -45486,7 +45486,7 @@
         <v>45057.9441087963</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -45548,7 +45548,7 @@
         <v>44986.94196759259</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -45610,7 +45610,7 @@
         <v>45751.34664351852</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -45672,7 +45672,7 @@
         <v>44735</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -45729,7 +45729,7 @@
         <v>45183</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -45786,7 +45786,7 @@
         <v>44323</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -45843,7 +45843,7 @@
         <v>44757.92671296297</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -45900,7 +45900,7 @@
         <v>45237.50966435186</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -45957,7 +45957,7 @@
         <v>44883.44737268519</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -46014,7 +46014,7 @@
         <v>45370</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -46071,7 +46071,7 @@
         <v>45159.42180555555</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -46128,7 +46128,7 @@
         <v>45621.86827546296</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -46185,7 +46185,7 @@
         <v>45572.59430555555</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -46247,7 +46247,7 @@
         <v>45762.63375</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -46309,7 +46309,7 @@
         <v>45643.42986111111</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -46371,7 +46371,7 @@
         <v>44679.92574074074</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -46428,7 +46428,7 @@
         <v>45646.35685185185</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -46485,7 +46485,7 @@
         <v>44375</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -46542,7 +46542,7 @@
         <v>45223</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -46599,7 +46599,7 @@
         <v>44378</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -46656,7 +46656,7 @@
         <v>45223.5036574074</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -46713,7 +46713,7 @@
         <v>45236.92776620371</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -46770,7 +46770,7 @@
         <v>45477.26746527778</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -46827,7 +46827,7 @@
         <v>45008</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -46884,7 +46884,7 @@
         <v>45660.32672453704</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -46941,7 +46941,7 @@
         <v>45737.40131944444</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -46998,7 +46998,7 @@
         <v>45763</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -47055,7 +47055,7 @@
         <v>45763</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -47112,7 +47112,7 @@
         <v>45639.40684027778</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -47174,7 +47174,7 @@
         <v>45736.71956018519</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -47236,7 +47236,7 @@
         <v>44721.47241898148</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -47298,7 +47298,7 @@
         <v>45096</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -47355,7 +47355,7 @@
         <v>44614.91989583334</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -47412,7 +47412,7 @@
         <v>44986</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -47474,7 +47474,7 @@
         <v>45607.55260416667</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -47536,7 +47536,7 @@
         <v>45231</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -47598,7 +47598,7 @@
         <v>45707.42392361111</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -47655,7 +47655,7 @@
         <v>45324.93804398148</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -47717,7 +47717,7 @@
         <v>45314.58785879629</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -47774,7 +47774,7 @@
         <v>44533</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -47831,7 +47831,7 @@
         <v>44952</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -47888,7 +47888,7 @@
         <v>44937</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -47945,7 +47945,7 @@
         <v>45630</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -48002,7 +48002,7 @@
         <v>45429.92313657407</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -48059,7 +48059,7 @@
         <v>45715.59545138889</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -48116,7 +48116,7 @@
         <v>44643</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -48173,7 +48173,7 @@
         <v>45702.51765046296</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -48230,7 +48230,7 @@
         <v>45690.63628472222</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -48287,7 +48287,7 @@
         <v>45313</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -48344,7 +48344,7 @@
         <v>44375</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -48401,7 +48401,7 @@
         <v>45741.68631944444</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -48458,7 +48458,7 @@
         <v>45460.81277777778</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -48515,7 +48515,7 @@
         <v>45615.31297453704</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -48572,7 +48572,7 @@
         <v>45028</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -48629,7 +48629,7 @@
         <v>45306</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -48686,7 +48686,7 @@
         <v>44889</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -48743,7 +48743,7 @@
         <v>45743.44207175926</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -48800,7 +48800,7 @@
         <v>45693</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -48857,7 +48857,7 @@
         <v>45328</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -48914,7 +48914,7 @@
         <v>44564.93909722222</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -48971,7 +48971,7 @@
         <v>45636.5674537037</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -49028,7 +49028,7 @@
         <v>45198</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -49090,7 +49090,7 @@
         <v>45198</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -49152,7 +49152,7 @@
         <v>45692.55256944444</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -49209,7 +49209,7 @@
         <v>45777.58025462963</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -49266,7 +49266,7 @@
         <v>45777.62665509259</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -49323,7 +49323,7 @@
         <v>45779</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -49380,7 +49380,7 @@
         <v>45754</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -49442,7 +49442,7 @@
         <v>45743.39528935185</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -49499,7 +49499,7 @@
         <v>45754</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -49561,7 +49561,7 @@
         <v>45686.64175925926</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -49618,7 +49618,7 @@
         <v>45789.42538194444</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -49675,7 +49675,7 @@
         <v>45760.66995370371</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -49732,7 +49732,7 @@
         <v>45686.92384259259</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -49789,7 +49789,7 @@
         <v>45686.92864583333</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -49846,7 +49846,7 @@
         <v>45789.56414351852</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -49903,7 +49903,7 @@
         <v>45789</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -49960,7 +49960,7 @@
         <v>45786</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -50017,7 +50017,7 @@
         <v>45791</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -50074,7 +50074,7 @@
         <v>45707</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -50131,7 +50131,7 @@
         <v>45791.35212962963</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -50188,7 +50188,7 @@
         <v>45791.36526620371</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -50245,7 +50245,7 @@
         <v>45790.43905092592</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -50302,7 +50302,7 @@
         <v>45791.27984953704</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -50359,7 +50359,7 @@
         <v>45793.68469907407</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -50416,7 +50416,7 @@
         <v>45797.65025462963</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -50473,7 +50473,7 @@
         <v>45561.34908564815</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -50535,7 +50535,7 @@
         <v>45798.46913194445</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -50597,7 +50597,7 @@
         <v>45798.42108796296</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -50654,7 +50654,7 @@
         <v>45799.68418981481</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -50711,7 +50711,7 @@
         <v>45611.66655092593</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -50768,7 +50768,7 @@
         <v>45799.7372337963</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -50825,7 +50825,7 @@
         <v>45799.56515046296</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -50882,7 +50882,7 @@
         <v>45799.69116898148</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -50939,7 +50939,7 @@
         <v>45803</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -51001,7 +51001,7 @@
         <v>45800.50355324074</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -51058,7 +51058,7 @@
         <v>45800.46960648148</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -51115,7 +51115,7 @@
         <v>45805.42827546296</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -51177,7 +51177,7 @@
         <v>45587.42835648148</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -51234,7 +51234,7 @@
         <v>45807</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -51291,7 +51291,7 @@
         <v>45807</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -51348,7 +51348,7 @@
         <v>45691</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -51410,7 +51410,7 @@
         <v>45320.92060185185</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -51467,7 +51467,7 @@
         <v>45811.59258101852</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -51524,7 +51524,7 @@
         <v>45807.75076388889</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -51581,7 +51581,7 @@
         <v>45364.3874074074</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -51638,7 +51638,7 @@
         <v>45736.71818287037</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -51695,7 +51695,7 @@
         <v>45551.67761574074</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -51757,7 +51757,7 @@
         <v>45811.5928587963</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -51814,7 +51814,7 @@
         <v>45720.38576388889</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -51876,7 +51876,7 @@
         <v>45813.43966435185</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -51933,7 +51933,7 @@
         <v>45707.42825231481</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>

--- a/Översikt ÖSTERSUND.xlsx
+++ b/Översikt ÖSTERSUND.xlsx
@@ -575,7 +575,7 @@
         <v>45109</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -757,7 +757,7 @@
         <v>45155</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -894,7 +894,7 @@
         <v>44585</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -1021,7 +1021,7 @@
         <v>45690</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1138,7 +1138,7 @@
         <v>45932</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1253,7 +1253,7 @@
         <v>45985.42282407408</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1367,7 +1367,7 @@
         <v>45924</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1480,7 +1480,7 @@
         <v>44344</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1592,7 +1592,7 @@
         <v>44642</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1704,7 +1704,7 @@
         <v>45600</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1820,7 +1820,7 @@
         <v>45988.52288194445</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1936,7 +1936,7 @@
         <v>45747</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -2044,7 +2044,7 @@
         <v>45112</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -2143,7 +2143,7 @@
         <v>45932</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2250,7 +2250,7 @@
         <v>44945</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2356,7 +2356,7 @@
         <v>44819</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2463,7 +2463,7 @@
         <v>45916.80152777778</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2569,7 +2569,7 @@
         <v>45978.57238425926</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2670,7 +2670,7 @@
         <v>45975.49049768518</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2771,7 +2771,7 @@
         <v>45929</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2872,7 +2872,7 @@
         <v>45965</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2977,7 +2977,7 @@
         <v>45890</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -3081,7 +3081,7 @@
         <v>45940.65138888889</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -3185,7 +3185,7 @@
         <v>45932.65210648148</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3288,7 +3288,7 @@
         <v>45937.55055555556</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3391,7 +3391,7 @@
         <v>46051.68951388889</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3494,7 +3494,7 @@
         <v>45621</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3593,7 +3593,7 @@
         <v>45649</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3691,7 +3691,7 @@
         <v>45937.64063657408</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3793,7 +3793,7 @@
         <v>45470</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3895,7 +3895,7 @@
         <v>44971</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3994,7 +3994,7 @@
         <v>45754.67761574074</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -4093,7 +4093,7 @@
         <v>45575.77440972222</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -4190,7 +4190,7 @@
         <v>45475.94597222222</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -4288,7 +4288,7 @@
         <v>45952.46650462963</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4389,7 +4389,7 @@
         <v>45526</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4487,7 +4487,7 @@
         <v>45415</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4587,7 +4587,7 @@
         <v>45349</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4688,7 +4688,7 @@
         <v>45063</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4784,7 +4784,7 @@
         <v>45170</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4885,7 +4885,7 @@
         <v>46043.67922453704</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4981,7 +4981,7 @@
         <v>45369</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -5073,7 +5073,7 @@
         <v>46027.7344212963</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -5169,7 +5169,7 @@
         <v>45975</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -5265,7 +5265,7 @@
         <v>46010.45428240741</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -5365,7 +5365,7 @@
         <v>44414</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -5460,7 +5460,7 @@
         <v>45831</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5555,7 +5555,7 @@
         <v>45981.50630787037</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5650,7 +5650,7 @@
         <v>45890</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5745,7 +5745,7 @@
         <v>45936.66547453704</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5844,7 +5844,7 @@
         <v>45945.47331018518</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5943,7 +5943,7 @@
         <v>45806</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -6042,7 +6042,7 @@
         <v>45953</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -6141,7 +6141,7 @@
         <v>46049.67512731482</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -6240,7 +6240,7 @@
         <v>45958</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -6339,7 +6339,7 @@
         <v>45233</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -6435,7 +6435,7 @@
         <v>45028</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -6531,7 +6531,7 @@
         <v>44356</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6629,7 +6629,7 @@
         <v>44337</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6723,7 +6723,7 @@
         <v>44851</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6817,7 +6817,7 @@
         <v>44929</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6911,7 +6911,7 @@
         <v>44911.6459837963</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -7005,7 +7005,7 @@
         <v>44911</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -7099,7 +7099,7 @@
         <v>45555</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -7197,7 +7197,7 @@
         <v>45645</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -7295,7 +7295,7 @@
         <v>45762.51075231482</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -7390,7 +7390,7 @@
         <v>45897</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -7485,7 +7485,7 @@
         <v>44270.58950231481</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -7579,7 +7579,7 @@
         <v>46008.48708333333</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -7673,7 +7673,7 @@
         <v>46010.46366898148</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7771,7 +7771,7 @@
         <v>45684</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7865,7 +7865,7 @@
         <v>46030.61326388889</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7959,7 +7959,7 @@
         <v>46000.61640046296</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -8057,7 +8057,7 @@
         <v>44742</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -8151,7 +8151,7 @@
         <v>45254</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -8244,7 +8244,7 @@
         <v>45821.59243055555</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -8337,7 +8337,7 @@
         <v>45553</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -8426,7 +8426,7 @@
         <v>45189</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -8515,7 +8515,7 @@
         <v>45978.61351851852</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -8608,7 +8608,7 @@
         <v>45618.43853009259</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -8706,7 +8706,7 @@
         <v>45161</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -8799,7 +8799,7 @@
         <v>45985.53155092592</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8892,7 +8892,7 @@
         <v>45975.43427083334</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8985,7 +8985,7 @@
         <v>46006.34435185185</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -9083,7 +9083,7 @@
         <v>45349</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -9181,7 +9181,7 @@
         <v>45369</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -9274,7 +9274,7 @@
         <v>45644</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -9366,7 +9366,7 @@
         <v>45462.95982638889</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -9454,7 +9454,7 @@
         <v>45237</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -9551,7 +9551,7 @@
         <v>45349</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -9644,7 +9644,7 @@
         <v>45901.49171296296</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -9737,7 +9737,7 @@
         <v>45831</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -9829,7 +9829,7 @@
         <v>45938.40790509259</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -9922,7 +9922,7 @@
         <v>45968.6444212963</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -10014,7 +10014,7 @@
         <v>44945</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -10111,7 +10111,7 @@
         <v>45981.47217592593</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -10204,7 +10204,7 @@
         <v>45161</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -10296,7 +10296,7 @@
         <v>46049.64416666667</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -10384,7 +10384,7 @@
         <v>44750</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -10472,7 +10472,7 @@
         <v>44904</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -10560,7 +10560,7 @@
         <v>44473.43114583333</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -10656,7 +10656,7 @@
         <v>44904</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -10747,7 +10747,7 @@
         <v>45538.33584490741</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -10834,7 +10834,7 @@
         <v>45615.29761574074</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -10921,7 +10921,7 @@
         <v>45873.69988425926</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -11008,7 +11008,7 @@
         <v>44956</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -11095,7 +11095,7 @@
         <v>45049</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -11182,7 +11182,7 @@
         <v>45198</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -11274,7 +11274,7 @@
         <v>45187</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -11370,7 +11370,7 @@
         <v>45321</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -11457,7 +11457,7 @@
         <v>45975.63585648148</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -11548,7 +11548,7 @@
         <v>44904</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -11639,7 +11639,7 @@
         <v>45602</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -11739,7 +11739,7 @@
         <v>45558</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -11831,7 +11831,7 @@
         <v>45707.45219907408</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -11918,7 +11918,7 @@
         <v>45223</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -12009,7 +12009,7 @@
         <v>45278</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -12095,7 +12095,7 @@
         <v>44908</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -12181,7 +12181,7 @@
         <v>45810</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -12267,7 +12267,7 @@
         <v>45553.59296296296</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -12357,7 +12357,7 @@
         <v>45894.67988425926</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -12443,7 +12443,7 @@
         <v>45748.47314814815</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -12529,7 +12529,7 @@
         <v>45919.59467592592</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -12620,7 +12620,7 @@
         <v>44853</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -12710,7 +12710,7 @@
         <v>45643.59420138889</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -12801,7 +12801,7 @@
         <v>45441.95357638889</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -12896,7 +12896,7 @@
         <v>45966.94104166667</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -12982,7 +12982,7 @@
         <v>45533.49601851852</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -13068,7 +13068,7 @@
         <v>45600.42737268518</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -13159,7 +13159,7 @@
         <v>45987.55831018519</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -13245,7 +13245,7 @@
         <v>45233</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -13331,7 +13331,7 @@
         <v>45975</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -13417,7 +13417,7 @@
         <v>46078.59487268519</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -13503,7 +13503,7 @@
         <v>44956</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -13589,7 +13589,7 @@
         <v>45721</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -13680,7 +13680,7 @@
         <v>44441</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -13770,7 +13770,7 @@
         <v>44904</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -13856,7 +13856,7 @@
         <v>45737</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -13946,7 +13946,7 @@
         <v>44376</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -14036,7 +14036,7 @@
         <v>44623</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -14121,7 +14121,7 @@
         <v>44694</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -14211,7 +14211,7 @@
         <v>44742</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -14301,7 +14301,7 @@
         <v>45559</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -14391,7 +14391,7 @@
         <v>44900</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -14476,7 +14476,7 @@
         <v>45629.35344907407</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -14570,7 +14570,7 @@
         <v>45558</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -14660,7 +14660,7 @@
         <v>45809.86790509259</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -14745,7 +14745,7 @@
         <v>45570</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -14830,7 +14830,7 @@
         <v>45096</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -14915,7 +14915,7 @@
         <v>45559.63584490741</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -15005,7 +15005,7 @@
         <v>45841.57331018519</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -15095,7 +15095,7 @@
         <v>45624.59462962963</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -15185,7 +15185,7 @@
         <v>45910.41201388889</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -15274,7 +15274,7 @@
         <v>45637.34469907408</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -15368,7 +15368,7 @@
         <v>45867.51128472222</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -15458,7 +15458,7 @@
         <v>45931.40935185185</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -15543,7 +15543,7 @@
         <v>44617</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -15633,7 +15633,7 @@
         <v>45797.60623842593</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -15718,7 +15718,7 @@
         <v>45509.9572800926</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -15808,7 +15808,7 @@
         <v>44441</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -15897,7 +15897,7 @@
         <v>45280.56451388889</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -15982,7 +15982,7 @@
         <v>45558</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -16072,7 +16072,7 @@
         <v>45959.32394675926</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -16162,7 +16162,7 @@
         <v>44491</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -16252,7 +16252,7 @@
         <v>44476</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -16337,7 +16337,7 @@
         <v>45617.40244212963</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -16426,7 +16426,7 @@
         <v>45572.59462962963</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -16516,7 +16516,7 @@
         <v>45985.43086805556</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -16610,7 +16610,7 @@
         <v>46042.58655092592</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -16695,7 +16695,7 @@
         <v>45999.67758101852</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -16785,7 +16785,7 @@
         <v>46044.84650462963</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -16870,7 +16870,7 @@
         <v>45897</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -16960,7 +16960,7 @@
         <v>46008.67969907408</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -17045,7 +17045,7 @@
         <v>46051.57149305556</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -17130,7 +17130,7 @@
         <v>46045</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -17219,7 +17219,7 @@
         <v>45372</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -17304,7 +17304,7 @@
         <v>45561.34641203703</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -17394,7 +17394,7 @@
         <v>44785</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -17483,7 +17483,7 @@
         <v>44928</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -17572,7 +17572,7 @@
         <v>44298</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -17657,7 +17657,7 @@
         <v>45558</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -17747,7 +17747,7 @@
         <v>44316</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -17804,7 +17804,7 @@
         <v>44432</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -17866,7 +17866,7 @@
         <v>44328</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -17923,7 +17923,7 @@
         <v>44879.49488425926</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -17980,7 +17980,7 @@
         <v>44510.44064814815</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -18037,7 +18037,7 @@
         <v>44418.45925925926</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -18094,7 +18094,7 @@
         <v>44524.94607638889</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -18156,7 +18156,7 @@
         <v>44375</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -18213,7 +18213,7 @@
         <v>44362</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -18270,7 +18270,7 @@
         <v>44838</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -18332,7 +18332,7 @@
         <v>44540</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -18389,7 +18389,7 @@
         <v>44790</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -18446,7 +18446,7 @@
         <v>44613</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -18503,7 +18503,7 @@
         <v>44581</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -18560,7 +18560,7 @@
         <v>44259</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -18617,7 +18617,7 @@
         <v>44312.41724537037</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -18674,7 +18674,7 @@
         <v>44852</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -18731,7 +18731,7 @@
         <v>44561</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -18788,7 +18788,7 @@
         <v>44278.42459490741</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -18845,7 +18845,7 @@
         <v>44383.85295138889</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -18902,7 +18902,7 @@
         <v>44347</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -18959,7 +18959,7 @@
         <v>44441.80453703704</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -19016,7 +19016,7 @@
         <v>44340</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -19073,7 +19073,7 @@
         <v>44453</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -19130,7 +19130,7 @@
         <v>44349</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -19187,7 +19187,7 @@
         <v>44298</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -19244,7 +19244,7 @@
         <v>44347</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -19301,7 +19301,7 @@
         <v>44566</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -19358,7 +19358,7 @@
         <v>44755</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -19420,7 +19420,7 @@
         <v>44434</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -19477,7 +19477,7 @@
         <v>44852.95248842592</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -19534,7 +19534,7 @@
         <v>44299</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -19591,7 +19591,7 @@
         <v>44540</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -19648,7 +19648,7 @@
         <v>44335</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -19705,7 +19705,7 @@
         <v>44537.935</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -19762,7 +19762,7 @@
         <v>44889.89929398148</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -19819,7 +19819,7 @@
         <v>44609.93075231482</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -19876,7 +19876,7 @@
         <v>44516</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -19933,7 +19933,7 @@
         <v>44851</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -19990,7 +19990,7 @@
         <v>44375</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -20047,7 +20047,7 @@
         <v>44875</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -20109,7 +20109,7 @@
         <v>44886.63148148148</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -20191,7 +20191,7 @@
         <v>44515</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -20253,7 +20253,7 @@
         <v>44750</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -20310,7 +20310,7 @@
         <v>44742</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -20392,7 +20392,7 @@
         <v>44544</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -20449,7 +20449,7 @@
         <v>44517.55134259259</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -20506,7 +20506,7 @@
         <v>44601.36165509259</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -20563,7 +20563,7 @@
         <v>44722</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -20625,7 +20625,7 @@
         <v>44722.94023148148</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -20687,7 +20687,7 @@
         <v>44721</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -20744,7 +20744,7 @@
         <v>44845.67710648148</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -20801,7 +20801,7 @@
         <v>44430</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -20858,7 +20858,7 @@
         <v>44385</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -20915,7 +20915,7 @@
         <v>45313.9496875</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -20977,7 +20977,7 @@
         <v>44258</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -21034,7 +21034,7 @@
         <v>44375</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -21091,7 +21091,7 @@
         <v>44340</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -21148,7 +21148,7 @@
         <v>44322</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -21205,7 +21205,7 @@
         <v>44540</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -21262,7 +21262,7 @@
         <v>44655</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -21319,7 +21319,7 @@
         <v>44594</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -21376,7 +21376,7 @@
         <v>44704.94370370371</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -21438,7 +21438,7 @@
         <v>45725.44297453704</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -21495,7 +21495,7 @@
         <v>45743.44207175926</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -21552,7 +21552,7 @@
         <v>45223</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -21614,7 +21614,7 @@
         <v>45621</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -21676,7 +21676,7 @@
         <v>44434</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -21733,7 +21733,7 @@
         <v>45412.46636574074</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -21790,7 +21790,7 @@
         <v>44757.92671296297</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -21847,7 +21847,7 @@
         <v>45324.93804398148</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -21909,7 +21909,7 @@
         <v>45702.51765046296</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -21966,7 +21966,7 @@
         <v>44405</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -22023,7 +22023,7 @@
         <v>45370</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -22080,7 +22080,7 @@
         <v>45748.4396412037</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -22137,7 +22137,7 @@
         <v>45315</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -22194,7 +22194,7 @@
         <v>45338</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -22251,7 +22251,7 @@
         <v>44375</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -22308,7 +22308,7 @@
         <v>45462.96347222223</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -22370,7 +22370,7 @@
         <v>45442.38511574074</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -22427,7 +22427,7 @@
         <v>45435.55372685185</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -22484,7 +22484,7 @@
         <v>45477.26746527778</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -22541,7 +22541,7 @@
         <v>45012</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -22598,7 +22598,7 @@
         <v>45309</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -22655,7 +22655,7 @@
         <v>45002</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -22717,7 +22717,7 @@
         <v>45475.94585648148</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -22779,7 +22779,7 @@
         <v>45357.96106481482</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -22836,7 +22836,7 @@
         <v>44911.54984953703</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -22893,7 +22893,7 @@
         <v>45462.56172453704</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -22950,7 +22950,7 @@
         <v>44909</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -23007,7 +23007,7 @@
         <v>45646.48988425926</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -23069,7 +23069,7 @@
         <v>45646.49012731481</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -23131,7 +23131,7 @@
         <v>45646.49017361111</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -23193,7 +23193,7 @@
         <v>45477.28482638889</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -23250,7 +23250,7 @@
         <v>45805.42827546296</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -23312,7 +23312,7 @@
         <v>45587.42835648148</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -23369,7 +23369,7 @@
         <v>44475</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -23426,7 +23426,7 @@
         <v>45300</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -23483,7 +23483,7 @@
         <v>45691</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -23545,7 +23545,7 @@
         <v>45887.57407407407</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -23602,7 +23602,7 @@
         <v>45551.67761574074</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -23664,7 +23664,7 @@
         <v>45888.40700231482</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -23721,7 +23721,7 @@
         <v>45364.3874074074</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -23778,7 +23778,7 @@
         <v>45320.92060185185</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -23835,7 +23835,7 @@
         <v>45807</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -23892,7 +23892,7 @@
         <v>45807</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -23949,7 +23949,7 @@
         <v>45807.75076388889</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -24006,7 +24006,7 @@
         <v>45611.46912037037</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -24068,7 +24068,7 @@
         <v>45887.55666666666</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -24125,7 +24125,7 @@
         <v>45625</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -24182,7 +24182,7 @@
         <v>44599.45850694444</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -24239,7 +24239,7 @@
         <v>45736.71818287037</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -24296,7 +24296,7 @@
         <v>45811.5928587963</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -24353,7 +24353,7 @@
         <v>45888.52440972222</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -24410,7 +24410,7 @@
         <v>45811.59258101852</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -24467,7 +24467,7 @@
         <v>45800.47802083333</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -24524,7 +24524,7 @@
         <v>45813.43966435185</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -24581,7 +24581,7 @@
         <v>45720.38576388889</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -24643,7 +24643,7 @@
         <v>45725.44039351852</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -24700,7 +24700,7 @@
         <v>45707.42825231481</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -24762,7 +24762,7 @@
         <v>45817</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -24824,7 +24824,7 @@
         <v>45636.5674537037</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -24881,7 +24881,7 @@
         <v>45818.40337962963</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -24943,7 +24943,7 @@
         <v>45567.51068287037</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -25005,7 +25005,7 @@
         <v>45693</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -25062,7 +25062,7 @@
         <v>45819.59429398148</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -25124,7 +25124,7 @@
         <v>45634.72633101852</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -25181,7 +25181,7 @@
         <v>44680.92873842592</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -25238,7 +25238,7 @@
         <v>44466</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -25295,7 +25295,7 @@
         <v>45460.7772800926</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -25352,7 +25352,7 @@
         <v>45895.49024305555</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -25409,7 +25409,7 @@
         <v>45895.4484837963</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -25466,7 +25466,7 @@
         <v>45895.49026620371</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -25523,7 +25523,7 @@
         <v>45895.44856481482</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -25580,7 +25580,7 @@
         <v>45740.54168981482</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -25642,7 +25642,7 @@
         <v>45236.62300925926</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -25704,7 +25704,7 @@
         <v>45678</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -25761,7 +25761,7 @@
         <v>44922</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -25818,7 +25818,7 @@
         <v>45827.49415509259</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -25875,7 +25875,7 @@
         <v>45559.59476851852</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -25937,7 +25937,7 @@
         <v>45344</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -25994,7 +25994,7 @@
         <v>45902.36641203704</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -26051,7 +26051,7 @@
         <v>45902.42280092592</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -26108,7 +26108,7 @@
         <v>45827.36590277778</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -26165,7 +26165,7 @@
         <v>45901</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -26222,7 +26222,7 @@
         <v>44977.98629629629</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -26284,7 +26284,7 @@
         <v>44927.88021990741</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -26341,7 +26341,7 @@
         <v>45238.96770833333</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -26403,7 +26403,7 @@
         <v>45221.92440972223</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -26460,7 +26460,7 @@
         <v>45904.3452662037</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -26517,7 +26517,7 @@
         <v>45237.50966435186</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -26574,7 +26574,7 @@
         <v>45425.96443287037</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -26636,7 +26636,7 @@
         <v>45607.49265046296</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -26693,7 +26693,7 @@
         <v>44655.69303240741</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -26750,7 +26750,7 @@
         <v>45589.62625</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -26807,7 +26807,7 @@
         <v>44701.94034722223</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -26864,7 +26864,7 @@
         <v>45260</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -26921,7 +26921,7 @@
         <v>45630.49710648148</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -26978,7 +26978,7 @@
         <v>45835.67109953704</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -27035,7 +27035,7 @@
         <v>45837.51741898148</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -27097,7 +27097,7 @@
         <v>44634.52982638889</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -27154,7 +27154,7 @@
         <v>45837.57481481481</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -27216,7 +27216,7 @@
         <v>45837.67381944445</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -27278,7 +27278,7 @@
         <v>45547.90777777778</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -27335,7 +27335,7 @@
         <v>45057</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -27392,7 +27392,7 @@
         <v>44735</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -27449,7 +27449,7 @@
         <v>45741.68631944444</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -27506,7 +27506,7 @@
         <v>45837.66230324074</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -27568,7 +27568,7 @@
         <v>45835.4491087963</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -27630,7 +27630,7 @@
         <v>45909.44971064815</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -27687,7 +27687,7 @@
         <v>45688.69356481481</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -27744,7 +27744,7 @@
         <v>45910.4900462963</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -27806,7 +27806,7 @@
         <v>45841.38054398148</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -27863,7 +27863,7 @@
         <v>45000</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -27920,7 +27920,7 @@
         <v>45846.44827546296</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -27977,7 +27977,7 @@
         <v>45600.38585648148</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -28039,7 +28039,7 @@
         <v>45911.40074074074</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -28096,7 +28096,7 @@
         <v>45847.40722222222</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -28158,7 +28158,7 @@
         <v>45911.61579861111</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -28220,7 +28220,7 @@
         <v>45847.61561342593</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -28282,7 +28282,7 @@
         <v>45911.57349537037</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -28344,7 +28344,7 @@
         <v>45847.61533564814</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -28406,7 +28406,7 @@
         <v>45460.81277777778</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -28463,7 +28463,7 @@
         <v>45916.59773148148</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -28520,7 +28520,7 @@
         <v>44643</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -28577,7 +28577,7 @@
         <v>45916.57010416667</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -28634,7 +28634,7 @@
         <v>44750</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -28691,7 +28691,7 @@
         <v>44336</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -28748,7 +28748,7 @@
         <v>45800.48368055555</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -28805,7 +28805,7 @@
         <v>45849.55601851852</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -28862,7 +28862,7 @@
         <v>44298</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -28919,7 +28919,7 @@
         <v>45866.50549768518</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -28981,7 +28981,7 @@
         <v>45922.4077662037</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -29043,7 +29043,7 @@
         <v>45922.4075</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -29105,7 +29105,7 @@
         <v>45807.74140046296</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -29162,7 +29162,7 @@
         <v>45692.55256944444</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -29219,7 +29219,7 @@
         <v>45922</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -29281,7 +29281,7 @@
         <v>45920.8446412037</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -29338,7 +29338,7 @@
         <v>45922.40697916667</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -29400,7 +29400,7 @@
         <v>45922.4074537037</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -29462,7 +29462,7 @@
         <v>45922.40680555555</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -29524,7 +29524,7 @@
         <v>45922.53217592592</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -29581,7 +29581,7 @@
         <v>45924.61512731481</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -29643,7 +29643,7 @@
         <v>45867.46946759259</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -29705,7 +29705,7 @@
         <v>45924.70346064815</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -29762,7 +29762,7 @@
         <v>45924.59484953704</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -29824,7 +29824,7 @@
         <v>45667.46922453704</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -29886,7 +29886,7 @@
         <v>45869</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -29948,7 +29948,7 @@
         <v>45693</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -30005,7 +30005,7 @@
         <v>44378</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -30062,7 +30062,7 @@
         <v>45722.44892361111</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -30124,7 +30124,7 @@
         <v>45719.38630787037</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -30186,7 +30186,7 @@
         <v>45931.40100694444</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -30243,7 +30243,7 @@
         <v>45198</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -30305,7 +30305,7 @@
         <v>45198</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -30367,7 +30367,7 @@
         <v>45588.61512731481</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -30424,7 +30424,7 @@
         <v>45245</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -30486,7 +30486,7 @@
         <v>45691.40832175926</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -30543,7 +30543,7 @@
         <v>45691.40836805556</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -30600,7 +30600,7 @@
         <v>45875.44840277778</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -30657,7 +30657,7 @@
         <v>44970.97871527778</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -30719,7 +30719,7 @@
         <v>45701.61899305556</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -30776,7 +30776,7 @@
         <v>45806.40677083333</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -30833,7 +30833,7 @@
         <v>44580</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -30895,7 +30895,7 @@
         <v>45931.38956018518</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -30952,7 +30952,7 @@
         <v>45685.69267361111</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -31009,7 +31009,7 @@
         <v>45931.67381944445</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -31066,7 +31066,7 @@
         <v>45707</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -31128,7 +31128,7 @@
         <v>45583.46936342592</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -31185,7 +31185,7 @@
         <v>45931.40671296296</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -31242,7 +31242,7 @@
         <v>44410.35376157407</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -31299,7 +31299,7 @@
         <v>45576.46905092592</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -31356,7 +31356,7 @@
         <v>45580.42736111111</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -31413,7 +31413,7 @@
         <v>45770.56363425926</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -31470,7 +31470,7 @@
         <v>45656.53215277778</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -31527,7 +31527,7 @@
         <v>45978.45540509259</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -31584,7 +31584,7 @@
         <v>44711.9403587963</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -31641,7 +31641,7 @@
         <v>44425</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -31698,7 +31698,7 @@
         <v>45707.42392361111</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -31755,7 +31755,7 @@
         <v>45737.40131944444</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -31812,7 +31812,7 @@
         <v>45621.86827546296</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -31869,7 +31869,7 @@
         <v>45643.42986111111</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -31931,7 +31931,7 @@
         <v>45770.6925462963</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -31988,7 +31988,7 @@
         <v>45505.95078703704</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -32050,7 +32050,7 @@
         <v>45937.63275462963</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -32107,7 +32107,7 @@
         <v>45586.40660879629</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -32169,7 +32169,7 @@
         <v>45979.6756712963</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -32231,7 +32231,7 @@
         <v>45937.47302083333</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -32293,7 +32293,7 @@
         <v>44441</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -32350,7 +32350,7 @@
         <v>44922</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -32407,7 +32407,7 @@
         <v>45715.59545138889</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -32464,7 +32464,7 @@
         <v>45686.6859375</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -32521,7 +32521,7 @@
         <v>45939</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -32583,7 +32583,7 @@
         <v>44434</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -32640,7 +32640,7 @@
         <v>45939.49018518518</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -32697,7 +32697,7 @@
         <v>45943.59442129629</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -32759,7 +32759,7 @@
         <v>45944.67787037037</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -32821,7 +32821,7 @@
         <v>45754.56839120371</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -32878,7 +32878,7 @@
         <v>45987.67032407408</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -32935,7 +32935,7 @@
         <v>45763</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -32992,7 +32992,7 @@
         <v>44909.9640162037</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -33054,7 +33054,7 @@
         <v>45945.47097222223</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -33111,7 +33111,7 @@
         <v>45057.9441087963</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -33173,7 +33173,7 @@
         <v>45280</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -33230,7 +33230,7 @@
         <v>45096</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -33287,7 +33287,7 @@
         <v>45707</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -33344,7 +33344,7 @@
         <v>44880</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -33401,7 +33401,7 @@
         <v>45952.5909375</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -33458,7 +33458,7 @@
         <v>44914.35599537037</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -33515,7 +33515,7 @@
         <v>45953.56976851852</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -33572,7 +33572,7 @@
         <v>45261</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -33634,7 +33634,7 @@
         <v>45954.68207175926</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -33691,7 +33691,7 @@
         <v>45953.47575231481</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -33748,7 +33748,7 @@
         <v>45953.58497685185</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -33805,7 +33805,7 @@
         <v>45740.46325231482</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -33862,7 +33862,7 @@
         <v>45957.62978009259</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -33919,7 +33919,7 @@
         <v>45957.67876157408</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -33981,7 +33981,7 @@
         <v>45958.36537037037</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -34043,7 +34043,7 @@
         <v>45958.36498842593</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -34105,7 +34105,7 @@
         <v>45089.54944444444</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -34162,7 +34162,7 @@
         <v>45336</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -34219,7 +34219,7 @@
         <v>45964.46944444445</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -34281,7 +34281,7 @@
         <v>45966.4077662037</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -34338,7 +34338,7 @@
         <v>45344</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -34395,7 +34395,7 @@
         <v>45965.63496527778</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -34452,7 +34452,7 @@
         <v>45593.57327546296</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -34514,7 +34514,7 @@
         <v>45967.49037037037</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -34571,7 +34571,7 @@
         <v>45096</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -34628,7 +34628,7 @@
         <v>45968.53167824074</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -34690,7 +34690,7 @@
         <v>45967.42462962963</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -34747,7 +34747,7 @@
         <v>45166.9569675926</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -34809,7 +34809,7 @@
         <v>45751.34664351852</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -34871,7 +34871,7 @@
         <v>45314.58785879629</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -34928,7 +34928,7 @@
         <v>45974.38310185185</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -34985,7 +34985,7 @@
         <v>45092</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -35042,7 +35042,7 @@
         <v>45457.37893518519</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -35099,7 +35099,7 @@
         <v>45306</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -35156,7 +35156,7 @@
         <v>45978.57414351852</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -35213,7 +35213,7 @@
         <v>45595.34762731481</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -35270,7 +35270,7 @@
         <v>45976.58684027778</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -35327,7 +35327,7 @@
         <v>45616.67833333334</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -35389,7 +35389,7 @@
         <v>44529</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -35446,7 +35446,7 @@
         <v>45328</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -35503,7 +35503,7 @@
         <v>45980.61142361111</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -35560,7 +35560,7 @@
         <v>45982.5862037037</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -35617,7 +35617,7 @@
         <v>45982.61043981482</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -35674,7 +35674,7 @@
         <v>45985.51131944444</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -35731,7 +35731,7 @@
         <v>45985.61524305555</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -35788,7 +35788,7 @@
         <v>45985.51128472222</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -35845,7 +35845,7 @@
         <v>45621.41050925926</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -35902,7 +35902,7 @@
         <v>45986.39024305555</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -35959,7 +35959,7 @@
         <v>45985.53162037037</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -36016,7 +36016,7 @@
         <v>45719.59836805556</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -36073,7 +36073,7 @@
         <v>45987.33479166667</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -36130,7 +36130,7 @@
         <v>45987.34543981482</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -36187,7 +36187,7 @@
         <v>45988.58856481482</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -36244,7 +36244,7 @@
         <v>45987.52949074074</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -36301,7 +36301,7 @@
         <v>44609</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -36358,7 +36358,7 @@
         <v>45428.92486111111</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -36420,7 +36420,7 @@
         <v>45992.38109953704</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -36477,7 +36477,7 @@
         <v>45743.37109953703</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -36534,7 +36534,7 @@
         <v>45987.83457175926</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -36591,7 +36591,7 @@
         <v>45596.55266203704</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -36653,7 +36653,7 @@
         <v>45992.3706712963</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -36710,7 +36710,7 @@
         <v>45992.47729166667</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -36767,7 +36767,7 @@
         <v>45992.37172453704</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -36824,7 +36824,7 @@
         <v>45987.69552083333</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -36881,7 +36881,7 @@
         <v>45628.53381944444</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -36938,7 +36938,7 @@
         <v>45190</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -36995,7 +36995,7 @@
         <v>45646.39434027778</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -37052,7 +37052,7 @@
         <v>45597.36623842592</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -37114,7 +37114,7 @@
         <v>45995</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -37171,7 +37171,7 @@
         <v>45634.70898148148</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -37228,7 +37228,7 @@
         <v>45645.44158564815</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -37285,7 +37285,7 @@
         <v>45118</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -37342,7 +37342,7 @@
         <v>44564.93909722222</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -37399,7 +37399,7 @@
         <v>45610.61030092592</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -37456,7 +37456,7 @@
         <v>45993</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -37513,7 +37513,7 @@
         <v>46000</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -37570,7 +37570,7 @@
         <v>46000.62851851852</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -37627,7 +37627,7 @@
         <v>46000.63969907408</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -37684,7 +37684,7 @@
         <v>45708.44947916667</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -37746,7 +37746,7 @@
         <v>45681.36493055556</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -37808,7 +37808,7 @@
         <v>45681.40689814815</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -37870,7 +37870,7 @@
         <v>45681.4275462963</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -37932,7 +37932,7 @@
         <v>45730.45930555555</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -37994,7 +37994,7 @@
         <v>46041.47474537037</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -38051,7 +38051,7 @@
         <v>46001</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -38108,7 +38108,7 @@
         <v>46000.67793981481</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -38165,7 +38165,7 @@
         <v>46044.85285879629</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -38222,7 +38222,7 @@
         <v>45691</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -38284,7 +38284,7 @@
         <v>45107</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -38341,7 +38341,7 @@
         <v>45762.63375</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -38403,7 +38403,7 @@
         <v>45221.92429398148</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -38460,7 +38460,7 @@
         <v>44635</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -38517,7 +38517,7 @@
         <v>45189</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -38574,7 +38574,7 @@
         <v>45615.31297453704</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -38631,7 +38631,7 @@
         <v>46002</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -38688,7 +38688,7 @@
         <v>45429.92313657407</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -38745,7 +38745,7 @@
         <v>46045.41643518519</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -38802,7 +38802,7 @@
         <v>46003.6159375</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -38859,7 +38859,7 @@
         <v>46003.56467592593</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -38916,7 +38916,7 @@
         <v>44706</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -38973,7 +38973,7 @@
         <v>46045.61509259259</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -39030,7 +39030,7 @@
         <v>45729.3425</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -39087,7 +39087,7 @@
         <v>46045.59430555555</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -39149,7 +39149,7 @@
         <v>46006.51157407407</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -39206,7 +39206,7 @@
         <v>46003</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -39263,7 +39263,7 @@
         <v>46003</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -39320,7 +39320,7 @@
         <v>46006.51155092593</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -39377,7 +39377,7 @@
         <v>46003.62509259259</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -39434,7 +39434,7 @@
         <v>46003.38026620371</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -39491,7 +39491,7 @@
         <v>45701.60046296296</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -39548,7 +39548,7 @@
         <v>45630</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -39605,7 +39605,7 @@
         <v>46050.44859953703</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -39662,7 +39662,7 @@
         <v>45709.36497685185</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -39724,7 +39724,7 @@
         <v>46048.89435185185</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -39781,7 +39781,7 @@
         <v>45572.59430555555</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -39843,7 +39843,7 @@
         <v>46007.5958912037</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -39900,7 +39900,7 @@
         <v>46008.34438657408</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -39957,7 +39957,7 @@
         <v>46008.34443287037</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -40014,7 +40014,7 @@
         <v>46007.33719907407</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -40076,7 +40076,7 @@
         <v>46007.46907407408</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -40133,7 +40133,7 @@
         <v>45231</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -40195,7 +40195,7 @@
         <v>45684</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -40252,7 +40252,7 @@
         <v>46007.49001157407</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -40309,7 +40309,7 @@
         <v>46010.53825231481</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -40366,7 +40366,7 @@
         <v>45707</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -40423,7 +40423,7 @@
         <v>46010.45680555556</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -40480,7 +40480,7 @@
         <v>45707.40493055555</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -40542,7 +40542,7 @@
         <v>44642.93471064815</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -40604,7 +40604,7 @@
         <v>45659.44413194444</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -40661,7 +40661,7 @@
         <v>44368</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -40718,7 +40718,7 @@
         <v>45677.47302083333</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -40775,7 +40775,7 @@
         <v>46013.4459375</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -40832,7 +40832,7 @@
         <v>46056.8547337963</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -40889,7 +40889,7 @@
         <v>46013.50993055556</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -40946,7 +40946,7 @@
         <v>45188</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -41003,7 +41003,7 @@
         <v>44743</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -41060,7 +41060,7 @@
         <v>44721</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -41117,7 +41117,7 @@
         <v>45720.3859375</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -41179,7 +41179,7 @@
         <v>45721.36320601852</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -41236,7 +41236,7 @@
         <v>46014.5496875</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -41293,7 +41293,7 @@
         <v>45321</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -41350,7 +41350,7 @@
         <v>44907</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -41412,7 +41412,7 @@
         <v>46057.40715277778</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -41474,7 +41474,7 @@
         <v>46057.6153125</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -41531,7 +41531,7 @@
         <v>46057.55269675926</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -41588,7 +41588,7 @@
         <v>46051</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -41645,7 +41645,7 @@
         <v>45315</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -41702,7 +41702,7 @@
         <v>46059.44539351852</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -41759,7 +41759,7 @@
         <v>45265.95795138889</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -41821,7 +41821,7 @@
         <v>46019</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -41878,7 +41878,7 @@
         <v>46045</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -41935,7 +41935,7 @@
         <v>46045.56253472222</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -41992,7 +41992,7 @@
         <v>46020.47796296296</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -42049,7 +42049,7 @@
         <v>45679.55256944444</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -42111,7 +42111,7 @@
         <v>45313</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -42168,7 +42168,7 @@
         <v>46062.48398148148</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -42225,7 +42225,7 @@
         <v>46059.44135416667</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -42282,7 +42282,7 @@
         <v>46020.49056712963</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -42339,7 +42339,7 @@
         <v>45302.52006944444</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -42396,7 +42396,7 @@
         <v>44799</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -42453,7 +42453,7 @@
         <v>46021.46912037037</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -42510,7 +42510,7 @@
         <v>45231</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -42572,7 +42572,7 @@
         <v>46064.45548611111</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -42629,7 +42629,7 @@
         <v>45260</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -42686,7 +42686,7 @@
         <v>46021.34450231482</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -42743,7 +42743,7 @@
         <v>46064.39027777778</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -42800,7 +42800,7 @@
         <v>46063.65710648148</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -42857,7 +42857,7 @@
         <v>46021.34454861111</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -42914,7 +42914,7 @@
         <v>46065</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -42971,7 +42971,7 @@
         <v>46065</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -43028,7 +43028,7 @@
         <v>46066.35408564815</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -43085,7 +43085,7 @@
         <v>46065</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -43142,7 +43142,7 @@
         <v>46065.61449074074</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -43204,7 +43204,7 @@
         <v>46024</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -43261,7 +43261,7 @@
         <v>45273</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -43318,7 +43318,7 @@
         <v>46066.6364699074</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -43380,7 +43380,7 @@
         <v>46066.6365625</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -43442,7 +43442,7 @@
         <v>46066</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -43499,7 +43499,7 @@
         <v>46027.59451388889</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -43561,7 +43561,7 @@
         <v>45028</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -43618,7 +43618,7 @@
         <v>44533</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -43675,7 +43675,7 @@
         <v>46066</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -43732,7 +43732,7 @@
         <v>46066</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -43789,7 +43789,7 @@
         <v>44614.91989583334</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -43846,7 +43846,7 @@
         <v>46027.57334490741</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -43903,7 +43903,7 @@
         <v>46070.38542824074</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -43965,7 +43965,7 @@
         <v>45922</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -44027,7 +44027,7 @@
         <v>46029</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -44084,7 +44084,7 @@
         <v>46072.6378587963</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -44141,7 +44141,7 @@
         <v>45588.3440625</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -44198,7 +44198,7 @@
         <v>45588.34418981482</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -44255,7 +44255,7 @@
         <v>46029.41560185186</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -44312,7 +44312,7 @@
         <v>44840</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -44369,7 +44369,7 @@
         <v>45223</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -44426,7 +44426,7 @@
         <v>45677.4649537037</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -44488,7 +44488,7 @@
         <v>44790</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -44545,7 +44545,7 @@
         <v>46073.47060185186</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -44602,7 +44602,7 @@
         <v>46073.48990740741</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -44659,7 +44659,7 @@
         <v>46076.46630787037</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -44716,7 +44716,7 @@
         <v>45475.3378125</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -44773,7 +44773,7 @@
         <v>46034.38729166667</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -44830,7 +44830,7 @@
         <v>46031.6141087963</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -44887,7 +44887,7 @@
         <v>46073.61809027778</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -44944,7 +44944,7 @@
         <v>46073.60355324074</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -45001,7 +45001,7 @@
         <v>46073.62262731481</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -45058,7 +45058,7 @@
         <v>45690.63628472222</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -45115,7 +45115,7 @@
         <v>46076.65672453704</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -45177,7 +45177,7 @@
         <v>45342</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -45239,7 +45239,7 @@
         <v>46077.61247685185</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -45296,7 +45296,7 @@
         <v>46078.59837962963</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -45353,7 +45353,7 @@
         <v>44952</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -45410,7 +45410,7 @@
         <v>44957</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -45467,7 +45467,7 @@
         <v>46078.57627314814</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -45524,7 +45524,7 @@
         <v>45008</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -45581,7 +45581,7 @@
         <v>46032</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -45638,7 +45638,7 @@
         <v>45376</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -45695,7 +45695,7 @@
         <v>44916</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -45752,7 +45752,7 @@
         <v>46078.45979166667</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -45809,7 +45809,7 @@
         <v>44637</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -45866,7 +45866,7 @@
         <v>46078.64712962963</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -45923,7 +45923,7 @@
         <v>44889.59378472222</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -45985,7 +45985,7 @@
         <v>44875</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -46042,7 +46042,7 @@
         <v>44977</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -46104,7 +46104,7 @@
         <v>44949</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -46161,7 +46161,7 @@
         <v>46038.6360300926</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -46218,7 +46218,7 @@
         <v>45743</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -46275,7 +46275,7 @@
         <v>45707</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -46332,7 +46332,7 @@
         <v>46038.62047453703</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -46389,7 +46389,7 @@
         <v>45751</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -46446,7 +46446,7 @@
         <v>45748</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -46503,7 +46503,7 @@
         <v>46037.6703125</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -46560,7 +46560,7 @@
         <v>46080.40689814815</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -46622,7 +46622,7 @@
         <v>46037.6787962963</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -46679,7 +46679,7 @@
         <v>46037.68489583334</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -46736,7 +46736,7 @@
         <v>45866</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -46793,7 +46793,7 @@
         <v>45804</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -46855,7 +46855,7 @@
         <v>46038.6322337963</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -46912,7 +46912,7 @@
         <v>45239.33032407407</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -46974,7 +46974,7 @@
         <v>44721.47241898148</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -47036,7 +47036,7 @@
         <v>45223</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -47093,7 +47093,7 @@
         <v>44511.94629629629</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -47150,7 +47150,7 @@
         <v>45618.6917824074</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -47207,7 +47207,7 @@
         <v>45600.53160879629</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -47269,7 +47269,7 @@
         <v>45112</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -47326,7 +47326,7 @@
         <v>44937</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -47383,7 +47383,7 @@
         <v>44679.92574074074</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -47440,7 +47440,7 @@
         <v>44986</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -47502,7 +47502,7 @@
         <v>44607</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -47559,7 +47559,7 @@
         <v>44742</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -47616,7 +47616,7 @@
         <v>45569.39229166666</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -47673,7 +47673,7 @@
         <v>45149</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -47730,7 +47730,7 @@
         <v>45639.40684027778</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -47792,7 +47792,7 @@
         <v>45734.48991898148</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -47854,7 +47854,7 @@
         <v>45511.92825231481</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -47911,7 +47911,7 @@
         <v>45183</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -47968,7 +47968,7 @@
         <v>45642.54847222222</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -48025,7 +48025,7 @@
         <v>44952</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -48082,7 +48082,7 @@
         <v>45705.57454861111</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -48144,7 +48144,7 @@
         <v>45696.34405092592</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -48201,7 +48201,7 @@
         <v>44883.44737268519</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -48258,7 +48258,7 @@
         <v>45763</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -48315,7 +48315,7 @@
         <v>44837.36724537037</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -48372,7 +48372,7 @@
         <v>45677.44393518518</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -48429,7 +48429,7 @@
         <v>45177.93612268518</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -48491,7 +48491,7 @@
         <v>45567.39192129629</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -48548,7 +48548,7 @@
         <v>45607.55260416667</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -48610,7 +48610,7 @@
         <v>45632.68814814815</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -48667,7 +48667,7 @@
         <v>45574.38943287037</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -48729,7 +48729,7 @@
         <v>44889</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -48786,7 +48786,7 @@
         <v>45686</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -48843,7 +48843,7 @@
         <v>45607.50137731482</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -48900,7 +48900,7 @@
         <v>45757.64563657407</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -48957,7 +48957,7 @@
         <v>44911.93994212963</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -49014,7 +49014,7 @@
         <v>45593.51123842593</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -49076,7 +49076,7 @@
         <v>44323</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -49133,7 +49133,7 @@
         <v>45553.60474537037</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -49190,7 +49190,7 @@
         <v>45223.5036574074</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -49247,7 +49247,7 @@
         <v>45223</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -49304,7 +49304,7 @@
         <v>45012</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -49361,7 +49361,7 @@
         <v>45004</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -49418,7 +49418,7 @@
         <v>45236.92776620371</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -49475,7 +49475,7 @@
         <v>45688.67965277778</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -49537,7 +49537,7 @@
         <v>45203</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -49594,7 +49594,7 @@
         <v>45588.61498842593</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -49656,7 +49656,7 @@
         <v>44986.94196759259</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -49718,7 +49718,7 @@
         <v>45708.50256944444</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -49775,7 +49775,7 @@
         <v>45730.36263888889</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -49832,7 +49832,7 @@
         <v>44922</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -49889,7 +49889,7 @@
         <v>45693</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -49946,7 +49946,7 @@
         <v>45280</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -50003,7 +50003,7 @@
         <v>45736.71956018519</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -50065,7 +50065,7 @@
         <v>44375</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -50122,7 +50122,7 @@
         <v>44911.5662037037</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -50179,7 +50179,7 @@
         <v>45667.40662037037</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -50241,7 +50241,7 @@
         <v>45159.42180555555</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -50298,7 +50298,7 @@
         <v>45684.56725694444</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -50355,7 +50355,7 @@
         <v>45617.65800925926</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -50412,7 +50412,7 @@
         <v>45264</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -50469,7 +50469,7 @@
         <v>45751.36519675926</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -50526,7 +50526,7 @@
         <v>45660.32672453704</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -50583,7 +50583,7 @@
         <v>45646.35685185185</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -50640,7 +50640,7 @@
         <v>45418.4843287037</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -50697,7 +50697,7 @@
         <v>45777.58025462963</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -50754,7 +50754,7 @@
         <v>45777.62665509259</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -50811,7 +50811,7 @@
         <v>45779</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -50868,7 +50868,7 @@
         <v>45743.39528935185</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -50925,7 +50925,7 @@
         <v>45754</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -50987,7 +50987,7 @@
         <v>45754</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -51049,7 +51049,7 @@
         <v>45686.64175925926</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -51106,7 +51106,7 @@
         <v>45789.42538194444</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -51163,7 +51163,7 @@
         <v>45786</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -51220,7 +51220,7 @@
         <v>45760.66995370371</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -51277,7 +51277,7 @@
         <v>45686.92384259259</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -51334,7 +51334,7 @@
         <v>45686.92864583333</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -51391,7 +51391,7 @@
         <v>45789.56414351852</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -51448,7 +51448,7 @@
         <v>45789</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -51505,7 +51505,7 @@
         <v>45790.43905092592</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -51562,7 +51562,7 @@
         <v>45791</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -51619,7 +51619,7 @@
         <v>45791.35212962963</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -51676,7 +51676,7 @@
         <v>45791.27984953704</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -51733,7 +51733,7 @@
         <v>45791.36526620371</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -51790,7 +51790,7 @@
         <v>45561.34908564815</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -51852,7 +51852,7 @@
         <v>45793.68469907407</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -51909,7 +51909,7 @@
         <v>45797.65025462963</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -51966,7 +51966,7 @@
         <v>45798.42108796296</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -52023,7 +52023,7 @@
         <v>45798.46913194445</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -52085,7 +52085,7 @@
         <v>45611.66655092593</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -52142,7 +52142,7 @@
         <v>45799.56515046296</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -52199,7 +52199,7 @@
         <v>45800.46960648148</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -52256,7 +52256,7 @@
         <v>45799.68418981481</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -52313,7 +52313,7 @@
         <v>45800.50355324074</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -52370,7 +52370,7 @@
         <v>45799.69116898148</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -52427,7 +52427,7 @@
         <v>45799.7372337963</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -52484,7 +52484,7 @@
         <v>45803</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
